--- a/src/main/java/com/example/invoicetracker/dummyfile.xlsx
+++ b/src/main/java/com/example/invoicetracker/dummyfile.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MGU31\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/24eaf3c5edf59ebb/Desktop/Excel Sheet Creator/InvoiceTracker/InvoiceTracker/src/main/java/com/example/invoicetracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA4A331-C482-4FF3-8C91-1F96F6948E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{ECA4A331-C482-4FF3-8C91-1F96F6948E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F31600B-2ABE-481B-8540-AE7EA6C1A89F}"/>
   <bookViews>
-    <workbookView xWindow="59520" yWindow="9360" windowWidth="14820" windowHeight="10710" xr2:uid="{5721DB7F-C36F-4E51-A90E-0469C95F6CFB}"/>
+    <workbookView xWindow="21624" yWindow="2820" windowWidth="14820" windowHeight="10716" xr2:uid="{5721DB7F-C36F-4E51-A90E-0469C95F6CFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Selling Sheet" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="85">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -291,9 +291,6 @@
     <t>#19744626</t>
   </si>
   <si>
-    <t xml:space="preserve"> 01-31-2022</t>
-  </si>
-  <si>
     <t>na</t>
   </si>
 </sst>
@@ -306,7 +303,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="mm\-dd\-yyyy"/>
-    <numFmt numFmtId="167" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="166" formatCode="m/d/yy;@"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -510,13 +507,13 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -542,7 +539,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="167" formatCode="m/d/yy;@"/>
+      <numFmt numFmtId="166" formatCode="m/d/yy;@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -995,7 +992,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A202"/>
     </sheetView>
   </sheetViews>
@@ -2278,8 +2275,8 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="40" t="s">
-        <v>84</v>
+      <c r="A33" s="40">
+        <v>44592</v>
       </c>
       <c r="B33" s="10">
         <v>38</v>
@@ -3500,7 +3497,7 @@
         <v>18590763</v>
       </c>
       <c r="E64" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F64" s="1">
         <v>1.99</v>

--- a/src/main/java/com/example/invoicetracker/dummyfile.xlsx
+++ b/src/main/java/com/example/invoicetracker/dummyfile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/24eaf3c5edf59ebb/Desktop/Excel Sheet Creator/InvoiceTracker/InvoiceTracker/src/main/java/com/example/invoicetracker/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nate\IdeaProjects\MuthreProject\src\main\java\com\example\invoicetracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{ECA4A331-C482-4FF3-8C91-1F96F6948E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F31600B-2ABE-481B-8540-AE7EA6C1A89F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3D9C6B-1E8B-461E-95AC-2A02447221A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21624" yWindow="2820" windowWidth="14820" windowHeight="10716" xr2:uid="{5721DB7F-C36F-4E51-A90E-0469C95F6CFB}"/>
+    <workbookView xWindow="2220" yWindow="1050" windowWidth="21600" windowHeight="11295" xr2:uid="{5721DB7F-C36F-4E51-A90E-0469C95F6CFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Selling Sheet" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="89">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -293,6 +293,18 @@
   <si>
     <t>na</t>
   </si>
+  <si>
+    <t>$0</t>
+  </si>
+  <si>
+    <t>$8383</t>
+  </si>
+  <si>
+    <t>$231</t>
+  </si>
+  <si>
+    <t>$321</t>
+  </si>
 </sst>
 </file>
 
@@ -450,7 +462,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -463,9 +475,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -516,32 +525,16 @@
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="m/d/yy;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -597,6 +590,7 @@
       </font>
     </dxf>
     <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -604,6 +598,26 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="m/d/yy;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -672,17 +686,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9A1DD1CE-BA5E-4E87-BE89-1AF9DFCB5BC7}" name="Table4" displayName="Table4" ref="A1:L202" totalsRowShown="0" headerRowDxfId="7" headerRowCellStyle="Currency">
-  <autoFilter ref="A1:L202" xr:uid="{9A1DD1CE-BA5E-4E87-BE89-1AF9DFCB5BC7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9A1DD1CE-BA5E-4E87-BE89-1AF9DFCB5BC7}" name="Table4" displayName="Table4" ref="A1:L175" totalsRowShown="0" headerRowDxfId="7" headerRowCellStyle="Currency">
+  <autoFilter ref="A1:L175" xr:uid="{9A1DD1CE-BA5E-4E87-BE89-1AF9DFCB5BC7}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{ADBE4EBC-93A3-43D0-9A64-7205AD098FEF}" name="Column1" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{D3B1EC1B-DA47-4154-A899-E3D42E9E1A5D}" name="Pieces" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{0EC7C46D-1B90-4458-A24C-69ACA080143A}" name="Lots" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{9315B319-2085-4E33-9755-586CC97109CF}" name="Invoice" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{ADBE4EBC-93A3-43D0-9A64-7205AD098FEF}" name="Column1" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{D3B1EC1B-DA47-4154-A899-E3D42E9E1A5D}" name="Pieces" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{0EC7C46D-1B90-4458-A24C-69ACA080143A}" name="Lots" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{9315B319-2085-4E33-9755-586CC97109CF}" name="Invoice" dataDxfId="3"/>
     <tableColumn id="5" xr3:uid="{BC3D5AE9-AB83-477A-9E57-B8769AC94ACD}" name="Order"/>
-    <tableColumn id="6" xr3:uid="{52B23548-5C10-4A5C-B744-56D2E52DA285}" name="Order TTL" dataDxfId="3" dataCellStyle="Currency"/>
-    <tableColumn id="7" xr3:uid="{DD4E3639-F1B5-4B16-B96D-93700DB57469}" name="Final TTL" dataDxfId="2" dataCellStyle="Currency"/>
-    <tableColumn id="8" xr3:uid="{76948350-640B-4B12-B45B-16613F0D56D9}" name="Shipping" dataDxfId="1" dataCellStyle="Currency"/>
+    <tableColumn id="6" xr3:uid="{52B23548-5C10-4A5C-B744-56D2E52DA285}" name="Order TTL" dataDxfId="2" dataCellStyle="Currency"/>
+    <tableColumn id="7" xr3:uid="{DD4E3639-F1B5-4B16-B96D-93700DB57469}" name="Final TTL" dataDxfId="1" dataCellStyle="Currency"/>
+    <tableColumn id="8" xr3:uid="{76948350-640B-4B12-B45B-16613F0D56D9}" name="Shipping" dataDxfId="0" dataCellStyle="Currency"/>
     <tableColumn id="9" xr3:uid="{23759160-A712-4638-8BD4-B8B4AC725D4D}" name="Column2" dataCellStyle="Currency"/>
     <tableColumn id="10" xr3:uid="{2D829229-8402-4F98-AA4A-6FBFA307A399}" name="Total Made"/>
     <tableColumn id="11" xr3:uid="{A3F5F976-9C7D-4882-BBD1-1816E99138C5}" name="Overall Made"/>
@@ -990,30 +1004,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D25807D-1264-43B8-81A9-D69D4653921A}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S202"/>
+  <dimension ref="A1:S175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A202"/>
+    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="A202" sqref="A176:XFD202"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" style="39" customWidth="1"/>
-    <col min="2" max="2" width="8.109375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="23.21875" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" customWidth="1"/>
-    <col min="10" max="10" width="13.77734375" customWidth="1"/>
-    <col min="11" max="11" width="15.44140625" customWidth="1"/>
-    <col min="12" max="12" width="45.88671875" customWidth="1"/>
-    <col min="13" max="13" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="38" width="10.42578125"/>
+    <col min="2" max="2" customWidth="true" style="9" width="8.140625"/>
+    <col min="3" max="3" customWidth="true" style="9" width="6.28515625"/>
+    <col min="4" max="4" customWidth="true" style="43" width="23.28515625"/>
+    <col min="6" max="6" customWidth="true" style="1" width="12.28515625"/>
+    <col min="7" max="7" customWidth="true" style="1" width="11.42578125"/>
+    <col min="8" max="8" customWidth="true" style="1" width="11.5703125"/>
+    <col min="9" max="9" customWidth="true" width="10.42578125"/>
+    <col min="10" max="10" customWidth="true" width="13.7109375"/>
+    <col min="11" max="11" customWidth="true" width="15.42578125"/>
+    <col min="12" max="12" customWidth="true" width="45.85546875"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="10.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
         <v>23</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -1053,17 +1067,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40">
+    <row r="2" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="39">
         <v>44562</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <v>8</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="9">
         <v>5</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="42">
         <v>18035648</v>
       </c>
       <c r="E2">
@@ -1091,30 +1105,30 @@
         <f t="shared" ref="L2:L33" si="1">_xlfn.CONCAT(E2,$N$2,D2)</f>
         <v>432-#18035648</v>
       </c>
-      <c r="M2" s="13">
+      <c r="M2" s="12">
         <f>K31+K58+K81+K110+K126</f>
         <v>1551.8340000000003</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="40">
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="39">
         <v>44563</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <v>1</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>1</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="42">
         <v>18048673</v>
       </c>
       <c r="E3">
@@ -1143,17 +1157,17 @@
         <v>433-#18048673</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="40">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="39">
         <v>44564</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>4</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>2</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="42">
         <v>18053332</v>
       </c>
       <c r="E4">
@@ -1182,17 +1196,17 @@
         <v>434-#18053332</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="40">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="39">
         <v>44565</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>22</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>3</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="42">
         <v>18074627</v>
       </c>
       <c r="E5">
@@ -1221,17 +1235,17 @@
         <v>435-#18074627</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="40">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="39">
         <v>44566</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <v>9</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>3</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="42">
         <v>18077599</v>
       </c>
       <c r="E6">
@@ -1260,17 +1274,17 @@
         <v>436-#18077599</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="40">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="39">
         <v>44567</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <v>9</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <v>6</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="42">
         <v>18084848</v>
       </c>
       <c r="E7">
@@ -1299,17 +1313,17 @@
         <v>437-#18084848</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="40">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="39">
         <v>44568</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>146</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>53</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="42">
         <v>18085251</v>
       </c>
       <c r="E8">
@@ -1338,17 +1352,17 @@
         <v>438-#18085251</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="40">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="39">
         <v>44569</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <v>79</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>47</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="42">
         <v>18087884</v>
       </c>
       <c r="E9">
@@ -1377,17 +1391,17 @@
         <v>439-#18087884</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="40">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="39">
         <v>44570</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <v>12</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>8</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="42">
         <v>18114189</v>
       </c>
       <c r="E10">
@@ -1416,17 +1430,17 @@
         <v>440-#18114189</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="40">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="39">
         <v>44571</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="9">
         <v>134</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="9">
         <v>13</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="42">
         <v>18120378</v>
       </c>
       <c r="E11">
@@ -1455,17 +1469,17 @@
         <v>441-#18120378</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="40">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="39">
         <v>44572</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="9">
         <v>207</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <v>67</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="42">
         <v>18127715</v>
       </c>
       <c r="E12">
@@ -1494,17 +1508,17 @@
         <v>442-#18127715</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="40">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="39">
         <v>44573</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="9">
         <v>1</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="9">
         <v>1</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="42">
         <v>18141822</v>
       </c>
       <c r="E13">
@@ -1533,17 +1547,17 @@
         <v>443-#18141822</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="40">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="39">
         <v>44574</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="9">
         <v>111</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="9">
         <v>34</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="42">
         <v>18143576</v>
       </c>
       <c r="E14">
@@ -1572,17 +1586,17 @@
         <v>444-#18143576</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="40">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="39">
         <v>44575</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="9">
         <v>4</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="9">
         <v>4</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="42">
         <v>18146029</v>
       </c>
       <c r="E15">
@@ -1611,17 +1625,17 @@
         <v>445-#18146029</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="40">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="39">
         <v>44576</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="9">
         <v>43</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="9">
         <v>22</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="42">
         <v>18151206</v>
       </c>
       <c r="E16">
@@ -1650,17 +1664,17 @@
         <v>446-#18151206</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="40">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="39">
         <v>44577</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="9">
         <v>20</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="9">
         <v>10</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="42">
         <v>18152067</v>
       </c>
       <c r="E17">
@@ -1689,17 +1703,17 @@
         <v>447-#18152067</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="40">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="39">
         <v>44578</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="9">
         <v>15</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="9">
         <v>11</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="42">
         <v>18158903</v>
       </c>
       <c r="E18">
@@ -1728,17 +1742,17 @@
         <v>448-#18158903</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="40">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="39">
         <v>44579</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="9">
         <v>2</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="9">
         <v>1</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="42">
         <v>18169857</v>
       </c>
       <c r="E19">
@@ -1767,17 +1781,17 @@
         <v>449-#18169857</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="40">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="39">
         <v>44580</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="9">
         <v>31</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="9">
         <v>20</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="42">
         <v>18177181</v>
       </c>
       <c r="E20">
@@ -1806,17 +1820,17 @@
         <v>450-#18177181</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="40">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="39">
         <v>44581</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="9">
         <v>1</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="9">
         <v>1</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="42">
         <v>18187421</v>
       </c>
       <c r="E21">
@@ -1845,17 +1859,17 @@
         <v>451-#18187421</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="40">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="39">
         <v>44582</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="9">
         <v>820</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="9">
         <v>122</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="42">
         <v>18192511</v>
       </c>
       <c r="E22">
@@ -1884,17 +1898,17 @@
         <v>454-#18192511</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="40">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="39">
         <v>44583</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="9">
         <v>82</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="9">
         <v>30</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="42">
         <v>18193493</v>
       </c>
       <c r="E23">
@@ -1923,17 +1937,17 @@
         <v>455-#18193493</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="40">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="39">
         <v>44584</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="9">
         <v>19</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="9">
         <v>16</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="42">
         <v>18198143</v>
       </c>
       <c r="E24">
@@ -1962,17 +1976,17 @@
         <v>456-#18198143</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="40">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="39">
         <v>44585</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="9">
         <v>1</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="9">
         <v>1</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="42">
         <v>18224250</v>
       </c>
       <c r="E25">
@@ -2001,17 +2015,17 @@
         <v>457-#18224250</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="40">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="39">
         <v>44586</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="9">
         <v>3</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="9">
         <v>3</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="42">
         <v>18227914</v>
       </c>
       <c r="E26">
@@ -2040,17 +2054,17 @@
         <v>458-#18227914</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="40">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="39">
         <v>44587</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="9">
         <v>5</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="9">
         <v>4</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="42">
         <v>18243438</v>
       </c>
       <c r="E27">
@@ -2079,17 +2093,17 @@
         <v>459-#18243438</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="40">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="39">
         <v>44588</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="9">
         <v>3</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="9">
         <v>15</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="42">
         <v>18247415</v>
       </c>
       <c r="E28">
@@ -2118,17 +2132,17 @@
         <v>460-#18247415</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="40">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="39">
         <v>44589</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="9">
         <v>19</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="9">
         <v>3</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="42">
         <v>18258092</v>
       </c>
       <c r="E29">
@@ -2157,17 +2171,17 @@
         <v>461-#18258092</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="40">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="39">
         <v>44590</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="9">
         <v>4</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="9">
         <v>48</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="42">
         <v>18273145</v>
       </c>
       <c r="E30">
@@ -2196,17 +2210,17 @@
         <v>462-#18273145</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="40">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="39">
         <v>44591</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="9">
         <v>135</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="9">
         <v>48</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="42">
         <v>18280347</v>
       </c>
       <c r="E31">
@@ -2235,17 +2249,17 @@
         <v>463-#18280347</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="40">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="39">
         <v>44592</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="9">
         <v>34</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="9">
         <v>18</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="42">
         <v>18309703</v>
       </c>
       <c r="E32">
@@ -2274,17 +2288,17 @@
         <v>464-#18309703</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="40">
+    <row r="33" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="39">
         <v>44592</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="9">
         <v>38</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="9">
         <v>22</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="42">
         <v>18329685</v>
       </c>
       <c r="E33">
@@ -2313,17 +2327,17 @@
         <v>465-#18329685</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="40">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="39">
         <v>44592</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="9">
         <v>84</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="9">
         <v>15</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="42">
         <v>18331644</v>
       </c>
       <c r="E34">
@@ -2352,17 +2366,17 @@
         <v>466-#18331644</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="40">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="39">
         <v>44598</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="9">
         <v>1</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="9">
         <v>1</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="42">
         <v>18347023</v>
       </c>
       <c r="E35">
@@ -2391,17 +2405,17 @@
         <v>467-#18347023</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="41">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="40">
         <v>44598</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B36" s="9">
         <v>9</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="9">
         <v>6</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="42">
         <v>18351494</v>
       </c>
       <c r="E36">
@@ -2430,17 +2444,17 @@
         <v>468-#18351494</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="40">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="39">
         <v>44598</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B37" s="9">
         <v>64</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="9">
         <v>21</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="42">
         <v>18351537</v>
       </c>
       <c r="E37">
@@ -2469,17 +2483,17 @@
         <v>469-#18351537</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="40">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="39">
         <v>44600</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B38" s="9">
         <v>18</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="9">
         <v>11</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="42">
         <v>18364479</v>
       </c>
       <c r="E38">
@@ -2508,17 +2522,17 @@
         <v>470-#18364479</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="40">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="39">
         <v>44600</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B39" s="9">
         <v>163</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="9">
         <v>63</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="42">
         <v>18379839</v>
       </c>
       <c r="E39">
@@ -2547,17 +2561,17 @@
         <v>472-#18379839</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="40">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="39">
         <v>44601</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B40" s="9">
         <v>37</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="9">
         <v>25</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="42">
         <v>18387664</v>
       </c>
       <c r="E40">
@@ -2586,17 +2600,17 @@
         <v>473-#18387664</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="40">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="39">
         <v>44602</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B41" s="9">
         <v>141</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C41" s="9">
         <v>23</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="42">
         <v>18403827</v>
       </c>
       <c r="E41">
@@ -2625,17 +2639,17 @@
         <v>474-#18403827</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="40">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="39">
         <v>44604</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B42" s="9">
         <v>2</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="9">
         <v>2</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="42">
         <v>18409405</v>
       </c>
       <c r="E42">
@@ -2664,17 +2678,17 @@
         <v>475-#18409405</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="40">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="39">
         <v>44604</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B43" s="9">
         <v>28</v>
       </c>
-      <c r="C43" s="10">
+      <c r="C43" s="9">
         <v>10</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="42">
         <v>18417911</v>
       </c>
       <c r="E43">
@@ -2703,17 +2717,17 @@
         <v>476-#18417911</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="40">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="39">
         <v>44605</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B44" s="9">
         <v>2</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C44" s="9">
         <v>1</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="42">
         <v>18426228</v>
       </c>
       <c r="E44">
@@ -2742,17 +2756,17 @@
         <v>477-#18426228</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="40">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="39">
         <v>44606</v>
       </c>
-      <c r="B45" s="10">
+      <c r="B45" s="9">
         <v>38</v>
       </c>
-      <c r="C45" s="10">
+      <c r="C45" s="9">
         <v>11</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="42">
         <v>18429496</v>
       </c>
       <c r="E45">
@@ -2781,17 +2795,17 @@
         <v>478-#18429496</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="40">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="39">
         <v>44607</v>
       </c>
-      <c r="B46" s="10">
+      <c r="B46" s="9">
         <v>42</v>
       </c>
-      <c r="C46" s="10">
+      <c r="C46" s="9">
         <v>17</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="42">
         <v>18430213</v>
       </c>
       <c r="E46">
@@ -2820,17 +2834,17 @@
         <v>479-#18430213</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="40">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="39">
         <v>44607</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B47" s="9">
         <v>38</v>
       </c>
-      <c r="C47" s="10">
+      <c r="C47" s="9">
         <v>28</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="42">
         <v>18436637</v>
       </c>
       <c r="E47">
@@ -2859,17 +2873,17 @@
         <v>480-#18436637</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="40">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="39">
         <v>44607</v>
       </c>
-      <c r="B48" s="10">
+      <c r="B48" s="9">
         <v>13</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C48" s="9">
         <v>6</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="42">
         <v>18439282</v>
       </c>
       <c r="E48">
@@ -2898,17 +2912,17 @@
         <v>481-#18439282</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="40">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="39">
         <v>44608</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B49" s="9">
         <v>8</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C49" s="9">
         <v>3</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="42">
         <v>18455216</v>
       </c>
       <c r="E49">
@@ -2937,17 +2951,17 @@
         <v>482-#18455216</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" s="40">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="39">
         <v>44609</v>
       </c>
-      <c r="B50" s="10">
+      <c r="B50" s="9">
         <v>4</v>
       </c>
-      <c r="C50" s="10">
+      <c r="C50" s="9">
         <v>3</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D50" s="42">
         <v>18456305</v>
       </c>
       <c r="E50">
@@ -2976,17 +2990,17 @@
         <v>483-#18456305</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" s="40">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="39">
         <v>44610</v>
       </c>
-      <c r="B51" s="10">
+      <c r="B51" s="9">
         <v>42</v>
       </c>
-      <c r="C51" s="10">
+      <c r="C51" s="9">
         <v>25</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D51" s="42">
         <v>18504211</v>
       </c>
       <c r="E51">
@@ -3015,17 +3029,17 @@
         <v>485-#18504211</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" s="40">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="39">
         <v>44614</v>
       </c>
-      <c r="B52" s="10">
+      <c r="B52" s="9">
         <v>19</v>
       </c>
-      <c r="C52" s="10">
+      <c r="C52" s="9">
         <v>10</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D52" s="42">
         <v>18510814</v>
       </c>
       <c r="E52">
@@ -3054,17 +3068,17 @@
         <v>486-#18510814</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53" s="40">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="39">
         <v>44615</v>
       </c>
-      <c r="B53" s="10">
+      <c r="B53" s="9">
         <v>20</v>
       </c>
-      <c r="C53" s="10">
+      <c r="C53" s="9">
         <v>12</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D53" s="42">
         <v>18516594</v>
       </c>
       <c r="E53">
@@ -3093,17 +3107,17 @@
         <v>487-#18516594</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A54" s="40">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="39">
         <v>44616</v>
       </c>
-      <c r="B54" s="10">
+      <c r="B54" s="9">
         <v>26</v>
       </c>
-      <c r="C54" s="10">
+      <c r="C54" s="9">
         <v>10</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D54" s="42">
         <v>18519251</v>
       </c>
       <c r="E54">
@@ -3132,17 +3146,17 @@
         <v>488-#18519251</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55" s="40">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="39">
         <v>44617</v>
       </c>
-      <c r="B55" s="10">
+      <c r="B55" s="9">
         <v>33</v>
       </c>
-      <c r="C55" s="10">
+      <c r="C55" s="9">
         <v>20</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D55" s="42">
         <v>18526836</v>
       </c>
       <c r="E55">
@@ -3171,17 +3185,17 @@
         <v>489-#18526836</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56" s="40">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="39">
         <v>44619</v>
       </c>
-      <c r="B56" s="10">
+      <c r="B56" s="9">
         <v>21</v>
       </c>
-      <c r="C56" s="10">
+      <c r="C56" s="9">
         <v>3</v>
       </c>
-      <c r="D56" s="8">
+      <c r="D56" s="42">
         <v>18545489</v>
       </c>
       <c r="E56">
@@ -3210,17 +3224,17 @@
         <v>490-#18545489</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A57" s="40">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="39">
         <v>44620</v>
       </c>
-      <c r="B57" s="10">
+      <c r="B57" s="9">
         <v>59</v>
       </c>
-      <c r="C57" s="10">
+      <c r="C57" s="9">
         <v>29</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D57" s="42">
         <v>18554242</v>
       </c>
       <c r="E57">
@@ -3249,17 +3263,17 @@
         <v>491-#18554242</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A58" s="40">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="39">
         <v>44620</v>
       </c>
-      <c r="B58" s="10">
+      <c r="B58" s="9">
         <v>53</v>
       </c>
-      <c r="C58" s="10">
+      <c r="C58" s="9">
         <v>18</v>
       </c>
-      <c r="D58" s="8">
+      <c r="D58" s="42">
         <v>18554826</v>
       </c>
       <c r="E58">
@@ -3288,17 +3302,17 @@
         <v>492-#18554826</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A59" s="40">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="39">
         <v>44621</v>
       </c>
-      <c r="B59" s="10">
+      <c r="B59" s="9">
         <v>34</v>
       </c>
-      <c r="C59" s="10">
+      <c r="C59" s="9">
         <v>11</v>
       </c>
-      <c r="D59" s="8">
+      <c r="D59" s="42">
         <v>18560446</v>
       </c>
       <c r="E59">
@@ -3327,17 +3341,17 @@
         <v>493-#18560446</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A60" s="40">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="39">
         <v>44621</v>
       </c>
-      <c r="B60" s="10">
+      <c r="B60" s="9">
         <v>5</v>
       </c>
-      <c r="C60" s="10">
+      <c r="C60" s="9">
         <v>3</v>
       </c>
-      <c r="D60" s="8">
+      <c r="D60" s="42">
         <v>18562673</v>
       </c>
       <c r="E60">
@@ -3366,17 +3380,17 @@
         <v>494-#18562673</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A61" s="40">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="39">
         <v>44622</v>
       </c>
-      <c r="B61" s="10">
+      <c r="B61" s="9">
         <v>8</v>
       </c>
-      <c r="C61" s="10">
+      <c r="C61" s="9">
         <v>5</v>
       </c>
-      <c r="D61" s="8">
+      <c r="D61" s="42">
         <v>18568031</v>
       </c>
       <c r="E61">
@@ -3405,17 +3419,17 @@
         <v>495-#18568031</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A62" s="40">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="39">
         <v>44622</v>
       </c>
-      <c r="B62" s="10">
+      <c r="B62" s="9">
         <v>1</v>
       </c>
-      <c r="C62" s="10">
+      <c r="C62" s="9">
         <v>1</v>
       </c>
-      <c r="D62" s="8">
+      <c r="D62" s="42">
         <v>18574456</v>
       </c>
       <c r="E62">
@@ -3444,17 +3458,17 @@
         <v>496-#18574456</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A63" s="40">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="39">
         <v>44623</v>
       </c>
-      <c r="B63" s="10">
+      <c r="B63" s="9">
         <v>6</v>
       </c>
-      <c r="C63" s="10">
+      <c r="C63" s="9">
         <v>5</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D63" s="42">
         <v>18578399</v>
       </c>
       <c r="E63">
@@ -3483,17 +3497,17 @@
         <v>497-#18578399</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A64" s="40">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="39">
         <v>44624</v>
       </c>
-      <c r="B64" s="10">
+      <c r="B64" s="9">
         <v>20</v>
       </c>
-      <c r="C64" s="10">
+      <c r="C64" s="9">
         <v>8</v>
       </c>
-      <c r="D64" s="8">
+      <c r="D64" s="42">
         <v>18590763</v>
       </c>
       <c r="E64" t="s">
@@ -3522,17 +3536,17 @@
         <v>na-#18590763</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A65" s="40">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="39">
         <v>44628</v>
       </c>
-      <c r="B65" s="10">
+      <c r="B65" s="9">
         <v>4</v>
       </c>
-      <c r="C65" s="10">
+      <c r="C65" s="9">
         <v>3</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D65" s="42">
         <v>18622126</v>
       </c>
       <c r="E65">
@@ -3561,17 +3575,17 @@
         <v>498-#18622126</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A66" s="40">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="39">
         <v>44630</v>
       </c>
-      <c r="B66" s="10">
+      <c r="B66" s="9">
         <v>132</v>
       </c>
-      <c r="C66" s="10">
+      <c r="C66" s="9">
         <v>37</v>
       </c>
-      <c r="D66" s="8">
+      <c r="D66" s="42">
         <v>18641182</v>
       </c>
       <c r="E66">
@@ -3600,17 +3614,17 @@
         <v>499-#18641182</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A67" s="40">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="39">
         <v>44633</v>
       </c>
-      <c r="B67" s="10">
+      <c r="B67" s="9">
         <v>20</v>
       </c>
-      <c r="C67" s="10">
+      <c r="C67" s="9">
         <v>5</v>
       </c>
-      <c r="D67" s="8">
+      <c r="D67" s="42">
         <v>18659888</v>
       </c>
       <c r="E67">
@@ -3639,17 +3653,17 @@
         <v>500-#18659888</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A68" s="40">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="39">
         <v>44633</v>
       </c>
-      <c r="B68" s="10">
+      <c r="B68" s="9">
         <v>2</v>
       </c>
-      <c r="C68" s="10">
+      <c r="C68" s="9">
         <v>2</v>
       </c>
-      <c r="D68" s="8">
+      <c r="D68" s="42">
         <v>18665074</v>
       </c>
       <c r="E68">
@@ -3678,17 +3692,17 @@
         <v>501-#18665074</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A69" s="40">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="39">
         <v>44634</v>
       </c>
-      <c r="B69" s="10">
+      <c r="B69" s="9">
         <v>476</v>
       </c>
-      <c r="C69" s="10">
+      <c r="C69" s="9">
         <v>80</v>
       </c>
-      <c r="D69" s="8">
+      <c r="D69" s="42">
         <v>18674847</v>
       </c>
       <c r="E69">
@@ -3717,17 +3731,17 @@
         <v>502-#18674847</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A70" s="40">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="39">
         <v>44634</v>
       </c>
-      <c r="B70" s="10">
+      <c r="B70" s="9">
         <v>1</v>
       </c>
-      <c r="C70" s="10">
+      <c r="C70" s="9">
         <v>1</v>
       </c>
-      <c r="D70" s="8">
+      <c r="D70" s="42">
         <v>18674950</v>
       </c>
       <c r="E70">
@@ -3756,17 +3770,17 @@
         <v>503-#18674950</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A71" s="40">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="39">
         <v>44636</v>
       </c>
-      <c r="B71" s="10">
+      <c r="B71" s="9">
         <v>63</v>
       </c>
-      <c r="C71" s="10">
+      <c r="C71" s="9">
         <v>20</v>
       </c>
-      <c r="D71" s="8">
+      <c r="D71" s="42">
         <v>18686902</v>
       </c>
       <c r="E71">
@@ -3795,17 +3809,17 @@
         <v>504-#18686902</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A72" s="40">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="39">
         <v>44638</v>
       </c>
-      <c r="B72" s="10">
+      <c r="B72" s="9">
         <v>7</v>
       </c>
-      <c r="C72" s="10">
+      <c r="C72" s="9">
         <v>3</v>
       </c>
-      <c r="D72" s="8">
+      <c r="D72" s="42">
         <v>18704298</v>
       </c>
       <c r="E72">
@@ -3834,17 +3848,17 @@
         <v>505-#18704298</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A73" s="40">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="39">
         <v>44638</v>
       </c>
-      <c r="B73" s="10">
+      <c r="B73" s="9">
         <v>20</v>
       </c>
-      <c r="C73" s="10">
+      <c r="C73" s="9">
         <v>14</v>
       </c>
-      <c r="D73" s="8">
+      <c r="D73" s="42">
         <v>18706736</v>
       </c>
       <c r="E73">
@@ -3873,17 +3887,17 @@
         <v>506-#18706736</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A74" s="40">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="39">
         <v>44645</v>
       </c>
-      <c r="B74" s="10">
+      <c r="B74" s="9">
         <v>3</v>
       </c>
-      <c r="C74" s="10">
+      <c r="C74" s="9">
         <v>3</v>
       </c>
-      <c r="D74" s="8">
+      <c r="D74" s="42">
         <v>18755556</v>
       </c>
       <c r="E74">
@@ -3912,17 +3926,17 @@
         <v>507-#18755556</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A75" s="40">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="39">
         <v>44645</v>
       </c>
-      <c r="B75" s="10">
+      <c r="B75" s="9">
         <v>7</v>
       </c>
-      <c r="C75" s="10">
+      <c r="C75" s="9">
         <v>5</v>
       </c>
-      <c r="D75" s="8">
+      <c r="D75" s="42">
         <v>18761158</v>
       </c>
       <c r="E75">
@@ -3951,17 +3965,17 @@
         <v>508-#18761158</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A76" s="40">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="39">
         <v>44648</v>
       </c>
-      <c r="B76" s="10">
+      <c r="B76" s="9">
         <v>1</v>
       </c>
-      <c r="C76" s="10">
+      <c r="C76" s="9">
         <v>1</v>
       </c>
-      <c r="D76" s="8">
+      <c r="D76" s="42">
         <v>18783152</v>
       </c>
       <c r="E76">
@@ -3990,17 +4004,17 @@
         <v>509-#18783152</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A77" s="40">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="39">
         <v>44649</v>
       </c>
-      <c r="B77" s="10">
+      <c r="B77" s="9">
         <v>15</v>
       </c>
-      <c r="C77" s="10">
+      <c r="C77" s="9">
         <v>8</v>
       </c>
-      <c r="D77" s="8">
+      <c r="D77" s="42">
         <v>18786581</v>
       </c>
       <c r="E77">
@@ -4029,17 +4043,17 @@
         <v>510-#18786581</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A78" s="40">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="39">
         <v>44650</v>
       </c>
-      <c r="B78" s="10">
+      <c r="B78" s="9">
         <v>2</v>
       </c>
-      <c r="C78" s="10">
+      <c r="C78" s="9">
         <v>1</v>
       </c>
-      <c r="D78" s="8">
+      <c r="D78" s="42">
         <v>18794846</v>
       </c>
       <c r="E78">
@@ -4068,17 +4082,17 @@
         <v>511-#18794846</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A79" s="40">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="39">
         <v>44651</v>
       </c>
-      <c r="B79" s="10">
+      <c r="B79" s="9">
         <v>3</v>
       </c>
-      <c r="C79" s="10">
+      <c r="C79" s="9">
         <v>3</v>
       </c>
-      <c r="D79" s="8">
+      <c r="D79" s="42">
         <v>18801937</v>
       </c>
       <c r="E79">
@@ -4107,17 +4121,17 @@
         <v>512-#18801937</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A80" s="40">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="39">
         <v>44651</v>
       </c>
-      <c r="B80" s="10">
+      <c r="B80" s="9">
         <v>14</v>
       </c>
-      <c r="C80" s="10">
+      <c r="C80" s="9">
         <v>10</v>
       </c>
-      <c r="D80" s="8">
+      <c r="D80" s="42">
         <v>18803484</v>
       </c>
       <c r="E80">
@@ -4146,17 +4160,17 @@
         <v>513-#18803484</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A81" s="40">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="39">
         <v>44651</v>
       </c>
-      <c r="B81" s="10">
+      <c r="B81" s="9">
         <v>7</v>
       </c>
-      <c r="C81" s="10">
+      <c r="C81" s="9">
         <v>5</v>
       </c>
-      <c r="D81" s="8">
+      <c r="D81" s="42">
         <v>18809765</v>
       </c>
       <c r="E81">
@@ -4185,17 +4199,17 @@
         <v>514-#18809765</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A82" s="42">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="41">
         <v>44652</v>
       </c>
-      <c r="B82" s="10">
+      <c r="B82" s="9">
         <v>5</v>
       </c>
-      <c r="C82" s="10">
+      <c r="C82" s="9">
         <v>2</v>
       </c>
-      <c r="D82" s="8">
+      <c r="D82" s="42">
         <v>18817270</v>
       </c>
       <c r="E82">
@@ -4224,17 +4238,17 @@
         <v>515-#18817270</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A83" s="42">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="41">
         <v>44652</v>
       </c>
-      <c r="B83" s="10">
+      <c r="B83" s="9">
         <v>48</v>
       </c>
-      <c r="C83" s="10">
+      <c r="C83" s="9">
         <v>21</v>
       </c>
-      <c r="D83" s="8">
+      <c r="D83" s="42">
         <v>18818049</v>
       </c>
       <c r="E83">
@@ -4263,17 +4277,17 @@
         <v>516-#18818049</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A84" s="42">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="41">
         <v>44652</v>
       </c>
-      <c r="B84" s="10">
+      <c r="B84" s="9">
         <v>13</v>
       </c>
-      <c r="C84" s="10">
+      <c r="C84" s="9">
         <v>4</v>
       </c>
-      <c r="D84" s="8">
+      <c r="D84" s="42">
         <v>18818346</v>
       </c>
       <c r="E84">
@@ -4302,17 +4316,17 @@
         <v>517-#18818346</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A85" s="42">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="41">
         <v>44653</v>
       </c>
-      <c r="B85" s="10">
+      <c r="B85" s="9">
         <v>18</v>
       </c>
-      <c r="C85" s="10">
+      <c r="C85" s="9">
         <v>9</v>
       </c>
-      <c r="D85" s="8">
+      <c r="D85" s="42">
         <v>18824071</v>
       </c>
       <c r="E85">
@@ -4341,17 +4355,17 @@
         <v>518-#18824071</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A86" s="42">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="41">
         <v>44654</v>
       </c>
-      <c r="B86" s="10">
+      <c r="B86" s="9">
         <v>102</v>
       </c>
-      <c r="C86" s="10">
+      <c r="C86" s="9">
         <v>29</v>
       </c>
-      <c r="D86" s="8">
+      <c r="D86" s="42">
         <v>18831625</v>
       </c>
       <c r="E86">
@@ -4382,17 +4396,17 @@
         <v>519-#18831625</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A87" s="42">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="41">
         <v>44655</v>
       </c>
-      <c r="B87" s="10">
+      <c r="B87" s="9">
         <v>27</v>
       </c>
-      <c r="C87" s="10">
+      <c r="C87" s="9">
         <v>21</v>
       </c>
-      <c r="D87" s="8">
+      <c r="D87" s="42">
         <v>18843297</v>
       </c>
       <c r="E87">
@@ -4421,17 +4435,17 @@
         <v>520-#18843297</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A88" s="42">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="41">
         <v>44655</v>
       </c>
-      <c r="B88" s="10">
+      <c r="B88" s="9">
         <v>54</v>
       </c>
-      <c r="C88" s="10">
+      <c r="C88" s="9">
         <v>12</v>
       </c>
-      <c r="D88" s="8">
+      <c r="D88" s="42">
         <v>18844657</v>
       </c>
       <c r="E88">
@@ -4462,17 +4476,17 @@
         <v>521-#18844657</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A89" s="42">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="41">
         <v>44656</v>
       </c>
-      <c r="B89" s="10">
+      <c r="B89" s="9">
         <v>102</v>
       </c>
-      <c r="C89" s="10">
+      <c r="C89" s="9">
         <v>61</v>
       </c>
-      <c r="D89" s="8">
+      <c r="D89" s="42">
         <v>18850343</v>
       </c>
       <c r="E89">
@@ -4501,17 +4515,17 @@
         <v>522-#18850343</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A90" s="42">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="41">
         <v>44658</v>
       </c>
-      <c r="B90" s="10">
+      <c r="B90" s="9">
         <v>7</v>
       </c>
-      <c r="C90" s="10">
+      <c r="C90" s="9">
         <v>3</v>
       </c>
-      <c r="D90" s="8">
+      <c r="D90" s="42">
         <v>18862478</v>
       </c>
       <c r="E90">
@@ -4540,17 +4554,17 @@
         <v>523-#18862478</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A91" s="42">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="41">
         <v>44659</v>
       </c>
-      <c r="B91" s="10">
+      <c r="B91" s="9">
         <v>88</v>
       </c>
-      <c r="C91" s="10">
+      <c r="C91" s="9">
         <v>9</v>
       </c>
-      <c r="D91" s="8">
+      <c r="D91" s="42">
         <v>18868418</v>
       </c>
       <c r="E91">
@@ -4581,17 +4595,17 @@
         <v>524-#18868418</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A92" s="42">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="41">
         <v>44659</v>
       </c>
-      <c r="B92" s="10">
+      <c r="B92" s="9">
         <v>1</v>
       </c>
-      <c r="C92" s="10">
+      <c r="C92" s="9">
         <v>1</v>
       </c>
-      <c r="D92" s="8">
+      <c r="D92" s="42">
         <v>18870341</v>
       </c>
       <c r="E92">
@@ -4620,17 +4634,17 @@
         <v>525-#18870341</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A93" s="42">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="41">
         <v>44659</v>
       </c>
-      <c r="B93" s="10">
+      <c r="B93" s="9">
         <v>9</v>
       </c>
-      <c r="C93" s="10">
+      <c r="C93" s="9">
         <v>3</v>
       </c>
-      <c r="D93" s="8">
+      <c r="D93" s="42">
         <v>18870788</v>
       </c>
       <c r="E93">
@@ -4659,17 +4673,17 @@
         <v>526-#18870788</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A94" s="42">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="41">
         <v>44661</v>
       </c>
-      <c r="B94" s="10">
+      <c r="B94" s="9">
         <v>16</v>
       </c>
-      <c r="C94" s="10">
+      <c r="C94" s="9">
         <v>8</v>
       </c>
-      <c r="D94" s="8">
+      <c r="D94" s="42">
         <v>18886385</v>
       </c>
       <c r="E94">
@@ -4698,17 +4712,17 @@
         <v>527-#18886385</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A95" s="42">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="41">
         <v>44661</v>
       </c>
-      <c r="B95" s="10">
+      <c r="B95" s="9">
         <v>133</v>
       </c>
-      <c r="C95" s="10">
+      <c r="C95" s="9">
         <v>86</v>
       </c>
-      <c r="D95" s="8">
+      <c r="D95" s="42">
         <v>18890933</v>
       </c>
       <c r="E95">
@@ -4739,17 +4753,17 @@
         <v>528-#18890933</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A96" s="42">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="41">
         <v>44663</v>
       </c>
-      <c r="B96" s="10">
+      <c r="B96" s="9">
         <v>3</v>
       </c>
-      <c r="C96" s="10">
+      <c r="C96" s="9">
         <v>3</v>
       </c>
-      <c r="D96" s="8">
+      <c r="D96" s="42">
         <v>18905634</v>
       </c>
       <c r="E96">
@@ -4778,17 +4792,17 @@
         <v>529-#18905634</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A97" s="42">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="41">
         <v>44664</v>
       </c>
-      <c r="B97" s="10">
+      <c r="B97" s="9">
         <v>1</v>
       </c>
-      <c r="C97" s="10">
+      <c r="C97" s="9">
         <v>1</v>
       </c>
-      <c r="D97" s="8">
+      <c r="D97" s="42">
         <v>18910230</v>
       </c>
       <c r="E97">
@@ -4817,17 +4831,17 @@
         <v>530-#18910230</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A98" s="42">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="41">
         <v>44664</v>
       </c>
-      <c r="B98" s="10">
+      <c r="B98" s="9">
         <v>188</v>
       </c>
-      <c r="C98" s="10">
+      <c r="C98" s="9">
         <v>53</v>
       </c>
-      <c r="D98" s="8">
+      <c r="D98" s="42">
         <v>18913808</v>
       </c>
       <c r="E98">
@@ -4856,17 +4870,17 @@
         <v>531-#18913808</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A99" s="42">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" s="41">
         <v>44666</v>
       </c>
-      <c r="B99" s="10">
+      <c r="B99" s="9">
         <v>28</v>
       </c>
-      <c r="C99" s="10">
+      <c r="C99" s="9">
         <v>18</v>
       </c>
-      <c r="D99" s="8">
+      <c r="D99" s="42">
         <v>18927532</v>
       </c>
       <c r="E99">
@@ -4895,17 +4909,17 @@
         <v>532-#18927532</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A100" s="42">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="41">
         <v>44667</v>
       </c>
-      <c r="B100" s="10">
+      <c r="B100" s="9">
         <v>92</v>
       </c>
-      <c r="C100" s="10">
+      <c r="C100" s="9">
         <v>30</v>
       </c>
-      <c r="D100" s="8">
+      <c r="D100" s="42">
         <v>18933555</v>
       </c>
       <c r="E100">
@@ -4936,17 +4950,17 @@
         <v>533-#18933555</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A101" s="42">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" s="41">
         <v>44667</v>
       </c>
-      <c r="B101" s="10">
+      <c r="B101" s="9">
         <v>39</v>
       </c>
-      <c r="C101" s="10">
+      <c r="C101" s="9">
         <v>19</v>
       </c>
-      <c r="D101" s="8">
+      <c r="D101" s="42">
         <v>18934618</v>
       </c>
       <c r="E101">
@@ -4975,17 +4989,17 @@
         <v>534-#18934618</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A102" s="42">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="41">
         <v>44671</v>
       </c>
-      <c r="B102" s="10">
+      <c r="B102" s="9">
         <v>3</v>
       </c>
-      <c r="C102" s="10">
+      <c r="C102" s="9">
         <v>3</v>
       </c>
-      <c r="D102" s="8">
+      <c r="D102" s="42">
         <v>18964963</v>
       </c>
       <c r="E102">
@@ -5014,17 +5028,17 @@
         <v>535-#18964963</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A103" s="42">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="41">
         <v>44673</v>
       </c>
-      <c r="B103" s="10">
+      <c r="B103" s="9">
         <v>1</v>
       </c>
-      <c r="C103" s="10">
+      <c r="C103" s="9">
         <v>1</v>
       </c>
-      <c r="D103" s="8">
+      <c r="D103" s="42">
         <v>18980134</v>
       </c>
       <c r="E103">
@@ -5053,17 +5067,17 @@
         <v>536-#18980134</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A104" s="42">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="41">
         <v>44675</v>
       </c>
-      <c r="B104" s="10">
+      <c r="B104" s="9">
         <v>357</v>
       </c>
-      <c r="C104" s="10">
+      <c r="C104" s="9">
         <v>83</v>
       </c>
-      <c r="D104" s="8">
+      <c r="D104" s="42">
         <v>18998396</v>
       </c>
       <c r="E104">
@@ -5092,17 +5106,17 @@
         <v>537-#18998396</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A105" s="42">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" s="41">
         <v>44675</v>
       </c>
-      <c r="B105" s="10">
+      <c r="B105" s="9">
         <v>0</v>
       </c>
-      <c r="C105" s="10">
+      <c r="C105" s="9">
         <v>0</v>
       </c>
-      <c r="D105" s="8" t="s">
+      <c r="D105" s="42" t="s">
         <v>22</v>
       </c>
       <c r="E105">
@@ -5131,17 +5145,17 @@
         <v>1-#Rondou Batch</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A106" s="42">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" s="41">
         <v>44678</v>
       </c>
-      <c r="B106" s="10">
+      <c r="B106" s="9">
         <v>6</v>
       </c>
-      <c r="C106" s="10">
+      <c r="C106" s="9">
         <v>3</v>
       </c>
-      <c r="D106" s="8">
+      <c r="D106" s="42">
         <v>19019842</v>
       </c>
       <c r="E106">
@@ -5170,17 +5184,17 @@
         <v>538-#19019842</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A107" s="42">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" s="41">
         <v>44679</v>
       </c>
-      <c r="B107" s="10">
+      <c r="B107" s="9">
         <v>1</v>
       </c>
-      <c r="C107" s="10">
+      <c r="C107" s="9">
         <v>1</v>
       </c>
-      <c r="D107" s="8">
+      <c r="D107" s="42">
         <v>19026012</v>
       </c>
       <c r="E107">
@@ -5209,17 +5223,17 @@
         <v>539-#19026012</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A108" s="42">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" s="41">
         <v>44681</v>
       </c>
-      <c r="B108" s="10">
+      <c r="B108" s="9">
         <v>14</v>
       </c>
-      <c r="C108" s="10">
+      <c r="C108" s="9">
         <v>12</v>
       </c>
-      <c r="D108" s="8">
+      <c r="D108" s="42">
         <v>19037510</v>
       </c>
       <c r="E108">
@@ -5248,17 +5262,17 @@
         <v>540-#19037510</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A109" s="42">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" s="41">
         <v>44682</v>
       </c>
-      <c r="B109" s="10">
+      <c r="B109" s="9">
         <v>27</v>
       </c>
-      <c r="C109" s="10">
+      <c r="C109" s="9">
         <v>12</v>
       </c>
-      <c r="D109" s="8">
+      <c r="D109" s="42">
         <v>19051879</v>
       </c>
       <c r="E109">
@@ -5287,17 +5301,17 @@
         <v>541-#19051879</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A110" s="42">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" s="41">
         <v>44683</v>
       </c>
-      <c r="B110" s="10">
+      <c r="B110" s="9">
         <v>0</v>
       </c>
-      <c r="C110" s="10">
+      <c r="C110" s="9">
         <v>0</v>
       </c>
-      <c r="D110" s="8" t="s">
+      <c r="D110" s="42" t="s">
         <v>22</v>
       </c>
       <c r="E110">
@@ -5326,17 +5340,17 @@
         <v>2-#Rondou Batch</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A111" s="42">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" s="41">
         <v>44683</v>
       </c>
-      <c r="B111" s="10">
+      <c r="B111" s="9">
         <v>0</v>
       </c>
-      <c r="C111" s="10">
+      <c r="C111" s="9">
         <v>0</v>
       </c>
-      <c r="D111" s="8" t="s">
+      <c r="D111" s="42" t="s">
         <v>22</v>
       </c>
       <c r="E111">
@@ -5365,17 +5379,17 @@
         <v>3-#Rondou Batch</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A112" s="42">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" s="41">
         <v>44688</v>
       </c>
-      <c r="B112" s="10">
+      <c r="B112" s="9">
         <v>208</v>
       </c>
-      <c r="C112" s="10">
+      <c r="C112" s="9">
         <v>27</v>
       </c>
-      <c r="D112" s="8">
+      <c r="D112" s="42">
         <v>19098063</v>
       </c>
       <c r="E112">
@@ -5404,17 +5418,17 @@
         <v>542-#19098063</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A113" s="42">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" s="41">
         <v>44690</v>
       </c>
-      <c r="B113" s="10">
+      <c r="B113" s="9">
         <v>250</v>
       </c>
-      <c r="C113" s="10">
+      <c r="C113" s="9">
         <v>100</v>
       </c>
-      <c r="D113" s="8">
+      <c r="D113" s="42">
         <v>19112894</v>
       </c>
       <c r="E113">
@@ -5443,17 +5457,17 @@
         <v>543-#19112894</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A114" s="42">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" s="41">
         <v>44692</v>
       </c>
-      <c r="B114" s="10">
+      <c r="B114" s="9">
         <v>1</v>
       </c>
-      <c r="C114" s="10">
+      <c r="C114" s="9">
         <v>1</v>
       </c>
-      <c r="D114" s="8">
+      <c r="D114" s="42">
         <v>19124169</v>
       </c>
       <c r="E114">
@@ -5482,17 +5496,17 @@
         <v>544-#19124169</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A115" s="42">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" s="41">
         <v>44693</v>
       </c>
-      <c r="B115" s="10">
+      <c r="B115" s="9">
         <v>109</v>
       </c>
-      <c r="C115" s="10">
+      <c r="C115" s="9">
         <v>27</v>
       </c>
-      <c r="D115" s="8">
+      <c r="D115" s="42">
         <v>19138687</v>
       </c>
       <c r="E115">
@@ -5521,17 +5535,17 @@
         <v>545-#19138687</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A116" s="42">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" s="41">
         <v>44694</v>
       </c>
-      <c r="B116" s="10">
+      <c r="B116" s="9">
         <v>15</v>
       </c>
-      <c r="C116" s="10">
+      <c r="C116" s="9">
         <v>4</v>
       </c>
-      <c r="D116" s="8">
+      <c r="D116" s="42">
         <v>19145735</v>
       </c>
       <c r="E116">
@@ -5560,17 +5574,17 @@
         <v>546-#19145735</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A117" s="42">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" s="41">
         <v>44695</v>
       </c>
-      <c r="B117" s="10">
+      <c r="B117" s="9">
         <v>2</v>
       </c>
-      <c r="C117" s="10">
+      <c r="C117" s="9">
         <v>2</v>
       </c>
-      <c r="D117" s="8">
+      <c r="D117" s="42">
         <v>19152521</v>
       </c>
       <c r="E117">
@@ -5599,17 +5613,17 @@
         <v>547-#19152521</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A118" s="42">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" s="41">
         <v>44698</v>
       </c>
-      <c r="B118" s="10">
+      <c r="B118" s="9">
         <v>141</v>
       </c>
-      <c r="C118" s="10">
+      <c r="C118" s="9">
         <v>95</v>
       </c>
-      <c r="D118" s="8">
+      <c r="D118" s="42">
         <v>19172446</v>
       </c>
       <c r="E118">
@@ -5638,17 +5652,17 @@
         <v>548-#19172446</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A119" s="42">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" s="41">
         <v>44699</v>
       </c>
-      <c r="B119" s="10">
+      <c r="B119" s="9">
         <v>6</v>
       </c>
-      <c r="C119" s="10">
+      <c r="C119" s="9">
         <v>1</v>
       </c>
-      <c r="D119" s="8">
+      <c r="D119" s="42">
         <v>19177277</v>
       </c>
       <c r="E119">
@@ -5677,17 +5691,17 @@
         <v>549-#19177277</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A120" s="42">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" s="41">
         <v>44699</v>
       </c>
-      <c r="B120" s="10">
+      <c r="B120" s="9">
         <v>10</v>
       </c>
-      <c r="C120" s="10">
+      <c r="C120" s="9">
         <v>10</v>
       </c>
-      <c r="D120" s="8">
+      <c r="D120" s="42">
         <v>19178912</v>
       </c>
       <c r="E120">
@@ -5718,17 +5732,17 @@
         <v>550-#19178912</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A121" s="42">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" s="41">
         <v>44700</v>
       </c>
-      <c r="B121" s="10">
+      <c r="B121" s="9">
         <v>8</v>
       </c>
-      <c r="C121" s="10">
+      <c r="C121" s="9">
         <v>4</v>
       </c>
-      <c r="D121" s="8">
+      <c r="D121" s="42">
         <v>19185261</v>
       </c>
       <c r="E121">
@@ -5757,17 +5771,17 @@
         <v>551-#19185261</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A122" s="42">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" s="41">
         <v>44700</v>
       </c>
-      <c r="B122" s="10">
+      <c r="B122" s="9">
         <v>0</v>
       </c>
-      <c r="C122" s="10">
+      <c r="C122" s="9">
         <v>0</v>
       </c>
-      <c r="D122" s="8" t="s">
+      <c r="D122" s="42" t="s">
         <v>21</v>
       </c>
       <c r="E122">
@@ -5796,17 +5810,17 @@
         <v xml:space="preserve">4-#Rondou Batch </v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A123" s="42">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" s="41">
         <v>44701</v>
       </c>
-      <c r="B123" s="10">
+      <c r="B123" s="9">
         <v>98</v>
       </c>
-      <c r="C123" s="10">
+      <c r="C123" s="9">
         <v>82</v>
       </c>
-      <c r="D123" s="8">
+      <c r="D123" s="42">
         <v>19195477</v>
       </c>
       <c r="E123">
@@ -5837,17 +5851,17 @@
         <v>552-#19195477</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A124" s="42">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" s="41">
         <v>44702</v>
       </c>
-      <c r="B124" s="10">
+      <c r="B124" s="9">
         <v>23</v>
       </c>
-      <c r="C124" s="10">
+      <c r="C124" s="9">
         <v>14</v>
       </c>
-      <c r="D124" s="8">
+      <c r="D124" s="42">
         <v>19204153</v>
       </c>
       <c r="E124">
@@ -5876,17 +5890,17 @@
         <v>553-#19204153</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A125" s="42">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" s="41">
         <v>44704</v>
       </c>
-      <c r="B125" s="10">
+      <c r="B125" s="9">
         <v>1</v>
       </c>
-      <c r="C125" s="10">
+      <c r="C125" s="9">
         <v>1</v>
       </c>
-      <c r="D125" s="8">
+      <c r="D125" s="42">
         <v>19219593</v>
       </c>
       <c r="E125">
@@ -5915,17 +5929,17 @@
         <v>554-#19219593</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A126" s="42">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126" s="41">
         <v>44704</v>
       </c>
-      <c r="B126" s="10">
+      <c r="B126" s="9">
         <v>2</v>
       </c>
-      <c r="C126" s="10">
+      <c r="C126" s="9">
         <v>2</v>
       </c>
-      <c r="D126" s="8">
+      <c r="D126" s="42">
         <v>19220715</v>
       </c>
       <c r="E126">
@@ -5954,17 +5968,17 @@
         <v>555-#19220715</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A127" s="42">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127" s="41">
         <v>44713</v>
       </c>
-      <c r="B127" s="10">
+      <c r="B127" s="9">
         <v>2</v>
       </c>
-      <c r="C127" s="10">
+      <c r="C127" s="9">
         <v>2</v>
       </c>
-      <c r="D127" s="8">
+      <c r="D127" s="42">
         <v>19281382</v>
       </c>
       <c r="E127">
@@ -5993,17 +6007,17 @@
         <v>556-#19281382</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A128" s="42">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" s="41">
         <v>44714</v>
       </c>
-      <c r="B128" s="10">
+      <c r="B128" s="9">
         <v>15</v>
       </c>
-      <c r="C128" s="10">
+      <c r="C128" s="9">
         <v>10</v>
       </c>
-      <c r="D128" s="8">
+      <c r="D128" s="42">
         <v>19292091</v>
       </c>
       <c r="E128">
@@ -6032,17 +6046,17 @@
         <v>557-#19292091</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A129" s="42">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" s="41">
         <v>44715</v>
       </c>
-      <c r="B129" s="10">
+      <c r="B129" s="9">
         <v>1</v>
       </c>
-      <c r="C129" s="10">
+      <c r="C129" s="9">
         <v>1</v>
       </c>
-      <c r="D129" s="8">
+      <c r="D129" s="42">
         <v>19298251</v>
       </c>
       <c r="E129">
@@ -6071,17 +6085,17 @@
         <v>558-#19298251</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A130" s="42">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" s="41">
         <v>44715</v>
       </c>
-      <c r="B130" s="10">
+      <c r="B130" s="9">
         <v>78</v>
       </c>
-      <c r="C130" s="10">
+      <c r="C130" s="9">
         <v>27</v>
       </c>
-      <c r="D130" s="8">
+      <c r="D130" s="42">
         <v>19298419</v>
       </c>
       <c r="E130">
@@ -6110,17 +6124,17 @@
         <v>559-#19298419</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A131" s="42">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" s="41">
         <v>44715</v>
       </c>
-      <c r="B131" s="10">
+      <c r="B131" s="9">
         <v>15</v>
       </c>
-      <c r="C131" s="10">
+      <c r="C131" s="9">
         <v>8</v>
       </c>
-      <c r="D131" s="8">
+      <c r="D131" s="42">
         <v>19300958</v>
       </c>
       <c r="E131">
@@ -6149,17 +6163,17 @@
         <v>560-#19300958</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A132" s="42">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" s="41">
         <v>44716</v>
       </c>
-      <c r="B132" s="10">
+      <c r="B132" s="9">
         <v>32</v>
       </c>
-      <c r="C132" s="10">
+      <c r="C132" s="9">
         <v>4</v>
       </c>
-      <c r="D132" s="8">
+      <c r="D132" s="42">
         <v>19309485</v>
       </c>
       <c r="E132">
@@ -6188,17 +6202,17 @@
         <v>561-#19309485</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A133" s="42">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" s="41">
         <v>44717</v>
       </c>
-      <c r="B133" s="10">
+      <c r="B133" s="9">
         <v>2</v>
       </c>
-      <c r="C133" s="10">
+      <c r="C133" s="9">
         <v>2</v>
       </c>
-      <c r="D133" s="8">
+      <c r="D133" s="42">
         <v>19316145</v>
       </c>
       <c r="E133">
@@ -6227,17 +6241,17 @@
         <v>562-#19316145</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A134" s="42">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134" s="41">
         <v>44718</v>
       </c>
-      <c r="B134" s="10">
+      <c r="B134" s="9">
         <v>4</v>
       </c>
-      <c r="C134" s="10">
+      <c r="C134" s="9">
         <v>4</v>
       </c>
-      <c r="D134" s="8">
+      <c r="D134" s="42">
         <v>19325817</v>
       </c>
       <c r="E134">
@@ -6266,17 +6280,17 @@
         <v>563-#19325817</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A135" s="42">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135" s="41">
         <v>44720</v>
       </c>
-      <c r="B135" s="10">
+      <c r="B135" s="9">
         <v>1</v>
       </c>
-      <c r="C135" s="10">
+      <c r="C135" s="9">
         <v>1</v>
       </c>
-      <c r="D135" s="8">
+      <c r="D135" s="42">
         <v>19337322</v>
       </c>
       <c r="E135">
@@ -6305,17 +6319,17 @@
         <v>564-#19337322</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A136" s="42">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136" s="41">
         <v>44722</v>
       </c>
-      <c r="B136" s="10">
+      <c r="B136" s="9">
         <v>21</v>
       </c>
-      <c r="C136" s="10">
+      <c r="C136" s="9">
         <v>9</v>
       </c>
-      <c r="D136" s="8">
+      <c r="D136" s="42">
         <v>19352934</v>
       </c>
       <c r="E136">
@@ -6344,17 +6358,17 @@
         <v>565-#19352934</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A137" s="42">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" s="41">
         <v>44723</v>
       </c>
-      <c r="B137" s="10">
+      <c r="B137" s="9">
         <v>88</v>
       </c>
-      <c r="C137" s="10">
+      <c r="C137" s="9">
         <v>24</v>
       </c>
-      <c r="D137" s="8">
+      <c r="D137" s="42">
         <v>19357574</v>
       </c>
       <c r="E137">
@@ -6383,17 +6397,17 @@
         <v>566-#19357574</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A138" s="42">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A138" s="41">
         <v>44724</v>
       </c>
-      <c r="B138" s="10">
+      <c r="B138" s="9">
         <v>18</v>
       </c>
-      <c r="C138" s="10">
+      <c r="C138" s="9">
         <v>12</v>
       </c>
-      <c r="D138" s="8">
+      <c r="D138" s="42">
         <v>19364827</v>
       </c>
       <c r="E138">
@@ -6422,17 +6436,17 @@
         <v>567-#19364827</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A139" s="42">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A139" s="41">
         <v>44724</v>
       </c>
-      <c r="B139" s="10">
+      <c r="B139" s="9">
         <v>117</v>
       </c>
-      <c r="C139" s="10">
+      <c r="C139" s="9">
         <v>51</v>
       </c>
-      <c r="D139" s="8">
+      <c r="D139" s="42">
         <v>19368187</v>
       </c>
       <c r="E139">
@@ -6461,17 +6475,17 @@
         <v>568-#19368187</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A140" s="42">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A140" s="41">
         <v>44726</v>
       </c>
-      <c r="B140" s="10">
+      <c r="B140" s="9">
         <v>0</v>
       </c>
-      <c r="C140" s="10">
+      <c r="C140" s="9">
         <v>0</v>
       </c>
-      <c r="D140" s="8" t="s">
+      <c r="D140" s="42" t="s">
         <v>22</v>
       </c>
       <c r="E140">
@@ -6500,17 +6514,17 @@
         <v>5-#Rondou Batch</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A141" s="42">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A141" s="41">
         <v>44727</v>
       </c>
-      <c r="B141" s="10">
+      <c r="B141" s="9">
         <v>21</v>
       </c>
-      <c r="C141" s="10">
+      <c r="C141" s="9">
         <v>10</v>
       </c>
-      <c r="D141" s="8">
+      <c r="D141" s="42">
         <v>19387911</v>
       </c>
       <c r="E141">
@@ -6539,17 +6553,17 @@
         <v>569-#19387911</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A142" s="42">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A142" s="41">
         <v>44729</v>
       </c>
-      <c r="B142" s="10">
+      <c r="B142" s="9">
         <v>1</v>
       </c>
-      <c r="C142" s="10">
+      <c r="C142" s="9">
         <v>1</v>
       </c>
-      <c r="D142" s="8">
+      <c r="D142" s="42">
         <v>19404126</v>
       </c>
       <c r="E142">
@@ -6578,17 +6592,17 @@
         <v>570-#19404126</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A143" s="42">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A143" s="41">
         <v>44735</v>
       </c>
-      <c r="B143" s="10">
+      <c r="B143" s="9">
         <v>329</v>
       </c>
-      <c r="C143" s="10">
+      <c r="C143" s="9">
         <v>27</v>
       </c>
-      <c r="D143" s="8">
+      <c r="D143" s="42">
         <v>19446273</v>
       </c>
       <c r="E143">
@@ -6617,17 +6631,17 @@
         <v>571-#19446273</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A144" s="42">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A144" s="41">
         <v>44737</v>
       </c>
-      <c r="B144" s="10">
+      <c r="B144" s="9">
         <v>2</v>
       </c>
-      <c r="C144" s="10">
+      <c r="C144" s="9">
         <v>1</v>
       </c>
-      <c r="D144" s="8">
+      <c r="D144" s="42">
         <v>19455539</v>
       </c>
       <c r="E144">
@@ -6656,17 +6670,17 @@
         <v>572-#19455539</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A145" s="42">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A145" s="41">
         <v>44738</v>
       </c>
-      <c r="B145" s="10">
+      <c r="B145" s="9">
         <v>1</v>
       </c>
-      <c r="C145" s="10">
+      <c r="C145" s="9">
         <v>1</v>
       </c>
-      <c r="D145" s="8">
+      <c r="D145" s="42">
         <v>19465804</v>
       </c>
       <c r="E145">
@@ -6695,17 +6709,17 @@
         <v>573-#19465804</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A146" s="42">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A146" s="41">
         <v>44741</v>
       </c>
-      <c r="B146" s="10">
+      <c r="B146" s="9">
         <v>46</v>
       </c>
-      <c r="C146" s="10">
+      <c r="C146" s="9">
         <v>24</v>
       </c>
-      <c r="D146" s="8">
+      <c r="D146" s="42">
         <v>19484225</v>
       </c>
       <c r="E146">
@@ -6734,17 +6748,17 @@
         <v>574-#19484225</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A147" s="42">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A147" s="41">
         <v>44743</v>
       </c>
-      <c r="B147" s="10">
+      <c r="B147" s="9">
         <v>10</v>
       </c>
-      <c r="C147" s="10">
+      <c r="C147" s="9">
         <v>1</v>
       </c>
-      <c r="D147" s="8">
+      <c r="D147" s="42">
         <v>19505711</v>
       </c>
       <c r="E147">
@@ -6772,17 +6786,17 @@
         <v>575-#19505711</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A148" s="42">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A148" s="41">
         <v>44744</v>
       </c>
-      <c r="B148" s="10">
+      <c r="B148" s="9">
         <v>1</v>
       </c>
-      <c r="C148" s="10">
+      <c r="C148" s="9">
         <v>1</v>
       </c>
-      <c r="D148" s="8">
+      <c r="D148" s="42">
         <v>19511173</v>
       </c>
       <c r="E148">
@@ -6811,17 +6825,17 @@
         <v>576-#19511173</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A149" s="42">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A149" s="41">
         <v>44744</v>
       </c>
-      <c r="B149" s="10">
+      <c r="B149" s="9">
         <v>1</v>
       </c>
-      <c r="C149" s="10">
+      <c r="C149" s="9">
         <v>1</v>
       </c>
-      <c r="D149" s="8">
+      <c r="D149" s="42">
         <v>19511427</v>
       </c>
       <c r="E149">
@@ -6850,17 +6864,17 @@
         <v>577-#19511427</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A150" s="42">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A150" s="41">
         <v>44746</v>
       </c>
-      <c r="B150" s="10">
+      <c r="B150" s="9">
         <v>1</v>
       </c>
-      <c r="C150" s="10">
+      <c r="C150" s="9">
         <v>1</v>
       </c>
-      <c r="D150" s="8">
+      <c r="D150" s="42">
         <v>19522085</v>
       </c>
       <c r="E150">
@@ -6889,17 +6903,17 @@
         <v>578-#19522085</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A151" s="42">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A151" s="41">
         <v>44748</v>
       </c>
-      <c r="B151" s="10">
+      <c r="B151" s="9">
         <v>8</v>
       </c>
-      <c r="C151" s="10">
+      <c r="C151" s="9">
         <v>5</v>
       </c>
-      <c r="D151" s="8">
+      <c r="D151" s="42">
         <v>19541824</v>
       </c>
       <c r="E151">
@@ -6928,17 +6942,17 @@
         <v>579-#19541824</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A152" s="42">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A152" s="41">
         <v>44751</v>
       </c>
-      <c r="B152" s="10">
+      <c r="B152" s="9">
         <v>4</v>
       </c>
-      <c r="C152" s="10">
+      <c r="C152" s="9">
         <v>2</v>
       </c>
-      <c r="D152" s="8">
+      <c r="D152" s="42">
         <v>19559754</v>
       </c>
       <c r="E152">
@@ -6967,17 +6981,17 @@
         <v>580-#19559754</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A153" s="42">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A153" s="41">
         <v>44751</v>
       </c>
-      <c r="B153" s="10">
+      <c r="B153" s="9">
         <v>105</v>
       </c>
-      <c r="C153" s="10">
+      <c r="C153" s="9">
         <v>46</v>
       </c>
-      <c r="D153" s="8">
+      <c r="D153" s="42">
         <v>19560749</v>
       </c>
       <c r="E153">
@@ -7006,17 +7020,17 @@
         <v>581-#19560749</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A154" s="42">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A154" s="41">
         <v>44754</v>
       </c>
-      <c r="B154" s="10">
+      <c r="B154" s="9">
         <v>2</v>
       </c>
-      <c r="C154" s="10">
+      <c r="C154" s="9">
         <v>2</v>
       </c>
-      <c r="D154" s="8">
+      <c r="D154" s="42">
         <v>19585424</v>
       </c>
       <c r="E154">
@@ -7045,17 +7059,17 @@
         <v>582-#19585424</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A155" s="42">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A155" s="41">
         <v>44755</v>
       </c>
-      <c r="B155" s="10">
+      <c r="B155" s="9">
         <v>34</v>
       </c>
-      <c r="C155" s="10">
+      <c r="C155" s="9">
         <v>14</v>
       </c>
-      <c r="D155" s="8">
+      <c r="D155" s="42">
         <v>19592533</v>
       </c>
       <c r="E155">
@@ -7084,17 +7098,17 @@
         <v>583-#19592533</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A156" s="42">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A156" s="41">
         <v>44756</v>
       </c>
-      <c r="B156" s="10">
+      <c r="B156" s="9">
         <v>1</v>
       </c>
-      <c r="C156" s="10">
+      <c r="C156" s="9">
         <v>1</v>
       </c>
-      <c r="D156" s="8">
+      <c r="D156" s="42">
         <v>19597022</v>
       </c>
       <c r="E156">
@@ -7123,17 +7137,17 @@
         <v>584-#19597022</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A157" s="42">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A157" s="41">
         <v>44757</v>
       </c>
-      <c r="B157" s="10">
+      <c r="B157" s="9">
         <v>28</v>
       </c>
-      <c r="C157" s="10">
+      <c r="C157" s="9">
         <v>12</v>
       </c>
-      <c r="D157" s="8">
+      <c r="D157" s="42">
         <v>19607427</v>
       </c>
       <c r="E157">
@@ -7162,17 +7176,17 @@
         <v>585-#19607427</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A158" s="42">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A158" s="41">
         <v>44757</v>
       </c>
-      <c r="B158" s="10">
+      <c r="B158" s="9">
         <v>1</v>
       </c>
-      <c r="C158" s="10">
+      <c r="C158" s="9">
         <v>1</v>
       </c>
-      <c r="D158" s="8">
+      <c r="D158" s="42">
         <v>19607552</v>
       </c>
       <c r="E158">
@@ -7201,17 +7215,17 @@
         <v>586-#19607552</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A159" s="42">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A159" s="41">
         <v>44758</v>
       </c>
-      <c r="B159" s="10">
+      <c r="B159" s="9">
         <v>216</v>
       </c>
-      <c r="C159" s="10">
+      <c r="C159" s="9">
         <v>103</v>
       </c>
-      <c r="D159" s="8">
+      <c r="D159" s="42">
         <v>19614688</v>
       </c>
       <c r="E159">
@@ -7240,17 +7254,17 @@
         <v>587-#19614688</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A160" s="42">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A160" s="41">
         <v>44759</v>
       </c>
-      <c r="B160" s="10">
+      <c r="B160" s="9">
         <v>7</v>
       </c>
-      <c r="C160" s="10">
+      <c r="C160" s="9">
         <v>4</v>
       </c>
-      <c r="D160" s="8">
+      <c r="D160" s="42">
         <v>19623309</v>
       </c>
       <c r="E160">
@@ -7279,17 +7293,17 @@
         <v>588-#19623309</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A161" s="42">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A161" s="41">
         <v>44761</v>
       </c>
-      <c r="B161" s="10">
+      <c r="B161" s="9">
         <v>219</v>
       </c>
-      <c r="C161" s="10">
+      <c r="C161" s="9">
         <v>69</v>
       </c>
-      <c r="D161" s="8">
+      <c r="D161" s="42">
         <v>19632493</v>
       </c>
       <c r="E161">
@@ -7318,17 +7332,17 @@
         <v>589-#19632493</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A162" s="42">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A162" s="41">
         <v>44762</v>
       </c>
-      <c r="B162" s="10">
+      <c r="B162" s="9">
         <v>1</v>
       </c>
-      <c r="C162" s="10">
+      <c r="C162" s="9">
         <v>1</v>
       </c>
-      <c r="D162" s="8">
+      <c r="D162" s="42">
         <v>19644858</v>
       </c>
       <c r="E162">
@@ -7357,17 +7371,17 @@
         <v>590-#19644858</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A163" s="42">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A163" s="41">
         <v>44763</v>
       </c>
-      <c r="B163" s="10">
+      <c r="B163" s="9">
         <v>3</v>
       </c>
-      <c r="C163" s="10">
+      <c r="C163" s="9">
         <v>3</v>
       </c>
-      <c r="D163" s="8">
+      <c r="D163" s="42">
         <v>19648906</v>
       </c>
       <c r="E163">
@@ -7396,17 +7410,17 @@
         <v>591-#19648906</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A164" s="42">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A164" s="41">
         <v>44764</v>
       </c>
-      <c r="B164" s="10">
+      <c r="B164" s="9">
         <v>12</v>
       </c>
-      <c r="C164" s="10">
+      <c r="C164" s="9">
         <v>9</v>
       </c>
-      <c r="D164" s="8">
+      <c r="D164" s="42">
         <v>19657428</v>
       </c>
       <c r="E164">
@@ -7435,17 +7449,17 @@
         <v>592-#19657428</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A165" s="42">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A165" s="41">
         <v>44764</v>
       </c>
-      <c r="B165" s="10">
+      <c r="B165" s="9">
         <v>1</v>
       </c>
-      <c r="C165" s="10">
+      <c r="C165" s="9">
         <v>1</v>
       </c>
-      <c r="D165" s="8">
+      <c r="D165" s="42">
         <v>19658511</v>
       </c>
       <c r="E165">
@@ -7474,17 +7488,17 @@
         <v>593-#19658511</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A166" s="42">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A166" s="41">
         <v>44758</v>
       </c>
-      <c r="B166" s="10">
+      <c r="B166" s="9">
         <v>10</v>
       </c>
-      <c r="C166" s="10">
+      <c r="C166" s="9">
         <v>2</v>
       </c>
-      <c r="D166" s="8">
+      <c r="D166" s="42">
         <v>19609550</v>
       </c>
       <c r="E166" t="s">
@@ -7513,17 +7527,17 @@
         <v xml:space="preserve"> -#19609550</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A167" s="42">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A167" s="41">
         <v>44766</v>
       </c>
-      <c r="B167" s="10">
+      <c r="B167" s="9">
         <v>66</v>
       </c>
-      <c r="C167" s="10">
+      <c r="C167" s="9">
         <v>23</v>
       </c>
-      <c r="D167" s="8">
+      <c r="D167" s="42">
         <v>19673371</v>
       </c>
       <c r="E167">
@@ -7553,17 +7567,17 @@
         <v>594-#19673371</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A168" s="42">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A168" s="41">
         <v>44770</v>
       </c>
-      <c r="B168" s="10">
+      <c r="B168" s="9">
         <v>6</v>
       </c>
-      <c r="C168" s="10">
+      <c r="C168" s="9">
         <v>4</v>
       </c>
-      <c r="D168" s="8">
+      <c r="D168" s="42">
         <v>19701426</v>
       </c>
       <c r="E168">
@@ -7592,17 +7606,17 @@
         <v>595-#19701426</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A169" s="42">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A169" s="41">
         <v>44771</v>
       </c>
-      <c r="B169" s="10">
+      <c r="B169" s="9">
         <v>73</v>
       </c>
-      <c r="C169" s="10">
+      <c r="C169" s="9">
         <v>30</v>
       </c>
-      <c r="D169" s="8">
+      <c r="D169" s="42">
         <v>19711847</v>
       </c>
       <c r="E169">
@@ -7631,17 +7645,17 @@
         <v>596-#19711847</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A170" s="42">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A170" s="41">
         <v>44772</v>
       </c>
-      <c r="B170" s="10">
+      <c r="B170" s="9">
         <v>143</v>
       </c>
-      <c r="C170" s="10">
+      <c r="C170" s="9">
         <v>33</v>
       </c>
-      <c r="D170" s="8">
+      <c r="D170" s="42">
         <v>19717692</v>
       </c>
       <c r="E170">
@@ -7670,17 +7684,17 @@
         <v>597-#19717692</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A171" s="42">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A171" s="41">
         <v>44772</v>
       </c>
-      <c r="B171" s="10">
+      <c r="B171" s="9">
         <v>168</v>
       </c>
-      <c r="C171" s="10">
+      <c r="C171" s="9">
         <v>57</v>
       </c>
-      <c r="D171" s="8">
+      <c r="D171" s="42">
         <v>19717918</v>
       </c>
       <c r="E171">
@@ -7709,17 +7723,17 @@
         <v>598-#19717918</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A172" s="42">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A172" s="41">
         <v>44773</v>
       </c>
-      <c r="B172" s="10">
+      <c r="B172" s="9">
         <v>1</v>
       </c>
-      <c r="C172" s="10">
+      <c r="C172" s="9">
         <v>1</v>
       </c>
-      <c r="D172" s="8">
+      <c r="D172" s="42">
         <v>19723775</v>
       </c>
       <c r="E172">
@@ -7748,17 +7762,17 @@
         <v>599-#19723775</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A173" s="42">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A173" s="41">
         <v>44774</v>
       </c>
-      <c r="B173" s="10">
+      <c r="B173" s="9">
         <v>3</v>
       </c>
-      <c r="C173" s="10">
+      <c r="C173" s="9">
         <v>3</v>
       </c>
-      <c r="D173" s="8">
+      <c r="D173" s="42">
         <v>19730116</v>
       </c>
       <c r="E173">
@@ -7787,17 +7801,17 @@
         <v>600-#19730116</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A174" s="42">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A174" s="41">
         <v>44776</v>
       </c>
-      <c r="B174" s="10">
+      <c r="B174" s="9">
         <v>3</v>
       </c>
-      <c r="C174" s="10">
+      <c r="C174" s="9">
         <v>2</v>
       </c>
-      <c r="D174" s="8">
+      <c r="D174" s="42">
         <v>19744626</v>
       </c>
       <c r="E174">
@@ -7826,211 +7840,34 @@
         <v>601-#19744626</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A175" s="42">
-        <v>44776</v>
-      </c>
-      <c r="B175" s="10">
-        <v>33</v>
-      </c>
-      <c r="C175" s="10">
-        <v>10</v>
-      </c>
-      <c r="D175" s="8">
-        <v>19748668</v>
-      </c>
-      <c r="E175">
-        <v>602</v>
-      </c>
-      <c r="F175" s="1">
-        <v>3.78</v>
-      </c>
-      <c r="G175" s="1">
-        <v>10.14</v>
-      </c>
-      <c r="H175" s="1">
-        <v>3.39</v>
-      </c>
-      <c r="I175" s="1"/>
-      <c r="J175" s="3">
-        <f>Table4[[#This Row],[Final TTL]]-Table4[[#This Row],[Shipping]]</f>
-        <v>6.75</v>
-      </c>
-      <c r="K175" s="1">
-        <f>K174+Table4[[#This Row],[Total Made]]</f>
-        <v>18.520000000000003</v>
-      </c>
-      <c r="L175" t="str">
-        <f t="shared" si="22"/>
-        <v>602-#19748668</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A176" s="42"/>
-      <c r="D176" s="8"/>
-      <c r="I176" s="1"/>
-      <c r="J176" s="3"/>
-      <c r="K176" s="1"/>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A177" s="42"/>
-      <c r="D177" s="8"/>
-      <c r="I177" s="1"/>
-      <c r="J177" s="3"/>
-      <c r="K177" s="1"/>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A178" s="42"/>
-      <c r="D178" s="8"/>
-      <c r="I178" s="1"/>
-      <c r="J178" s="3"/>
-      <c r="K178" s="1"/>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A179" s="42"/>
-      <c r="D179" s="8"/>
-      <c r="I179" s="1"/>
-      <c r="J179" s="3"/>
-      <c r="K179" s="1"/>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A180" s="42"/>
-      <c r="D180" s="8"/>
-      <c r="I180" s="1"/>
-      <c r="J180" s="3"/>
-      <c r="K180" s="1"/>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A181" s="42"/>
-      <c r="D181" s="8"/>
-      <c r="I181" s="1"/>
-      <c r="J181" s="3"/>
-      <c r="K181" s="1"/>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A182" s="42"/>
-      <c r="D182" s="8"/>
-      <c r="I182" s="1"/>
-      <c r="J182" s="3"/>
-      <c r="K182" s="1"/>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A183" s="42"/>
-      <c r="D183" s="8"/>
-      <c r="I183" s="1"/>
-      <c r="J183" s="3"/>
-      <c r="K183" s="1"/>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A184" s="42"/>
-      <c r="D184" s="8"/>
-      <c r="I184" s="1"/>
-      <c r="J184" s="3"/>
-      <c r="K184" s="1"/>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A185" s="42"/>
-      <c r="D185" s="8"/>
-      <c r="I185" s="1"/>
-      <c r="J185" s="3"/>
-      <c r="K185" s="1"/>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A186" s="42"/>
-      <c r="D186" s="8"/>
-      <c r="I186" s="1"/>
-      <c r="J186" s="3"/>
-      <c r="K186" s="1"/>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A187" s="42"/>
-      <c r="D187" s="8"/>
-      <c r="I187" s="1"/>
-      <c r="J187" s="3"/>
-      <c r="K187" s="1"/>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A188" s="42"/>
-      <c r="D188" s="8"/>
-      <c r="I188" s="1"/>
-      <c r="J188" s="3"/>
-      <c r="K188" s="1"/>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A189" s="42"/>
-      <c r="D189" s="8"/>
-      <c r="I189" s="1"/>
-      <c r="J189" s="3"/>
-      <c r="K189" s="1"/>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A190" s="42"/>
-      <c r="D190" s="8"/>
-      <c r="I190" s="1"/>
-      <c r="J190" s="3"/>
-      <c r="K190" s="1"/>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A191" s="42"/>
-      <c r="D191" s="8"/>
-      <c r="I191" s="1"/>
-      <c r="J191" s="3"/>
-      <c r="K191" s="1"/>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A192" s="42"/>
-      <c r="D192" s="8"/>
-      <c r="I192" s="1"/>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A193" s="42"/>
-      <c r="D193" s="8"/>
-      <c r="I193" s="1"/>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A194" s="42"/>
-      <c r="D194" s="8"/>
-      <c r="I194" s="1"/>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A195" s="42"/>
-      <c r="D195" s="8"/>
-      <c r="I195" s="1"/>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A196" s="42"/>
-      <c r="D196" s="8"/>
-      <c r="I196" s="1"/>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A197" s="42"/>
-      <c r="D197" s="8"/>
-      <c r="I197" s="1"/>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A198" s="42"/>
-      <c r="D198" s="8"/>
-      <c r="I198" s="1"/>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A199" s="42"/>
-      <c r="D199" s="8"/>
-      <c r="I199" s="1"/>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A200" s="42"/>
-      <c r="D200" s="8"/>
-      <c r="I200" s="1"/>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A201" s="42"/>
-      <c r="D201" s="8"/>
-      <c r="I201" s="1"/>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A202" s="42"/>
-      <c r="D202" s="8"/>
-      <c r="I202" s="1"/>
+    <row r="175">
+      <c r="B175" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D175" t="n">
+        <v>23462.0</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F175" t="s">
+        <v>85</v>
+      </c>
+      <c r="G175" t="s">
+        <v>85</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -8052,15 +7889,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.21875" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.5703125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="30.85546875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="11.7109375"/>
+    <col min="5" max="5" customWidth="true" width="27.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>33</v>
       </c>
@@ -8074,7 +7911,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -8084,12 +7921,12 @@
       <c r="C2" s="1">
         <v>15</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <f>'Set Selling'!C1</f>
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -8099,12 +7936,12 @@
       <c r="C3" s="1">
         <v>150</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <f>'Set Selling'!D1</f>
         <v>-77.250000000000014</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -8114,12 +7951,12 @@
       <c r="C4" s="1">
         <v>5</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <f>'Set Selling'!E1</f>
         <v>-4.8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -8129,12 +7966,12 @@
       <c r="C5" s="1">
         <v>49</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <f>'Set Selling'!F1</f>
         <v>-48.84</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -8144,12 +7981,12 @@
       <c r="C6" s="1">
         <v>-45</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <f>'Set Selling'!G1</f>
         <v>-11.5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -8159,12 +7996,12 @@
       <c r="C7" s="1">
         <v>-20</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <f>'Set Selling'!H1</f>
         <v>-10.639999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -8174,12 +8011,12 @@
       <c r="C8" s="1">
         <v>-40</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="14">
         <f>'Set Selling'!I1</f>
         <v>-37.909999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -8189,12 +8026,12 @@
       <c r="C9" s="1">
         <v>-103</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
         <f>'Set Selling'!J1</f>
         <v>-101.56</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>59</v>
       </c>
@@ -8204,12 +8041,12 @@
       <c r="C10" s="1">
         <v>-35</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="14">
         <f>'Set Selling'!K1</f>
         <v>-34.64</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -8219,12 +8056,12 @@
       <c r="C11" s="1">
         <v>-4</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="14">
         <f>'Set Selling'!L1</f>
         <v>3.9400000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>68</v>
       </c>
@@ -8234,7 +8071,7 @@
       <c r="C12" s="1">
         <v>-30</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="14">
         <f>'Set Selling'!M1</f>
         <v>-30</v>
       </c>
@@ -8242,7 +8079,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>70</v>
       </c>
@@ -8252,7 +8089,7 @@
       <c r="C13" s="1">
         <v>-75</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="14">
         <f>'Set Selling'!N1</f>
         <v>-75</v>
       </c>
@@ -8260,7 +8097,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>72</v>
       </c>
@@ -8270,7 +8107,7 @@
       <c r="C14" s="1">
         <v>-30</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="14">
         <f>'Set Selling'!O1</f>
         <v>-30</v>
       </c>
@@ -8294,203 +8131,203 @@
       <selection pane="topRight" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="8.88671875" style="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="6" width="12.7109375"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="28" width="9.5703125"/>
+    <col min="3" max="3" customWidth="true" style="7" width="11.28515625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="9.5703125"/>
+    <col min="7" max="9" style="1" width="8.85546875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="9.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="19" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:19" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="38">
+      <c r="B1" s="37">
         <f>B2+B3</f>
         <v>-453.2</v>
       </c>
-      <c r="C1" s="30">
+      <c r="C1" s="29">
         <f>C2+C3</f>
         <v>5</v>
       </c>
-      <c r="D1" s="26">
+      <c r="D1" s="25">
         <f>D2+D3</f>
         <v>-77.250000000000014</v>
       </c>
-      <c r="E1" s="20">
+      <c r="E1" s="19">
         <f t="shared" ref="E1:F1" si="0">E2+E3</f>
         <v>-4.8</v>
       </c>
-      <c r="F1" s="20">
+      <c r="F1" s="19">
         <f t="shared" si="0"/>
         <v>-48.84</v>
       </c>
-      <c r="G1" s="26">
+      <c r="G1" s="25">
         <f>G2+G3</f>
         <v>-11.5</v>
       </c>
-      <c r="H1" s="26">
+      <c r="H1" s="25">
         <f>H2+H3</f>
         <v>-10.639999999999999</v>
       </c>
-      <c r="I1" s="20">
+      <c r="I1" s="19">
         <f t="shared" ref="I1:N1" si="1">I2+I3</f>
         <v>-37.909999999999997</v>
       </c>
-      <c r="J1" s="20">
+      <c r="J1" s="19">
         <f t="shared" si="1"/>
         <v>-101.56</v>
       </c>
-      <c r="K1" s="26">
+      <c r="K1" s="25">
         <f>K2+K3</f>
         <v>-34.64</v>
       </c>
-      <c r="L1" s="20">
+      <c r="L1" s="19">
         <f t="shared" si="1"/>
         <v>3.9400000000000004</v>
       </c>
-      <c r="M1" s="20">
+      <c r="M1" s="19">
         <f t="shared" si="1"/>
         <v>-30</v>
       </c>
-      <c r="N1" s="20">
+      <c r="N1" s="19">
         <f t="shared" si="1"/>
         <v>-75</v>
       </c>
-      <c r="O1" s="26">
+      <c r="O1" s="25">
         <f>O2+O3</f>
         <v>-30</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="28" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:19" s="27" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B2" s="33">
         <f>SUM(C2:O2)</f>
         <v>-601</v>
       </c>
-      <c r="C2" s="31">
+      <c r="C2" s="30">
         <v>-15</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="25">
         <v>-150</v>
       </c>
-      <c r="E2" s="27">
+      <c r="E2" s="26">
         <v>-5</v>
       </c>
-      <c r="F2" s="27">
+      <c r="F2" s="26">
         <v>-49</v>
       </c>
-      <c r="G2" s="26">
+      <c r="G2" s="25">
         <f>'Set Bought'!C6</f>
         <v>-45</v>
       </c>
-      <c r="H2" s="26">
+      <c r="H2" s="25">
         <f>'Set Bought'!C7</f>
         <v>-20</v>
       </c>
-      <c r="I2" s="26">
+      <c r="I2" s="25">
         <f>'Set Bought'!C8</f>
         <v>-40</v>
       </c>
-      <c r="J2" s="34">
+      <c r="J2" s="33">
         <f>'Set Bought'!C9</f>
         <v>-103</v>
       </c>
-      <c r="K2" s="34">
+      <c r="K2" s="33">
         <f>'Set Bought'!C10</f>
         <v>-35</v>
       </c>
-      <c r="L2" s="34">
+      <c r="L2" s="33">
         <f>'Set Bought'!C11</f>
         <v>-4</v>
       </c>
-      <c r="M2" s="34">
+      <c r="M2" s="33">
         <f>'Set Bought'!C12</f>
         <v>-30</v>
       </c>
-      <c r="N2" s="34">
+      <c r="N2" s="33">
         <f>'Set Bought'!C13</f>
         <v>-75</v>
       </c>
-      <c r="O2" s="34">
+      <c r="O2" s="33">
         <f>'Set Bought'!C14</f>
         <v>-30</v>
       </c>
-      <c r="R2" s="28" t="s">
+      <c r="R2" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="S2" s="28">
+      <c r="S2" s="27">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="23" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:19" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="21">
         <f>SUM(C3:O3)</f>
         <v>147.80000000000001</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="31">
         <f t="shared" ref="C3:O3" si="2">SUMIF(C5:C250,"&lt;&gt;",C5:C250)</f>
         <v>20</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="23">
         <f t="shared" si="2"/>
         <v>72.749999999999986</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="20">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="F3" s="36">
+      <c r="F3" s="35">
         <f t="shared" si="2"/>
         <v>0.16</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="23">
         <f t="shared" si="2"/>
         <v>33.5</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H3" s="23">
         <f t="shared" si="2"/>
         <v>9.3600000000000012</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="20">
         <f t="shared" si="2"/>
         <v>2.09</v>
       </c>
-      <c r="J3" s="22">
+      <c r="J3" s="21">
         <f>SUMIF(J5:J250,"&lt;&gt;",J5:J250)</f>
         <v>1.44</v>
       </c>
-      <c r="K3" s="24">
+      <c r="K3" s="23">
         <f t="shared" si="2"/>
         <v>0.36</v>
       </c>
-      <c r="L3" s="35">
+      <c r="L3" s="34">
         <f t="shared" si="2"/>
         <v>7.94</v>
       </c>
-      <c r="M3" s="21">
+      <c r="M3" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N3" s="21">
+      <c r="N3" s="20">
         <f>SUMIF(N5:N250,"&lt;&gt;",N5:N250)</f>
         <v>0</v>
       </c>
-      <c r="O3" s="37">
+      <c r="O3" s="36">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="29" t="s">
+    <row r="4" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="28" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -8533,11 +8370,11 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="32">
         <f>SUMIF(C5:AA5,"&lt;&gt;",C5:AA5)</f>
         <v>20</v>
       </c>
@@ -8545,50 +8382,50 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="32">
         <f>SUMIF(C6:AA6,"&lt;&gt;",C6:AA6)</f>
         <v>1.66</v>
       </c>
-      <c r="C6" s="25"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="1">
         <v>1.66</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="32">
         <f t="shared" ref="B7:B34" si="3">SUMIF(C7:AA7,"&lt;&gt;",C7:AA7)</f>
         <v>4.3099999999999996</v>
       </c>
-      <c r="C7" s="25"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="1">
         <v>4.3099999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="32">
         <f t="shared" si="3"/>
         <v>0.89</v>
       </c>
-      <c r="C8" s="25"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="1">
         <v>0.89</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="32">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
@@ -8596,37 +8433,37 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="32">
         <f t="shared" si="3"/>
         <v>1.1200000000000001</v>
       </c>
-      <c r="C10" s="25"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="1">
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="32">
         <f t="shared" si="3"/>
         <v>0.85</v>
       </c>
-      <c r="C11" s="25"/>
+      <c r="C11" s="24"/>
       <c r="D11" s="1">
         <v>0.85</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B12" s="32">
         <f t="shared" si="3"/>
         <v>1.62</v>
       </c>
@@ -8637,11 +8474,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="33">
+      <c r="B13" s="32">
         <f t="shared" si="3"/>
         <v>34.69</v>
       </c>
@@ -8649,11 +8486,11 @@
         <v>34.69</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="29">
+      <c r="B14" s="28">
         <f t="shared" si="3"/>
         <v>0.3</v>
       </c>
@@ -8661,11 +8498,11 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="29">
+      <c r="B15" s="28">
         <f t="shared" si="3"/>
         <v>5.37</v>
       </c>
@@ -8676,11 +8513,11 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="33">
+      <c r="B16" s="32">
         <f t="shared" si="3"/>
         <v>0.39</v>
       </c>
@@ -8688,11 +8525,11 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="29">
+      <c r="B17" s="28">
         <f t="shared" si="3"/>
         <v>3.29</v>
       </c>
@@ -8703,11 +8540,11 @@
         <v>2.91</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="29">
+      <c r="B18" s="28">
         <f t="shared" si="3"/>
         <v>3.66</v>
       </c>
@@ -8715,11 +8552,11 @@
         <v>3.66</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="29">
+      <c r="B19" s="28">
         <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
@@ -8727,11 +8564,11 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="29">
+      <c r="B20" s="28">
         <f t="shared" si="3"/>
         <v>3.27</v>
       </c>
@@ -8739,11 +8576,11 @@
         <v>3.27</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="29">
+      <c r="B21" s="28">
         <f t="shared" si="3"/>
         <v>1.4</v>
       </c>
@@ -8751,11 +8588,11 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="33">
+      <c r="B22" s="32">
         <f>SUMIF(C22:AA22,"&lt;&gt;",C22:AA22)</f>
         <v>5.36</v>
       </c>
@@ -8769,11 +8606,11 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="33">
+      <c r="B23" s="32">
         <f t="shared" si="3"/>
         <v>1.1000000000000001</v>
       </c>
@@ -8781,11 +8618,11 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="33">
+      <c r="B24" s="32">
         <f t="shared" si="3"/>
         <v>10.439999999999998</v>
       </c>
@@ -8808,11 +8645,11 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="33">
+      <c r="B25" s="32">
         <f t="shared" si="3"/>
         <v>4.6900000000000004</v>
       </c>
@@ -8820,11 +8657,11 @@
         <v>4.6900000000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A26" s="9" t="s">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A26" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="33">
+      <c r="B26" s="32">
         <f t="shared" si="3"/>
         <v>0.45999999999999996</v>
       </c>
@@ -8835,11 +8672,11 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="33">
+      <c r="B27" s="32">
         <f t="shared" si="3"/>
         <v>4.6899999999999995</v>
       </c>
@@ -8853,11 +8690,11 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="33">
+      <c r="B28" s="32">
         <f t="shared" si="3"/>
         <v>2.91</v>
       </c>
@@ -8877,11 +8714,11 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="33">
+      <c r="B29" s="32">
         <f t="shared" si="3"/>
         <v>0.72</v>
       </c>
@@ -8892,11 +8729,11 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="29">
+      <c r="B30" s="28">
         <f t="shared" si="3"/>
         <v>5.86</v>
       </c>
@@ -8913,11 +8750,11 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B31" s="29">
+      <c r="B31" s="28">
         <f t="shared" si="3"/>
         <v>2.83</v>
       </c>
@@ -8925,11 +8762,11 @@
         <v>2.83</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="33">
+      <c r="B32" s="32">
         <f t="shared" si="3"/>
         <v>3.55</v>
       </c>
@@ -8937,11 +8774,11 @@
         <v>3.55</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A33" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B33" s="29">
+      <c r="B33" s="28">
         <f t="shared" si="3"/>
         <v>0.96</v>
       </c>
@@ -8949,11 +8786,11 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A34" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B34" s="29">
+      <c r="B34" s="28">
         <f t="shared" si="3"/>
         <v>1.1599999999999999</v>
       </c>

--- a/src/main/java/com/example/invoicetracker/dummyfile.xlsx
+++ b/src/main/java/com/example/invoicetracker/dummyfile.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nate\IdeaProjects\MuthreProject\src\main\java\com\example\invoicetracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/24eaf3c5edf59ebb/Desktop/Excel Sheet Creator/InvoiceTracker/InvoiceTracker/src/main/java/com/example/invoicetracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3D9C6B-1E8B-461E-95AC-2A02447221A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{7D3D9C6B-1E8B-461E-95AC-2A02447221A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFE2D833-FDFB-4055-AC6C-3A60D68AA19E}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="1050" windowWidth="21600" windowHeight="11295" xr2:uid="{5721DB7F-C36F-4E51-A90E-0469C95F6CFB}"/>
+    <workbookView xWindow="53475" yWindow="9600" windowWidth="14820" windowHeight="10710" xr2:uid="{5721DB7F-C36F-4E51-A90E-0469C95F6CFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Selling Sheet" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="85">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -293,18 +293,6 @@
   <si>
     <t>na</t>
   </si>
-  <si>
-    <t>$0</t>
-  </si>
-  <si>
-    <t>$8383</t>
-  </si>
-  <si>
-    <t>$231</t>
-  </si>
-  <si>
-    <t>$321</t>
-  </si>
 </sst>
 </file>
 
@@ -462,12 +450,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -529,6 +514,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -552,6 +541,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -686,17 +676,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9A1DD1CE-BA5E-4E87-BE89-1AF9DFCB5BC7}" name="Table4" displayName="Table4" ref="A1:L175" totalsRowShown="0" headerRowDxfId="7" headerRowCellStyle="Currency">
-  <autoFilter ref="A1:L175" xr:uid="{9A1DD1CE-BA5E-4E87-BE89-1AF9DFCB5BC7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9A1DD1CE-BA5E-4E87-BE89-1AF9DFCB5BC7}" name="Table4" displayName="Table4" ref="A1:L174" totalsRowShown="0" headerRowDxfId="7" headerRowCellStyle="Currency">
+  <autoFilter ref="A1:L174" xr:uid="{9A1DD1CE-BA5E-4E87-BE89-1AF9DFCB5BC7}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{ADBE4EBC-93A3-43D0-9A64-7205AD098FEF}" name="Column1" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{D3B1EC1B-DA47-4154-A899-E3D42E9E1A5D}" name="Pieces" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{0EC7C46D-1B90-4458-A24C-69ACA080143A}" name="Lots" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{9315B319-2085-4E33-9755-586CC97109CF}" name="Invoice" dataDxfId="3"/>
     <tableColumn id="5" xr3:uid="{BC3D5AE9-AB83-477A-9E57-B8769AC94ACD}" name="Order"/>
-    <tableColumn id="6" xr3:uid="{52B23548-5C10-4A5C-B744-56D2E52DA285}" name="Order TTL" dataDxfId="2" dataCellStyle="Currency"/>
+    <tableColumn id="6" xr3:uid="{52B23548-5C10-4A5C-B744-56D2E52DA285}" name="Order TTL" dataDxfId="0" dataCellStyle="Currency"/>
     <tableColumn id="7" xr3:uid="{DD4E3639-F1B5-4B16-B96D-93700DB57469}" name="Final TTL" dataDxfId="1" dataCellStyle="Currency"/>
-    <tableColumn id="8" xr3:uid="{76948350-640B-4B12-B45B-16613F0D56D9}" name="Shipping" dataDxfId="0" dataCellStyle="Currency"/>
+    <tableColumn id="8" xr3:uid="{76948350-640B-4B12-B45B-16613F0D56D9}" name="Shipping" dataDxfId="2" dataCellStyle="Currency"/>
     <tableColumn id="9" xr3:uid="{23759160-A712-4638-8BD4-B8B4AC725D4D}" name="Column2" dataCellStyle="Currency"/>
     <tableColumn id="10" xr3:uid="{2D829229-8402-4F98-AA4A-6FBFA307A399}" name="Total Made"/>
     <tableColumn id="11" xr3:uid="{A3F5F976-9C7D-4882-BBD1-1816E99138C5}" name="Overall Made"/>
@@ -1004,86 +994,86 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D25807D-1264-43B8-81A9-D69D4653921A}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S175"/>
+  <dimension ref="A1:S174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
-      <selection activeCell="A202" sqref="A176:XFD202"/>
+    <sheetView tabSelected="1" topLeftCell="D161" workbookViewId="0">
+      <selection activeCell="F174" sqref="F174"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="38" width="10.42578125"/>
-    <col min="2" max="2" customWidth="true" style="9" width="8.140625"/>
-    <col min="3" max="3" customWidth="true" style="9" width="6.28515625"/>
-    <col min="4" max="4" customWidth="true" style="43" width="23.28515625"/>
-    <col min="6" max="6" customWidth="true" style="1" width="12.28515625"/>
-    <col min="7" max="7" customWidth="true" style="1" width="11.42578125"/>
-    <col min="8" max="8" customWidth="true" style="1" width="11.5703125"/>
-    <col min="9" max="9" customWidth="true" width="10.42578125"/>
-    <col min="10" max="10" customWidth="true" width="13.7109375"/>
-    <col min="11" max="11" customWidth="true" width="15.42578125"/>
-    <col min="12" max="12" customWidth="true" width="45.85546875"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.42578125"/>
+    <col min="1" max="1" customWidth="true" style="37" width="10.44140625"/>
+    <col min="2" max="2" customWidth="true" style="8" width="8.109375"/>
+    <col min="3" max="3" customWidth="true" style="8" width="6.33203125"/>
+    <col min="4" max="4" customWidth="true" style="42" width="23.33203125"/>
+    <col min="6" max="6" customWidth="true" style="1" width="12.33203125"/>
+    <col min="7" max="7" customWidth="true" style="1" width="11.44140625"/>
+    <col min="8" max="8" customWidth="true" style="1" width="11.5546875"/>
+    <col min="9" max="9" customWidth="true" width="10.44140625"/>
+    <col min="10" max="10" customWidth="true" width="13.6640625"/>
+    <col min="11" max="11" customWidth="true" width="15.44140625"/>
+    <col min="12" max="12" customWidth="true" width="45.88671875"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="10.44140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39">
+    <row r="2" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="38">
         <v>44562</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>8</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <v>5</v>
       </c>
-      <c r="D2" s="42">
+      <c r="D2" s="41">
         <v>18035648</v>
       </c>
       <c r="E2">
         <v>432</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="43">
         <v>0.94</v>
       </c>
       <c r="G2" s="1">
@@ -1093,11 +1083,11 @@
         <v>3.12</v>
       </c>
       <c r="I2" s="1"/>
-      <c r="J2" s="3">
+      <c r="J2" s="2">
         <f t="shared" ref="J2:J7" si="0">G2-H2</f>
         <v>4.04</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="2">
         <f>J2</f>
         <v>4.04</v>
       </c>
@@ -1105,36 +1095,36 @@
         <f t="shared" ref="L2:L33" si="1">_xlfn.CONCAT(E2,$N$2,D2)</f>
         <v>432-#18035648</v>
       </c>
-      <c r="M2" s="12">
+      <c r="M2" s="11">
         <f>K31+K58+K81+K110+K126</f>
         <v>1551.8340000000003</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="39">
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="38">
         <v>44563</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>1</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>1</v>
       </c>
-      <c r="D3" s="42">
+      <c r="D3" s="41">
         <v>18048673</v>
       </c>
       <c r="E3">
         <v>433</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="43">
         <v>7.17</v>
       </c>
       <c r="G3" s="1">
@@ -1144,11 +1134,11 @@
         <v>3.06</v>
       </c>
       <c r="I3" s="1"/>
-      <c r="J3" s="3">
+      <c r="J3" s="2">
         <f t="shared" si="0"/>
         <v>10.639999999999999</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="2">
         <f>K2+J3</f>
         <v>14.68</v>
       </c>
@@ -1157,23 +1147,23 @@
         <v>433-#18048673</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="39">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="38">
         <v>44564</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>4</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>2</v>
       </c>
-      <c r="D4" s="42">
+      <c r="D4" s="41">
         <v>18053332</v>
       </c>
       <c r="E4">
         <v>434</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="43">
         <v>4</v>
       </c>
       <c r="G4" s="1">
@@ -1183,11 +1173,11 @@
         <v>3.86</v>
       </c>
       <c r="I4" s="1"/>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <f t="shared" si="0"/>
         <v>6.51</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="2">
         <f>K3+J4</f>
         <v>21.189999999999998</v>
       </c>
@@ -1196,23 +1186,23 @@
         <v>434-#18053332</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="39">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="38">
         <v>44565</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>22</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>3</v>
       </c>
-      <c r="D5" s="42">
+      <c r="D5" s="41">
         <v>18074627</v>
       </c>
       <c r="E5">
         <v>435</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="43">
         <v>7.62</v>
       </c>
       <c r="G5" s="1">
@@ -1222,11 +1212,11 @@
         <v>3.37</v>
       </c>
       <c r="I5" s="1"/>
-      <c r="J5" s="3">
+      <c r="J5" s="2">
         <f t="shared" si="0"/>
         <v>10.8</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="2">
         <f>K4+J5</f>
         <v>31.99</v>
       </c>
@@ -1235,23 +1225,23 @@
         <v>435-#18074627</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="39">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="38">
         <v>44566</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>9</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>3</v>
       </c>
-      <c r="D6" s="42">
+      <c r="D6" s="41">
         <v>18077599</v>
       </c>
       <c r="E6">
         <v>436</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="43">
         <v>2.2400000000000002</v>
       </c>
       <c r="G6" s="1">
@@ -1261,11 +1251,11 @@
         <v>3.42</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="3">
+      <c r="J6" s="2">
         <f t="shared" si="0"/>
         <v>5.0999999999999996</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="2">
         <f t="shared" ref="K6:K31" si="2">K5+J6</f>
         <v>37.089999999999996</v>
       </c>
@@ -1274,23 +1264,23 @@
         <v>436-#18077599</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="39">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="38">
         <v>44567</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>9</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>6</v>
       </c>
-      <c r="D7" s="42">
+      <c r="D7" s="41">
         <v>18084848</v>
       </c>
       <c r="E7">
         <v>437</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="43">
         <v>7.09</v>
       </c>
       <c r="G7" s="1">
@@ -1300,11 +1290,11 @@
         <v>3.42</v>
       </c>
       <c r="I7" s="1"/>
-      <c r="J7" s="3">
+      <c r="J7" s="2">
         <f t="shared" si="0"/>
         <v>10.199999999999999</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="2">
         <f t="shared" si="2"/>
         <v>47.289999999999992</v>
       </c>
@@ -1313,23 +1303,23 @@
         <v>437-#18084848</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="39">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="38">
         <v>44568</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>146</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>53</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="41">
         <v>18085251</v>
       </c>
       <c r="E8">
         <v>438</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="43">
         <v>12.56</v>
       </c>
       <c r="G8" s="1">
@@ -1339,11 +1329,11 @@
         <v>4.1500000000000004</v>
       </c>
       <c r="I8" s="1"/>
-      <c r="J8" s="3">
+      <c r="J8" s="2">
         <f t="shared" ref="J8:J31" si="3">G8-H8</f>
         <v>15.209999999999999</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="2">
         <f t="shared" si="2"/>
         <v>62.499999999999993</v>
       </c>
@@ -1352,23 +1342,23 @@
         <v>438-#18085251</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="39">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="38">
         <v>44569</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>79</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>47</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D9" s="41">
         <v>18087884</v>
       </c>
       <c r="E9">
         <v>439</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="43">
         <v>20.48</v>
       </c>
       <c r="G9" s="1">
@@ -1378,11 +1368,11 @@
         <v>3.42</v>
       </c>
       <c r="I9" s="1"/>
-      <c r="J9" s="3">
+      <c r="J9" s="2">
         <f t="shared" si="3"/>
         <v>24.259999999999998</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="2">
         <f t="shared" si="2"/>
         <v>86.759999999999991</v>
       </c>
@@ -1391,23 +1381,23 @@
         <v>439-#18087884</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="39">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="38">
         <v>44570</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>12</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>8</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="41">
         <v>18114189</v>
       </c>
       <c r="E10">
         <v>440</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="43">
         <v>0.74</v>
       </c>
       <c r="G10" s="1">
@@ -1417,11 +1407,11 @@
         <v>3.72</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="3">
+      <c r="J10" s="2">
         <f t="shared" si="3"/>
         <v>3.23</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="2">
         <f t="shared" si="2"/>
         <v>89.99</v>
       </c>
@@ -1430,23 +1420,23 @@
         <v>440-#18114189</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="39">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="38">
         <v>44571</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>134</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>13</v>
       </c>
-      <c r="D11" s="42">
+      <c r="D11" s="41">
         <v>18120378</v>
       </c>
       <c r="E11">
         <v>441</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="43">
         <v>11.55</v>
       </c>
       <c r="G11" s="1">
@@ -1456,11 +1446,11 @@
         <v>3.79</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="3">
+      <c r="J11" s="2">
         <f t="shared" si="3"/>
         <v>15.3</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="2">
         <f t="shared" si="2"/>
         <v>105.28999999999999</v>
       </c>
@@ -1469,23 +1459,23 @@
         <v>441-#18120378</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="39">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="38">
         <v>44572</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <v>207</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>67</v>
       </c>
-      <c r="D12" s="42">
+      <c r="D12" s="41">
         <v>18127715</v>
       </c>
       <c r="E12">
         <v>442</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="43">
         <v>15.47</v>
       </c>
       <c r="G12" s="1">
@@ -1495,11 +1485,11 @@
         <v>3.76</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="3">
+      <c r="J12" s="2">
         <f t="shared" si="3"/>
         <v>19.439999999999998</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="2">
         <f t="shared" si="2"/>
         <v>124.72999999999999</v>
       </c>
@@ -1508,23 +1498,23 @@
         <v>442-#18127715</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="39">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="38">
         <v>44573</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="8">
         <v>1</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <v>1</v>
       </c>
-      <c r="D13" s="42">
+      <c r="D13" s="41">
         <v>18141822</v>
       </c>
       <c r="E13">
         <v>443</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="43">
         <v>0.88</v>
       </c>
       <c r="G13" s="1">
@@ -1534,11 +1524,11 @@
         <v>3.48</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="3">
+      <c r="J13" s="2">
         <f t="shared" si="3"/>
         <v>3.6199999999999997</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="2">
         <f t="shared" si="2"/>
         <v>128.35</v>
       </c>
@@ -1547,23 +1537,23 @@
         <v>443-#18141822</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="39">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="38">
         <v>44574</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>111</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>34</v>
       </c>
-      <c r="D14" s="42">
+      <c r="D14" s="41">
         <v>18143576</v>
       </c>
       <c r="E14">
         <v>444</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="43">
         <v>13.78</v>
       </c>
       <c r="G14" s="1">
@@ -1573,11 +1563,11 @@
         <v>4.42</v>
       </c>
       <c r="I14" s="1"/>
-      <c r="J14" s="3">
+      <c r="J14" s="2">
         <f t="shared" si="3"/>
         <v>17.799999999999997</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="2">
         <f t="shared" si="2"/>
         <v>146.14999999999998</v>
       </c>
@@ -1586,23 +1576,23 @@
         <v>444-#18143576</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="39">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="38">
         <v>44575</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="8">
         <v>4</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <v>4</v>
       </c>
-      <c r="D15" s="42">
+      <c r="D15" s="41">
         <v>18146029</v>
       </c>
       <c r="E15">
         <v>445</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="43">
         <v>1.79</v>
       </c>
       <c r="G15" s="1">
@@ -1612,11 +1602,11 @@
         <v>3.48</v>
       </c>
       <c r="I15" s="1"/>
-      <c r="J15" s="3">
+      <c r="J15" s="2">
         <f t="shared" si="3"/>
         <v>4.57</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="2">
         <f t="shared" si="2"/>
         <v>150.71999999999997</v>
       </c>
@@ -1625,23 +1615,23 @@
         <v>445-#18146029</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="39">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="38">
         <v>44576</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="8">
         <v>43</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <v>22</v>
       </c>
-      <c r="D16" s="42">
+      <c r="D16" s="41">
         <v>18151206</v>
       </c>
       <c r="E16">
         <v>446</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="43">
         <v>5.53</v>
       </c>
       <c r="G16" s="1">
@@ -1651,11 +1641,11 @@
         <v>3.48</v>
       </c>
       <c r="I16" s="1"/>
-      <c r="J16" s="3">
+      <c r="J16" s="2">
         <f t="shared" si="3"/>
         <v>8.5</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="2">
         <f t="shared" si="2"/>
         <v>159.21999999999997</v>
       </c>
@@ -1664,23 +1654,23 @@
         <v>446-#18151206</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="39">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="38">
         <v>44577</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="8">
         <v>20</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="8">
         <v>10</v>
       </c>
-      <c r="D17" s="42">
+      <c r="D17" s="41">
         <v>18152067</v>
       </c>
       <c r="E17">
         <v>447</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="43">
         <v>7.02</v>
       </c>
       <c r="G17" s="1">
@@ -1690,11 +1680,11 @@
         <v>3.42</v>
       </c>
       <c r="I17" s="1"/>
-      <c r="J17" s="3">
+      <c r="J17" s="2">
         <f t="shared" si="3"/>
         <v>10.119999999999999</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="2">
         <f t="shared" si="2"/>
         <v>169.33999999999997</v>
       </c>
@@ -1703,23 +1693,23 @@
         <v>447-#18152067</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="39">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="38">
         <v>44578</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="8">
         <v>15</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="8">
         <v>11</v>
       </c>
-      <c r="D18" s="42">
+      <c r="D18" s="41">
         <v>18158903</v>
       </c>
       <c r="E18">
         <v>448</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="43">
         <v>4.91</v>
       </c>
       <c r="G18" s="1">
@@ -1729,11 +1719,11 @@
         <v>3.42</v>
       </c>
       <c r="I18" s="1"/>
-      <c r="J18" s="3">
+      <c r="J18" s="2">
         <f t="shared" si="3"/>
         <v>7.91</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="2">
         <f t="shared" si="2"/>
         <v>177.24999999999997</v>
       </c>
@@ -1742,23 +1732,23 @@
         <v>448-#18158903</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="39">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="38">
         <v>44579</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="8">
         <v>2</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="8">
         <v>1</v>
       </c>
-      <c r="D19" s="42">
+      <c r="D19" s="41">
         <v>18169857</v>
       </c>
       <c r="E19">
         <v>449</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="43">
         <v>1.18</v>
       </c>
       <c r="G19" s="1">
@@ -1768,11 +1758,11 @@
         <v>3.86</v>
       </c>
       <c r="I19" s="1"/>
-      <c r="J19" s="3">
+      <c r="J19" s="2">
         <f t="shared" si="3"/>
         <v>3.5500000000000003</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="2">
         <f t="shared" si="2"/>
         <v>180.79999999999998</v>
       </c>
@@ -1781,23 +1771,23 @@
         <v>449-#18169857</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="39">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="38">
         <v>44580</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="8">
         <v>31</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="8">
         <v>20</v>
       </c>
-      <c r="D20" s="42">
+      <c r="D20" s="41">
         <v>18177181</v>
       </c>
       <c r="E20">
         <v>450</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="43">
         <v>10.14</v>
       </c>
       <c r="G20" s="1">
@@ -1807,11 +1797,11 @@
         <v>3.39</v>
       </c>
       <c r="I20" s="1"/>
-      <c r="J20" s="3">
+      <c r="J20" s="2">
         <f t="shared" si="3"/>
         <v>13.43</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="2">
         <f t="shared" si="2"/>
         <v>194.23</v>
       </c>
@@ -1820,23 +1810,23 @@
         <v>450-#18177181</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="39">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="38">
         <v>44581</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="8">
         <v>1</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="8">
         <v>1</v>
       </c>
-      <c r="D21" s="42">
+      <c r="D21" s="41">
         <v>18187421</v>
       </c>
       <c r="E21">
         <v>451</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="43">
         <v>0.82</v>
       </c>
       <c r="G21" s="1">
@@ -1846,11 +1836,11 @@
         <v>3.48</v>
       </c>
       <c r="I21" s="1"/>
-      <c r="J21" s="3">
+      <c r="J21" s="2">
         <f t="shared" si="3"/>
         <v>3.5500000000000003</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="2">
         <f t="shared" si="2"/>
         <v>197.78</v>
       </c>
@@ -1859,23 +1849,23 @@
         <v>451-#18187421</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="39">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="38">
         <v>44582</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="8">
         <v>820</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="8">
         <v>122</v>
       </c>
-      <c r="D22" s="42">
+      <c r="D22" s="41">
         <v>18192511</v>
       </c>
       <c r="E22">
         <v>454</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="43">
         <v>62.93</v>
       </c>
       <c r="G22" s="1">
@@ -1885,11 +1875,11 @@
         <v>10.85</v>
       </c>
       <c r="I22" s="1"/>
-      <c r="J22" s="3">
+      <c r="J22" s="2">
         <f t="shared" si="3"/>
         <v>64.06</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="2">
         <f t="shared" si="2"/>
         <v>261.84000000000003</v>
       </c>
@@ -1898,23 +1888,23 @@
         <v>454-#18192511</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="39">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="38">
         <v>44583</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="8">
         <v>82</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="8">
         <v>30</v>
       </c>
-      <c r="D23" s="42">
+      <c r="D23" s="41">
         <v>18193493</v>
       </c>
       <c r="E23">
         <v>455</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="43">
         <v>15.76</v>
       </c>
       <c r="G23" s="1">
@@ -1924,11 +1914,11 @@
         <v>3.86</v>
       </c>
       <c r="I23" s="1"/>
-      <c r="J23" s="3">
+      <c r="J23" s="2">
         <f t="shared" si="3"/>
         <v>18.86</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="2">
         <f t="shared" si="2"/>
         <v>280.70000000000005</v>
       </c>
@@ -1937,23 +1927,23 @@
         <v>455-#18193493</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="39">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="38">
         <v>44584</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="8">
         <v>19</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="8">
         <v>16</v>
       </c>
-      <c r="D24" s="42">
+      <c r="D24" s="41">
         <v>18198143</v>
       </c>
       <c r="E24">
         <v>456</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="43">
         <v>3.29</v>
       </c>
       <c r="G24" s="1">
@@ -1963,11 +1953,11 @@
         <v>3.42</v>
       </c>
       <c r="I24" s="1"/>
-      <c r="J24" s="3">
+      <c r="J24" s="2">
         <f t="shared" si="3"/>
         <v>6.2100000000000009</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="2">
         <f t="shared" si="2"/>
         <v>286.91000000000003</v>
       </c>
@@ -1976,23 +1966,23 @@
         <v>456-#18198143</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="39">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="38">
         <v>44585</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="8">
         <v>1</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="8">
         <v>1</v>
       </c>
-      <c r="D25" s="42">
+      <c r="D25" s="41">
         <v>18224250</v>
       </c>
       <c r="E25">
         <v>457</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="43">
         <v>1.65</v>
       </c>
       <c r="G25" s="1">
@@ -2002,11 +1992,11 @@
         <v>3.86</v>
       </c>
       <c r="I25" s="1"/>
-      <c r="J25" s="3">
+      <c r="J25" s="2">
         <f t="shared" si="3"/>
         <v>4.0500000000000007</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="2">
         <f t="shared" si="2"/>
         <v>290.96000000000004</v>
       </c>
@@ -2015,23 +2005,23 @@
         <v>457-#18224250</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="39">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="38">
         <v>44586</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="8">
         <v>3</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="8">
         <v>3</v>
       </c>
-      <c r="D26" s="42">
+      <c r="D26" s="41">
         <v>18227914</v>
       </c>
       <c r="E26">
         <v>458</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="43">
         <v>14.91</v>
       </c>
       <c r="G26" s="1">
@@ -2041,11 +2031,11 @@
         <v>3.48</v>
       </c>
       <c r="I26" s="1"/>
-      <c r="J26" s="3">
+      <c r="J26" s="2">
         <f t="shared" si="3"/>
         <v>18.349999999999998</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="2">
         <f t="shared" si="2"/>
         <v>309.31000000000006</v>
       </c>
@@ -2054,23 +2044,23 @@
         <v>458-#18227914</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="39">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="38">
         <v>44587</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="8">
         <v>5</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="8">
         <v>4</v>
       </c>
-      <c r="D27" s="42">
+      <c r="D27" s="41">
         <v>18243438</v>
       </c>
       <c r="E27">
         <v>459</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="43">
         <v>1.53</v>
       </c>
       <c r="G27" s="1">
@@ -2080,11 +2070,11 @@
         <v>3.58</v>
       </c>
       <c r="I27" s="1"/>
-      <c r="J27" s="3">
+      <c r="J27" s="2">
         <f t="shared" si="3"/>
         <v>4.2</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="2">
         <f t="shared" si="2"/>
         <v>313.51000000000005</v>
       </c>
@@ -2093,23 +2083,23 @@
         <v>459-#18243438</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="39">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="38">
         <v>44588</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="8">
         <v>3</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="8">
         <v>15</v>
       </c>
-      <c r="D28" s="42">
+      <c r="D28" s="41">
         <v>18247415</v>
       </c>
       <c r="E28">
         <v>460</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="43">
         <v>0.74</v>
       </c>
       <c r="G28" s="1">
@@ -2119,11 +2109,11 @@
         <v>3.37</v>
       </c>
       <c r="I28" s="1"/>
-      <c r="J28" s="3">
+      <c r="J28" s="2">
         <f t="shared" si="3"/>
         <v>3.58</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28" s="2">
         <f t="shared" si="2"/>
         <v>317.09000000000003</v>
       </c>
@@ -2132,23 +2122,23 @@
         <v>460-#18247415</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="39">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="38">
         <v>44589</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="8">
         <v>19</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="8">
         <v>3</v>
       </c>
-      <c r="D29" s="42">
+      <c r="D29" s="41">
         <v>18258092</v>
       </c>
       <c r="E29">
         <v>461</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="43">
         <v>1.57</v>
       </c>
       <c r="G29" s="1">
@@ -2158,11 +2148,11 @@
         <v>3.42</v>
       </c>
       <c r="I29" s="1"/>
-      <c r="J29" s="3">
+      <c r="J29" s="2">
         <f t="shared" si="3"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="2">
         <f t="shared" si="2"/>
         <v>321.49</v>
       </c>
@@ -2171,23 +2161,23 @@
         <v>461-#18258092</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="39">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="38">
         <v>44590</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="8">
         <v>4</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="8">
         <v>48</v>
       </c>
-      <c r="D30" s="42">
+      <c r="D30" s="41">
         <v>18273145</v>
       </c>
       <c r="E30">
         <v>462</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="43">
         <v>1.46</v>
       </c>
       <c r="G30" s="1">
@@ -2197,11 +2187,11 @@
         <v>3.42</v>
       </c>
       <c r="I30" s="1"/>
-      <c r="J30" s="3">
+      <c r="J30" s="2">
         <f t="shared" si="3"/>
         <v>4.29</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K30" s="2">
         <f t="shared" si="2"/>
         <v>325.78000000000003</v>
       </c>
@@ -2210,23 +2200,23 @@
         <v>462-#18273145</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="39">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="38">
         <v>44591</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="8">
         <v>135</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="8">
         <v>48</v>
       </c>
-      <c r="D31" s="42">
+      <c r="D31" s="41">
         <v>18280347</v>
       </c>
       <c r="E31">
         <v>463</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="43">
         <v>11.71</v>
       </c>
       <c r="G31" s="1">
@@ -2236,11 +2226,11 @@
         <v>3.37</v>
       </c>
       <c r="I31" s="1"/>
-      <c r="J31" s="3">
+      <c r="J31" s="2">
         <f t="shared" si="3"/>
         <v>15.099999999999998</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K31" s="3">
         <f t="shared" si="2"/>
         <v>340.88000000000005</v>
       </c>
@@ -2249,23 +2239,23 @@
         <v>463-#18280347</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="39">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="38">
         <v>44592</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="8">
         <v>34</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="8">
         <v>18</v>
       </c>
-      <c r="D32" s="42">
+      <c r="D32" s="41">
         <v>18309703</v>
       </c>
       <c r="E32">
         <v>464</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="44">
         <v>8.0399999999999991</v>
       </c>
       <c r="G32" s="1">
@@ -2275,11 +2265,11 @@
         <v>3.339</v>
       </c>
       <c r="I32" s="1"/>
-      <c r="J32" s="3">
+      <c r="J32" s="2">
         <f>G32-H32</f>
         <v>11.270999999999999</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="2">
         <f>J32</f>
         <v>11.270999999999999</v>
       </c>
@@ -2288,23 +2278,23 @@
         <v>464-#18309703</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="39">
+    <row r="33" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="38">
         <v>44592</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="8">
         <v>38</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="8">
         <v>22</v>
       </c>
-      <c r="D33" s="42">
+      <c r="D33" s="41">
         <v>18329685</v>
       </c>
       <c r="E33">
         <v>465</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="43">
         <v>2.4700000000000002</v>
       </c>
       <c r="G33" s="1">
@@ -2314,11 +2304,11 @@
         <v>3.39</v>
       </c>
       <c r="I33" s="1"/>
-      <c r="J33" s="3">
+      <c r="J33" s="2">
         <f>G33-H33</f>
         <v>5.379999999999999</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="2">
         <f t="shared" ref="K33:K38" si="4">K32+J33</f>
         <v>16.650999999999996</v>
       </c>
@@ -2327,23 +2317,23 @@
         <v>465-#18329685</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="39">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="38">
         <v>44592</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="8">
         <v>84</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="8">
         <v>15</v>
       </c>
-      <c r="D34" s="42">
+      <c r="D34" s="41">
         <v>18331644</v>
       </c>
       <c r="E34">
         <v>466</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="43">
         <v>19.66</v>
       </c>
       <c r="G34" s="1">
@@ -2353,11 +2343,11 @@
         <v>3.79</v>
       </c>
       <c r="I34" s="1"/>
-      <c r="J34" s="3">
+      <c r="J34" s="2">
         <f>G34-H34</f>
         <v>23.03</v>
       </c>
-      <c r="K34" s="3">
+      <c r="K34" s="2">
         <f t="shared" si="4"/>
         <v>39.680999999999997</v>
       </c>
@@ -2366,23 +2356,23 @@
         <v>466-#18331644</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="39">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="38">
         <v>44598</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35" s="8">
         <v>1</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="8">
         <v>1</v>
       </c>
-      <c r="D35" s="42">
+      <c r="D35" s="41">
         <v>18347023</v>
       </c>
       <c r="E35">
         <v>467</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="43">
         <v>7.29</v>
       </c>
       <c r="G35" s="1">
@@ -2392,11 +2382,11 @@
         <v>3.3370000000000002</v>
       </c>
       <c r="I35" s="1"/>
-      <c r="J35" s="3">
+      <c r="J35" s="2">
         <f t="shared" ref="J35:J39" si="6">G35-H35</f>
         <v>10.493</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="2">
         <f t="shared" si="4"/>
         <v>50.173999999999999</v>
       </c>
@@ -2405,23 +2395,23 @@
         <v>467-#18347023</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="40">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="39">
         <v>44598</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36" s="8">
         <v>9</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="8">
         <v>6</v>
       </c>
-      <c r="D36" s="42">
+      <c r="D36" s="41">
         <v>18351494</v>
       </c>
       <c r="E36">
         <v>468</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="43">
         <v>13.04</v>
       </c>
       <c r="G36" s="1">
@@ -2431,11 +2421,11 @@
         <v>3.37</v>
       </c>
       <c r="I36" s="1"/>
-      <c r="J36" s="3">
+      <c r="J36" s="2">
         <f t="shared" si="6"/>
         <v>16.489999999999998</v>
       </c>
-      <c r="K36" s="3">
+      <c r="K36" s="2">
         <f t="shared" si="4"/>
         <v>66.664000000000001</v>
       </c>
@@ -2444,23 +2434,23 @@
         <v>468-#18351494</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="39">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="38">
         <v>44598</v>
       </c>
-      <c r="B37" s="9">
+      <c r="B37" s="8">
         <v>64</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="8">
         <v>21</v>
       </c>
-      <c r="D37" s="42">
+      <c r="D37" s="41">
         <v>18351537</v>
       </c>
       <c r="E37">
         <v>469</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="43">
         <v>9.66</v>
       </c>
       <c r="G37" s="1">
@@ -2470,11 +2460,11 @@
         <v>3.86</v>
       </c>
       <c r="I37" s="1"/>
-      <c r="J37" s="3">
+      <c r="J37" s="2">
         <f t="shared" si="6"/>
         <v>12.46</v>
       </c>
-      <c r="K37" s="3">
+      <c r="K37" s="2">
         <f t="shared" si="4"/>
         <v>79.123999999999995</v>
       </c>
@@ -2483,23 +2473,23 @@
         <v>469-#18351537</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="39">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="38">
         <v>44600</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B38" s="8">
         <v>18</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="8">
         <v>11</v>
       </c>
-      <c r="D38" s="42">
+      <c r="D38" s="41">
         <v>18364479</v>
       </c>
       <c r="E38">
         <v>470</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="43">
         <v>2.71</v>
       </c>
       <c r="G38" s="1">
@@ -2509,11 +2499,11 @@
         <v>3.37</v>
       </c>
       <c r="I38" s="1"/>
-      <c r="J38" s="3">
+      <c r="J38" s="2">
         <f t="shared" si="6"/>
         <v>5.6499999999999995</v>
       </c>
-      <c r="K38" s="3">
+      <c r="K38" s="2">
         <f t="shared" si="4"/>
         <v>84.774000000000001</v>
       </c>
@@ -2522,23 +2512,23 @@
         <v>470-#18364479</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="39">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="38">
         <v>44600</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B39" s="8">
         <v>163</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="8">
         <v>63</v>
       </c>
-      <c r="D39" s="42">
+      <c r="D39" s="41">
         <v>18379839</v>
       </c>
       <c r="E39">
         <v>472</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39" s="43">
         <v>33.409999999999997</v>
       </c>
       <c r="G39" s="1">
@@ -2548,11 +2538,11 @@
         <v>7.95</v>
       </c>
       <c r="I39" s="1"/>
-      <c r="J39" s="3">
+      <c r="J39" s="2">
         <f t="shared" si="6"/>
         <v>43.87</v>
       </c>
-      <c r="K39" s="3">
+      <c r="K39" s="2">
         <f t="shared" ref="K39:K45" si="7">K38+J39</f>
         <v>128.64400000000001</v>
       </c>
@@ -2561,23 +2551,23 @@
         <v>472-#18379839</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="39">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="38">
         <v>44601</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40" s="8">
         <v>37</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="8">
         <v>25</v>
       </c>
-      <c r="D40" s="42">
+      <c r="D40" s="41">
         <v>18387664</v>
       </c>
       <c r="E40">
         <v>473</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="43">
         <v>15.42</v>
       </c>
       <c r="G40" s="1">
@@ -2587,11 +2577,11 @@
         <v>3.48</v>
       </c>
       <c r="I40" s="1"/>
-      <c r="J40" s="3">
+      <c r="J40" s="2">
         <f>G40-H40</f>
         <v>18.88</v>
       </c>
-      <c r="K40" s="3">
+      <c r="K40" s="2">
         <f t="shared" si="7"/>
         <v>147.524</v>
       </c>
@@ -2600,23 +2590,23 @@
         <v>473-#18387664</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="39">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" s="38">
         <v>44602</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B41" s="8">
         <v>141</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="8">
         <v>23</v>
       </c>
-      <c r="D41" s="42">
+      <c r="D41" s="41">
         <v>18403827</v>
       </c>
       <c r="E41">
         <v>474</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="43">
         <v>12.79</v>
       </c>
       <c r="G41" s="1">
@@ -2626,11 +2616,11 @@
         <v>3.88</v>
       </c>
       <c r="I41" s="1"/>
-      <c r="J41" s="3">
+      <c r="J41" s="2">
         <f>G41-H41</f>
         <v>15.720000000000002</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="2">
         <f t="shared" si="7"/>
         <v>163.244</v>
       </c>
@@ -2639,23 +2629,23 @@
         <v>474-#18403827</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="39">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" s="38">
         <v>44604</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B42" s="8">
         <v>2</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="8">
         <v>2</v>
       </c>
-      <c r="D42" s="42">
+      <c r="D42" s="41">
         <v>18409405</v>
       </c>
       <c r="E42">
         <v>475</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="43">
         <v>10.01</v>
       </c>
       <c r="G42" s="1">
@@ -2665,11 +2655,11 @@
         <v>3.37</v>
       </c>
       <c r="I42" s="1"/>
-      <c r="J42" s="3">
+      <c r="J42" s="2">
         <f>G42-H42</f>
         <v>13.309999999999999</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="2">
         <f t="shared" si="7"/>
         <v>176.554</v>
       </c>
@@ -2678,23 +2668,23 @@
         <v>475-#18409405</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="39">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="38">
         <v>44604</v>
       </c>
-      <c r="B43" s="9">
+      <c r="B43" s="8">
         <v>28</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="8">
         <v>10</v>
       </c>
-      <c r="D43" s="42">
+      <c r="D43" s="41">
         <v>18417911</v>
       </c>
       <c r="E43">
         <v>476</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43" s="43">
         <v>2.8</v>
       </c>
       <c r="G43" s="1">
@@ -2704,11 +2694,11 @@
         <v>3.72</v>
       </c>
       <c r="I43" s="1"/>
-      <c r="J43" s="3">
+      <c r="J43" s="2">
         <f t="shared" ref="J43:J58" si="8">G43-H43</f>
         <v>5.3899999999999988</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K43" s="2">
         <f t="shared" si="7"/>
         <v>181.94399999999999</v>
       </c>
@@ -2717,23 +2707,23 @@
         <v>476-#18417911</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="39">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" s="38">
         <v>44605</v>
       </c>
-      <c r="B44" s="9">
+      <c r="B44" s="8">
         <v>2</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44" s="8">
         <v>1</v>
       </c>
-      <c r="D44" s="42">
+      <c r="D44" s="41">
         <v>18426228</v>
       </c>
       <c r="E44">
         <v>477</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44" s="43">
         <v>1.58</v>
       </c>
       <c r="G44" s="1">
@@ -2743,11 +2733,11 @@
         <v>3.37</v>
       </c>
       <c r="I44" s="1"/>
-      <c r="J44" s="3">
+      <c r="J44" s="2">
         <f t="shared" si="8"/>
         <v>4.46</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="2">
         <f t="shared" si="7"/>
         <v>186.404</v>
       </c>
@@ -2756,23 +2746,23 @@
         <v>477-#18426228</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="39">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" s="38">
         <v>44606</v>
       </c>
-      <c r="B45" s="9">
+      <c r="B45" s="8">
         <v>38</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45" s="8">
         <v>11</v>
       </c>
-      <c r="D45" s="42">
+      <c r="D45" s="41">
         <v>18429496</v>
       </c>
       <c r="E45">
         <v>478</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45" s="43">
         <v>5.28</v>
       </c>
       <c r="G45" s="1">
@@ -2782,11 +2772,11 @@
         <v>3.86</v>
       </c>
       <c r="I45" s="1"/>
-      <c r="J45" s="3">
+      <c r="J45" s="2">
         <f t="shared" si="8"/>
         <v>7.8600000000000012</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="2">
         <f t="shared" si="7"/>
         <v>194.26400000000001</v>
       </c>
@@ -2795,23 +2785,23 @@
         <v>478-#18429496</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="39">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" s="38">
         <v>44607</v>
       </c>
-      <c r="B46" s="9">
+      <c r="B46" s="8">
         <v>42</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="8">
         <v>17</v>
       </c>
-      <c r="D46" s="42">
+      <c r="D46" s="41">
         <v>18430213</v>
       </c>
       <c r="E46">
         <v>479</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46" s="43">
         <v>7.64</v>
       </c>
       <c r="G46" s="1">
@@ -2821,11 +2811,11 @@
         <v>3.72</v>
       </c>
       <c r="I46" s="1"/>
-      <c r="J46" s="3">
+      <c r="J46" s="2">
         <f t="shared" si="8"/>
         <v>10.469999999999999</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46" s="2">
         <f t="shared" ref="K46:K51" si="9">K45+J46</f>
         <v>204.73400000000001</v>
       </c>
@@ -2834,23 +2824,23 @@
         <v>479-#18430213</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="39">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" s="38">
         <v>44607</v>
       </c>
-      <c r="B47" s="9">
+      <c r="B47" s="8">
         <v>38</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="8">
         <v>28</v>
       </c>
-      <c r="D47" s="42">
+      <c r="D47" s="41">
         <v>18436637</v>
       </c>
       <c r="E47">
         <v>480</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47" s="43">
         <v>15.43</v>
       </c>
       <c r="G47" s="1">
@@ -2860,11 +2850,11 @@
         <v>14.11</v>
       </c>
       <c r="I47" s="1"/>
-      <c r="J47" s="3">
+      <c r="J47" s="2">
         <f t="shared" si="8"/>
         <v>12.8</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47" s="2">
         <f t="shared" si="9"/>
         <v>217.53400000000002</v>
       </c>
@@ -2873,23 +2863,23 @@
         <v>480-#18436637</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="39">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" s="38">
         <v>44607</v>
       </c>
-      <c r="B48" s="9">
+      <c r="B48" s="8">
         <v>13</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48" s="8">
         <v>6</v>
       </c>
-      <c r="D48" s="42">
+      <c r="D48" s="41">
         <v>18439282</v>
       </c>
       <c r="E48">
         <v>481</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48" s="43">
         <v>1.51</v>
       </c>
       <c r="G48" s="1">
@@ -2899,11 +2889,11 @@
         <v>3.58</v>
       </c>
       <c r="I48" s="1"/>
-      <c r="J48" s="3">
+      <c r="J48" s="2">
         <f t="shared" si="8"/>
         <v>4.18</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="2">
         <f t="shared" si="9"/>
         <v>221.71400000000003</v>
       </c>
@@ -2912,23 +2902,23 @@
         <v>481-#18439282</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="39">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" s="38">
         <v>44608</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B49" s="8">
         <v>8</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49" s="8">
         <v>3</v>
       </c>
-      <c r="D49" s="42">
+      <c r="D49" s="41">
         <v>18455216</v>
       </c>
       <c r="E49">
         <v>482</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49" s="43">
         <v>3.42</v>
       </c>
       <c r="G49" s="1">
@@ -2938,11 +2928,11 @@
         <v>3.39</v>
       </c>
       <c r="I49" s="1"/>
-      <c r="J49" s="3">
+      <c r="J49" s="2">
         <f t="shared" si="8"/>
         <v>6.3699999999999992</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49" s="2">
         <f t="shared" si="9"/>
         <v>228.08400000000003</v>
       </c>
@@ -2951,23 +2941,23 @@
         <v>482-#18455216</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="39">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" s="38">
         <v>44609</v>
       </c>
-      <c r="B50" s="9">
+      <c r="B50" s="8">
         <v>4</v>
       </c>
-      <c r="C50" s="9">
+      <c r="C50" s="8">
         <v>3</v>
       </c>
-      <c r="D50" s="42">
+      <c r="D50" s="41">
         <v>18456305</v>
       </c>
       <c r="E50">
         <v>483</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50" s="43">
         <v>1.02</v>
       </c>
       <c r="G50" s="1">
@@ -2977,11 +2967,11 @@
         <v>3.86</v>
       </c>
       <c r="I50" s="1"/>
-      <c r="J50" s="3">
+      <c r="J50" s="2">
         <f t="shared" si="8"/>
         <v>3.3800000000000003</v>
       </c>
-      <c r="K50" s="3">
+      <c r="K50" s="2">
         <f t="shared" si="9"/>
         <v>231.46400000000003</v>
       </c>
@@ -2990,23 +2980,23 @@
         <v>483-#18456305</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="39">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" s="38">
         <v>44610</v>
       </c>
-      <c r="B51" s="9">
+      <c r="B51" s="8">
         <v>42</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C51" s="8">
         <v>25</v>
       </c>
-      <c r="D51" s="42">
+      <c r="D51" s="41">
         <v>18504211</v>
       </c>
       <c r="E51">
         <v>485</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51" s="43">
         <v>14.04</v>
       </c>
       <c r="G51" s="1">
@@ -3016,11 +3006,11 @@
         <v>3.39</v>
       </c>
       <c r="I51" s="1"/>
-      <c r="J51" s="3">
+      <c r="J51" s="2">
         <f t="shared" si="8"/>
         <v>17.52</v>
       </c>
-      <c r="K51" s="3">
+      <c r="K51" s="2">
         <f t="shared" si="9"/>
         <v>248.98400000000004</v>
       </c>
@@ -3029,23 +3019,23 @@
         <v>485-#18504211</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="39">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" s="38">
         <v>44614</v>
       </c>
-      <c r="B52" s="9">
+      <c r="B52" s="8">
         <v>19</v>
       </c>
-      <c r="C52" s="9">
+      <c r="C52" s="8">
         <v>10</v>
       </c>
-      <c r="D52" s="42">
+      <c r="D52" s="41">
         <v>18510814</v>
       </c>
       <c r="E52">
         <v>486</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F52" s="43">
         <v>2.39</v>
       </c>
       <c r="G52" s="1">
@@ -3055,11 +3045,11 @@
         <v>3.42</v>
       </c>
       <c r="I52" s="1"/>
-      <c r="J52" s="3">
+      <c r="J52" s="2">
         <f t="shared" si="8"/>
         <v>5.26</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="2">
         <f t="shared" ref="K52:K58" si="10">K51+J52</f>
         <v>254.24400000000003</v>
       </c>
@@ -3068,23 +3058,23 @@
         <v>486-#18510814</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="39">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" s="38">
         <v>44615</v>
       </c>
-      <c r="B53" s="9">
+      <c r="B53" s="8">
         <v>20</v>
       </c>
-      <c r="C53" s="9">
+      <c r="C53" s="8">
         <v>12</v>
       </c>
-      <c r="D53" s="42">
+      <c r="D53" s="41">
         <v>18516594</v>
       </c>
       <c r="E53">
         <v>487</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F53" s="43">
         <v>2.92</v>
       </c>
       <c r="G53" s="1">
@@ -3094,11 +3084,11 @@
         <v>3.86</v>
       </c>
       <c r="I53" s="1"/>
-      <c r="J53" s="3">
+      <c r="J53" s="2">
         <f t="shared" si="8"/>
         <v>5.3800000000000008</v>
       </c>
-      <c r="K53" s="3">
+      <c r="K53" s="2">
         <f t="shared" si="10"/>
         <v>259.62400000000002</v>
       </c>
@@ -3107,23 +3097,23 @@
         <v>487-#18516594</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="39">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" s="38">
         <v>44616</v>
       </c>
-      <c r="B54" s="9">
+      <c r="B54" s="8">
         <v>26</v>
       </c>
-      <c r="C54" s="9">
+      <c r="C54" s="8">
         <v>10</v>
       </c>
-      <c r="D54" s="42">
+      <c r="D54" s="41">
         <v>18519251</v>
       </c>
       <c r="E54">
         <v>488</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F54" s="43">
         <v>3.16</v>
       </c>
       <c r="G54" s="1">
@@ -3133,11 +3123,11 @@
         <v>3.58</v>
       </c>
       <c r="I54" s="1"/>
-      <c r="J54" s="3">
+      <c r="J54" s="2">
         <f t="shared" si="8"/>
         <v>5.91</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K54" s="2">
         <f t="shared" si="10"/>
         <v>265.53400000000005</v>
       </c>
@@ -3146,23 +3136,23 @@
         <v>488-#18519251</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="39">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55" s="38">
         <v>44617</v>
       </c>
-      <c r="B55" s="9">
+      <c r="B55" s="8">
         <v>33</v>
       </c>
-      <c r="C55" s="9">
+      <c r="C55" s="8">
         <v>20</v>
       </c>
-      <c r="D55" s="42">
+      <c r="D55" s="41">
         <v>18526836</v>
       </c>
       <c r="E55">
         <v>489</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F55" s="43">
         <v>6.49</v>
       </c>
       <c r="G55" s="1">
@@ -3172,11 +3162,11 @@
         <v>3.48</v>
       </c>
       <c r="I55" s="1"/>
-      <c r="J55" s="3">
+      <c r="J55" s="2">
         <f t="shared" si="8"/>
         <v>9.51</v>
       </c>
-      <c r="K55" s="3">
+      <c r="K55" s="2">
         <f t="shared" si="10"/>
         <v>275.04400000000004</v>
       </c>
@@ -3185,23 +3175,23 @@
         <v>489-#18526836</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="39">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" s="38">
         <v>44619</v>
       </c>
-      <c r="B56" s="9">
+      <c r="B56" s="8">
         <v>21</v>
       </c>
-      <c r="C56" s="9">
+      <c r="C56" s="8">
         <v>3</v>
       </c>
-      <c r="D56" s="42">
+      <c r="D56" s="41">
         <v>18545489</v>
       </c>
       <c r="E56">
         <v>490</v>
       </c>
-      <c r="F56" s="1">
+      <c r="F56" s="43">
         <v>3.23</v>
       </c>
       <c r="G56" s="1">
@@ -3211,11 +3201,11 @@
         <v>3.42</v>
       </c>
       <c r="I56" s="1"/>
-      <c r="J56" s="3">
+      <c r="J56" s="2">
         <f t="shared" si="8"/>
         <v>6.1400000000000006</v>
       </c>
-      <c r="K56" s="3">
+      <c r="K56" s="2">
         <f t="shared" si="10"/>
         <v>281.18400000000003</v>
       </c>
@@ -3224,23 +3214,23 @@
         <v>490-#18545489</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="39">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57" s="38">
         <v>44620</v>
       </c>
-      <c r="B57" s="9">
+      <c r="B57" s="8">
         <v>59</v>
       </c>
-      <c r="C57" s="9">
+      <c r="C57" s="8">
         <v>29</v>
       </c>
-      <c r="D57" s="42">
+      <c r="D57" s="41">
         <v>18554242</v>
       </c>
       <c r="E57">
         <v>491</v>
       </c>
-      <c r="F57" s="1">
+      <c r="F57" s="43">
         <v>11.02</v>
       </c>
       <c r="G57" s="1">
@@ -3250,11 +3240,11 @@
         <v>3.86</v>
       </c>
       <c r="I57" s="1"/>
-      <c r="J57" s="3">
+      <c r="J57" s="2">
         <f t="shared" si="8"/>
         <v>13.879999999999999</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="2">
         <f t="shared" si="10"/>
         <v>295.06400000000002</v>
       </c>
@@ -3263,23 +3253,23 @@
         <v>491-#18554242</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="39">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" s="38">
         <v>44620</v>
       </c>
-      <c r="B58" s="9">
+      <c r="B58" s="8">
         <v>53</v>
       </c>
-      <c r="C58" s="9">
+      <c r="C58" s="8">
         <v>18</v>
       </c>
-      <c r="D58" s="42">
+      <c r="D58" s="41">
         <v>18554826</v>
       </c>
       <c r="E58">
         <v>492</v>
       </c>
-      <c r="F58" s="1">
+      <c r="F58" s="43">
         <v>4.8600000000000003</v>
       </c>
       <c r="G58" s="1">
@@ -3289,11 +3279,11 @@
         <v>3.76</v>
       </c>
       <c r="I58" s="1"/>
-      <c r="J58" s="3">
+      <c r="J58" s="2">
         <f t="shared" si="8"/>
         <v>8.3000000000000007</v>
       </c>
-      <c r="K58" s="4">
+      <c r="K58" s="3">
         <f t="shared" si="10"/>
         <v>303.36400000000003</v>
       </c>
@@ -3302,23 +3292,23 @@
         <v>492-#18554826</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="39">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59" s="38">
         <v>44621</v>
       </c>
-      <c r="B59" s="9">
+      <c r="B59" s="8">
         <v>34</v>
       </c>
-      <c r="C59" s="9">
+      <c r="C59" s="8">
         <v>11</v>
       </c>
-      <c r="D59" s="42">
+      <c r="D59" s="41">
         <v>18560446</v>
       </c>
       <c r="E59">
         <v>493</v>
       </c>
-      <c r="F59" s="1">
+      <c r="F59" s="43">
         <v>6.71</v>
       </c>
       <c r="G59" s="1">
@@ -3328,11 +3318,11 @@
         <v>3.42</v>
       </c>
       <c r="I59" s="1"/>
-      <c r="J59" s="3">
+      <c r="J59" s="2">
         <f>G59-H59</f>
         <v>9.8000000000000007</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="2">
         <f>J59</f>
         <v>9.8000000000000007</v>
       </c>
@@ -3341,23 +3331,23 @@
         <v>493-#18560446</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="39">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60" s="38">
         <v>44621</v>
       </c>
-      <c r="B60" s="9">
+      <c r="B60" s="8">
         <v>5</v>
       </c>
-      <c r="C60" s="9">
+      <c r="C60" s="8">
         <v>3</v>
       </c>
-      <c r="D60" s="42">
+      <c r="D60" s="41">
         <v>18562673</v>
       </c>
       <c r="E60">
         <v>494</v>
       </c>
-      <c r="F60" s="1">
+      <c r="F60" s="43">
         <v>2.78</v>
       </c>
       <c r="G60" s="1">
@@ -3367,11 +3357,11 @@
         <v>3.86</v>
       </c>
       <c r="I60" s="1"/>
-      <c r="J60" s="3">
+      <c r="J60" s="2">
         <f>G60-H60</f>
         <v>5.23</v>
       </c>
-      <c r="K60" s="3">
+      <c r="K60" s="2">
         <f t="shared" ref="K60:K66" si="11">K59+J60</f>
         <v>15.030000000000001</v>
       </c>
@@ -3380,23 +3370,23 @@
         <v>494-#18562673</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="39">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61" s="38">
         <v>44622</v>
       </c>
-      <c r="B61" s="9">
+      <c r="B61" s="8">
         <v>8</v>
       </c>
-      <c r="C61" s="9">
+      <c r="C61" s="8">
         <v>5</v>
       </c>
-      <c r="D61" s="42">
+      <c r="D61" s="41">
         <v>18568031</v>
       </c>
       <c r="E61">
         <v>495</v>
       </c>
-      <c r="F61" s="1">
+      <c r="F61" s="43">
         <v>4.22</v>
       </c>
       <c r="G61" s="1">
@@ -3406,11 +3396,11 @@
         <v>3.86</v>
       </c>
       <c r="I61" s="1"/>
-      <c r="J61" s="3">
+      <c r="J61" s="2">
         <f>G61-H61</f>
         <v>6.74</v>
       </c>
-      <c r="K61" s="3">
+      <c r="K61" s="2">
         <f t="shared" si="11"/>
         <v>21.770000000000003</v>
       </c>
@@ -3419,23 +3409,23 @@
         <v>495-#18568031</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="39">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62" s="38">
         <v>44622</v>
       </c>
-      <c r="B62" s="9">
+      <c r="B62" s="8">
         <v>1</v>
       </c>
-      <c r="C62" s="9">
+      <c r="C62" s="8">
         <v>1</v>
       </c>
-      <c r="D62" s="42">
+      <c r="D62" s="41">
         <v>18574456</v>
       </c>
       <c r="E62">
         <v>496</v>
       </c>
-      <c r="F62" s="1">
+      <c r="F62" s="43">
         <v>0.74</v>
       </c>
       <c r="G62" s="1">
@@ -3445,11 +3435,11 @@
         <v>3.48</v>
       </c>
       <c r="I62" s="1"/>
-      <c r="J62" s="3">
+      <c r="J62" s="2">
         <f>G62-H62</f>
         <v>3.47</v>
       </c>
-      <c r="K62" s="3">
+      <c r="K62" s="2">
         <f t="shared" si="11"/>
         <v>25.240000000000002</v>
       </c>
@@ -3458,23 +3448,23 @@
         <v>496-#18574456</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="39">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63" s="38">
         <v>44623</v>
       </c>
-      <c r="B63" s="9">
+      <c r="B63" s="8">
         <v>6</v>
       </c>
-      <c r="C63" s="9">
+      <c r="C63" s="8">
         <v>5</v>
       </c>
-      <c r="D63" s="42">
+      <c r="D63" s="41">
         <v>18578399</v>
       </c>
       <c r="E63">
         <v>497</v>
       </c>
-      <c r="F63" s="1">
+      <c r="F63" s="43">
         <v>4.59</v>
       </c>
       <c r="G63" s="1">
@@ -3484,11 +3474,11 @@
         <v>3.58</v>
       </c>
       <c r="I63" s="1"/>
-      <c r="J63" s="3">
+      <c r="J63" s="2">
         <f>G63-H63</f>
         <v>7.41</v>
       </c>
-      <c r="K63" s="3">
+      <c r="K63" s="2">
         <f t="shared" si="11"/>
         <v>32.650000000000006</v>
       </c>
@@ -3497,23 +3487,23 @@
         <v>497-#18578399</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="39">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64" s="38">
         <v>44624</v>
       </c>
-      <c r="B64" s="9">
+      <c r="B64" s="8">
         <v>20</v>
       </c>
-      <c r="C64" s="9">
+      <c r="C64" s="8">
         <v>8</v>
       </c>
-      <c r="D64" s="42">
+      <c r="D64" s="41">
         <v>18590763</v>
       </c>
       <c r="E64" t="s">
         <v>84</v>
       </c>
-      <c r="F64" s="1">
+      <c r="F64" s="43">
         <v>1.99</v>
       </c>
       <c r="G64" s="1">
@@ -3523,11 +3513,11 @@
         <v>3.48</v>
       </c>
       <c r="I64" s="1"/>
-      <c r="J64" s="3">
+      <c r="J64" s="2">
         <f t="shared" ref="J64:J81" si="12">G64-H64</f>
         <v>4.7799999999999994</v>
       </c>
-      <c r="K64" s="3">
+      <c r="K64" s="2">
         <f t="shared" si="11"/>
         <v>37.430000000000007</v>
       </c>
@@ -3536,23 +3526,23 @@
         <v>na-#18590763</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="39">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65" s="38">
         <v>44628</v>
       </c>
-      <c r="B65" s="9">
+      <c r="B65" s="8">
         <v>4</v>
       </c>
-      <c r="C65" s="9">
+      <c r="C65" s="8">
         <v>3</v>
       </c>
-      <c r="D65" s="42">
+      <c r="D65" s="41">
         <v>18622126</v>
       </c>
       <c r="E65">
         <v>498</v>
       </c>
-      <c r="F65" s="1">
+      <c r="F65" s="43">
         <v>11.2</v>
       </c>
       <c r="G65" s="1">
@@ -3562,11 +3552,11 @@
         <v>3.48</v>
       </c>
       <c r="I65" s="1"/>
-      <c r="J65" s="3">
+      <c r="J65" s="2">
         <f t="shared" si="12"/>
         <v>14.45</v>
       </c>
-      <c r="K65" s="3">
+      <c r="K65" s="2">
         <f t="shared" si="11"/>
         <v>51.88000000000001</v>
       </c>
@@ -3575,23 +3565,23 @@
         <v>498-#18622126</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="39">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A66" s="38">
         <v>44630</v>
       </c>
-      <c r="B66" s="9">
+      <c r="B66" s="8">
         <v>132</v>
       </c>
-      <c r="C66" s="9">
+      <c r="C66" s="8">
         <v>37</v>
       </c>
-      <c r="D66" s="42">
+      <c r="D66" s="41">
         <v>18641182</v>
       </c>
       <c r="E66">
         <v>499</v>
       </c>
-      <c r="F66" s="1">
+      <c r="F66" s="43">
         <v>1.7</v>
       </c>
       <c r="G66" s="1">
@@ -3601,11 +3591,11 @@
         <v>3.99</v>
       </c>
       <c r="I66" s="1"/>
-      <c r="J66" s="3">
+      <c r="J66" s="2">
         <f t="shared" si="12"/>
         <v>14.47</v>
       </c>
-      <c r="K66" s="3">
+      <c r="K66" s="2">
         <f t="shared" si="11"/>
         <v>66.350000000000009</v>
       </c>
@@ -3614,23 +3604,23 @@
         <v>499-#18641182</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="39">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A67" s="38">
         <v>44633</v>
       </c>
-      <c r="B67" s="9">
+      <c r="B67" s="8">
         <v>20</v>
       </c>
-      <c r="C67" s="9">
+      <c r="C67" s="8">
         <v>5</v>
       </c>
-      <c r="D67" s="42">
+      <c r="D67" s="41">
         <v>18659888</v>
       </c>
       <c r="E67">
         <v>500</v>
       </c>
-      <c r="F67" s="1">
+      <c r="F67" s="43">
         <v>7.14</v>
       </c>
       <c r="G67" s="1">
@@ -3640,11 +3630,11 @@
         <v>3.48</v>
       </c>
       <c r="I67" s="1"/>
-      <c r="J67" s="3">
+      <c r="J67" s="2">
         <f t="shared" si="12"/>
         <v>10.19</v>
       </c>
-      <c r="K67" s="3">
+      <c r="K67" s="2">
         <f t="shared" ref="K67:K81" si="14">K66+J67</f>
         <v>76.540000000000006</v>
       </c>
@@ -3653,23 +3643,23 @@
         <v>500-#18659888</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="39">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A68" s="38">
         <v>44633</v>
       </c>
-      <c r="B68" s="9">
+      <c r="B68" s="8">
         <v>2</v>
       </c>
-      <c r="C68" s="9">
+      <c r="C68" s="8">
         <v>2</v>
       </c>
-      <c r="D68" s="42">
+      <c r="D68" s="41">
         <v>18665074</v>
       </c>
       <c r="E68">
         <v>501</v>
       </c>
-      <c r="F68" s="1">
+      <c r="F68" s="43">
         <v>2.1</v>
       </c>
       <c r="G68" s="1">
@@ -3679,11 +3669,11 @@
         <v>3.37</v>
       </c>
       <c r="I68" s="1"/>
-      <c r="J68" s="3">
+      <c r="J68" s="2">
         <f t="shared" si="12"/>
         <v>5.0100000000000007</v>
       </c>
-      <c r="K68" s="3">
+      <c r="K68" s="2">
         <f t="shared" si="14"/>
         <v>81.550000000000011</v>
       </c>
@@ -3692,23 +3682,23 @@
         <v>501-#18665074</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="39">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A69" s="38">
         <v>44634</v>
       </c>
-      <c r="B69" s="9">
+      <c r="B69" s="8">
         <v>476</v>
       </c>
-      <c r="C69" s="9">
+      <c r="C69" s="8">
         <v>80</v>
       </c>
-      <c r="D69" s="42">
+      <c r="D69" s="41">
         <v>18674847</v>
       </c>
       <c r="E69">
         <v>502</v>
       </c>
-      <c r="F69" s="1">
+      <c r="F69" s="43">
         <v>36.69</v>
       </c>
       <c r="G69" s="1">
@@ -3718,11 +3708,11 @@
         <v>4.42</v>
       </c>
       <c r="I69" s="1"/>
-      <c r="J69" s="3">
+      <c r="J69" s="2">
         <f t="shared" si="12"/>
         <v>41.85</v>
       </c>
-      <c r="K69" s="3">
+      <c r="K69" s="2">
         <f t="shared" si="14"/>
         <v>123.4</v>
       </c>
@@ -3731,23 +3721,23 @@
         <v>502-#18674847</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="39">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A70" s="38">
         <v>44634</v>
       </c>
-      <c r="B70" s="9">
+      <c r="B70" s="8">
         <v>1</v>
       </c>
-      <c r="C70" s="9">
+      <c r="C70" s="8">
         <v>1</v>
       </c>
-      <c r="D70" s="42">
+      <c r="D70" s="41">
         <v>18674950</v>
       </c>
       <c r="E70">
         <v>503</v>
       </c>
-      <c r="F70" s="1">
+      <c r="F70" s="43">
         <v>1.17</v>
       </c>
       <c r="G70" s="1">
@@ -3757,11 +3747,11 @@
         <v>3.48</v>
       </c>
       <c r="I70" s="1"/>
-      <c r="J70" s="3">
+      <c r="J70" s="2">
         <f t="shared" si="12"/>
         <v>3.9200000000000004</v>
       </c>
-      <c r="K70" s="3">
+      <c r="K70" s="2">
         <f t="shared" si="14"/>
         <v>127.32000000000001</v>
       </c>
@@ -3770,23 +3760,23 @@
         <v>503-#18674950</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="39">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A71" s="38">
         <v>44636</v>
       </c>
-      <c r="B71" s="9">
+      <c r="B71" s="8">
         <v>63</v>
       </c>
-      <c r="C71" s="9">
+      <c r="C71" s="8">
         <v>20</v>
       </c>
-      <c r="D71" s="42">
+      <c r="D71" s="41">
         <v>18686902</v>
       </c>
       <c r="E71">
         <v>504</v>
       </c>
-      <c r="F71" s="1">
+      <c r="F71" s="43">
         <v>12.09</v>
       </c>
       <c r="G71" s="1">
@@ -3796,11 +3786,11 @@
         <v>3.81</v>
       </c>
       <c r="I71" s="1"/>
-      <c r="J71" s="3">
+      <c r="J71" s="2">
         <f t="shared" si="12"/>
         <v>15.06</v>
       </c>
-      <c r="K71" s="3">
+      <c r="K71" s="2">
         <f t="shared" si="14"/>
         <v>142.38</v>
       </c>
@@ -3809,23 +3799,23 @@
         <v>504-#18686902</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="39">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A72" s="38">
         <v>44638</v>
       </c>
-      <c r="B72" s="9">
+      <c r="B72" s="8">
         <v>7</v>
       </c>
-      <c r="C72" s="9">
+      <c r="C72" s="8">
         <v>3</v>
       </c>
-      <c r="D72" s="42">
+      <c r="D72" s="41">
         <v>18704298</v>
       </c>
       <c r="E72">
         <v>505</v>
       </c>
-      <c r="F72" s="1">
+      <c r="F72" s="43">
         <v>10.66</v>
       </c>
       <c r="G72" s="1">
@@ -3835,11 +3825,11 @@
         <v>3.42</v>
       </c>
       <c r="I72" s="1"/>
-      <c r="J72" s="3">
+      <c r="J72" s="2">
         <f t="shared" si="12"/>
         <v>16.049999999999997</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="2">
         <f t="shared" si="14"/>
         <v>158.43</v>
       </c>
@@ -3848,23 +3838,23 @@
         <v>505-#18704298</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="39">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A73" s="38">
         <v>44638</v>
       </c>
-      <c r="B73" s="9">
+      <c r="B73" s="8">
         <v>20</v>
       </c>
-      <c r="C73" s="9">
+      <c r="C73" s="8">
         <v>14</v>
       </c>
-      <c r="D73" s="42">
+      <c r="D73" s="41">
         <v>18706736</v>
       </c>
       <c r="E73">
         <v>506</v>
       </c>
-      <c r="F73" s="1">
+      <c r="F73" s="43">
         <v>7.89</v>
       </c>
       <c r="G73" s="1">
@@ -3874,11 +3864,11 @@
         <v>3.37</v>
       </c>
       <c r="I73" s="1"/>
-      <c r="J73" s="3">
+      <c r="J73" s="2">
         <f t="shared" si="12"/>
         <v>15.5</v>
       </c>
-      <c r="K73" s="3">
+      <c r="K73" s="2">
         <f t="shared" si="14"/>
         <v>173.93</v>
       </c>
@@ -3887,23 +3877,23 @@
         <v>506-#18706736</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="39">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A74" s="38">
         <v>44645</v>
       </c>
-      <c r="B74" s="9">
+      <c r="B74" s="8">
         <v>3</v>
       </c>
-      <c r="C74" s="9">
+      <c r="C74" s="8">
         <v>3</v>
       </c>
-      <c r="D74" s="42">
+      <c r="D74" s="41">
         <v>18755556</v>
       </c>
       <c r="E74">
         <v>507</v>
       </c>
-      <c r="F74" s="1">
+      <c r="F74" s="43">
         <v>1.45</v>
       </c>
       <c r="G74" s="1">
@@ -3913,11 +3903,11 @@
         <v>3.86</v>
       </c>
       <c r="I74" s="1"/>
-      <c r="J74" s="3">
+      <c r="J74" s="2">
         <f t="shared" si="12"/>
         <v>3.8400000000000003</v>
       </c>
-      <c r="K74" s="3">
+      <c r="K74" s="2">
         <f t="shared" si="14"/>
         <v>177.77</v>
       </c>
@@ -3926,23 +3916,23 @@
         <v>507-#18755556</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="39">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A75" s="38">
         <v>44645</v>
       </c>
-      <c r="B75" s="9">
+      <c r="B75" s="8">
         <v>7</v>
       </c>
-      <c r="C75" s="9">
+      <c r="C75" s="8">
         <v>5</v>
       </c>
-      <c r="D75" s="42">
+      <c r="D75" s="41">
         <v>18761158</v>
       </c>
       <c r="E75">
         <v>508</v>
       </c>
-      <c r="F75" s="1">
+      <c r="F75" s="43">
         <v>3.08</v>
       </c>
       <c r="G75" s="1">
@@ -3952,11 +3942,11 @@
         <v>3.42</v>
       </c>
       <c r="I75" s="1"/>
-      <c r="J75" s="3">
+      <c r="J75" s="2">
         <f t="shared" si="12"/>
         <v>5.99</v>
       </c>
-      <c r="K75" s="3">
+      <c r="K75" s="2">
         <f t="shared" si="14"/>
         <v>183.76000000000002</v>
       </c>
@@ -3965,23 +3955,23 @@
         <v>508-#18761158</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="39">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A76" s="38">
         <v>44648</v>
       </c>
-      <c r="B76" s="9">
+      <c r="B76" s="8">
         <v>1</v>
       </c>
-      <c r="C76" s="9">
+      <c r="C76" s="8">
         <v>1</v>
       </c>
-      <c r="D76" s="42">
+      <c r="D76" s="41">
         <v>18783152</v>
       </c>
       <c r="E76">
         <v>509</v>
       </c>
-      <c r="F76" s="1">
+      <c r="F76" s="43">
         <v>0.63</v>
       </c>
       <c r="G76" s="1">
@@ -3991,11 +3981,11 @@
         <v>3.42</v>
       </c>
       <c r="I76" s="1"/>
-      <c r="J76" s="3">
+      <c r="J76" s="2">
         <f t="shared" si="12"/>
         <v>3.41</v>
       </c>
-      <c r="K76" s="3">
+      <c r="K76" s="2">
         <f t="shared" si="14"/>
         <v>187.17000000000002</v>
       </c>
@@ -4004,23 +3994,23 @@
         <v>509-#18783152</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="39">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A77" s="38">
         <v>44649</v>
       </c>
-      <c r="B77" s="9">
+      <c r="B77" s="8">
         <v>15</v>
       </c>
-      <c r="C77" s="9">
+      <c r="C77" s="8">
         <v>8</v>
       </c>
-      <c r="D77" s="42">
+      <c r="D77" s="41">
         <v>18786581</v>
       </c>
       <c r="E77">
         <v>510</v>
       </c>
-      <c r="F77" s="1">
+      <c r="F77" s="43">
         <v>4.5999999999999996</v>
       </c>
       <c r="G77" s="1">
@@ -4030,11 +4020,11 @@
         <v>3.37</v>
       </c>
       <c r="I77" s="1"/>
-      <c r="J77" s="3">
+      <c r="J77" s="2">
         <f t="shared" si="12"/>
         <v>7.63</v>
       </c>
-      <c r="K77" s="3">
+      <c r="K77" s="2">
         <f t="shared" si="14"/>
         <v>194.8</v>
       </c>
@@ -4043,23 +4033,23 @@
         <v>510-#18786581</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="39">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A78" s="38">
         <v>44650</v>
       </c>
-      <c r="B78" s="9">
+      <c r="B78" s="8">
         <v>2</v>
       </c>
-      <c r="C78" s="9">
+      <c r="C78" s="8">
         <v>1</v>
       </c>
-      <c r="D78" s="42">
+      <c r="D78" s="41">
         <v>18794846</v>
       </c>
       <c r="E78">
         <v>511</v>
       </c>
-      <c r="F78" s="1">
+      <c r="F78" s="43">
         <v>0.7</v>
       </c>
       <c r="G78" s="1">
@@ -4069,11 +4059,11 @@
         <v>3.86</v>
       </c>
       <c r="I78" s="1"/>
-      <c r="J78" s="3">
+      <c r="J78" s="2">
         <f t="shared" si="12"/>
         <v>3.0500000000000003</v>
       </c>
-      <c r="K78" s="3">
+      <c r="K78" s="2">
         <f t="shared" si="14"/>
         <v>197.85000000000002</v>
       </c>
@@ -4082,23 +4072,23 @@
         <v>511-#18794846</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="39">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A79" s="38">
         <v>44651</v>
       </c>
-      <c r="B79" s="9">
+      <c r="B79" s="8">
         <v>3</v>
       </c>
-      <c r="C79" s="9">
+      <c r="C79" s="8">
         <v>3</v>
       </c>
-      <c r="D79" s="42">
+      <c r="D79" s="41">
         <v>18801937</v>
       </c>
       <c r="E79">
         <v>512</v>
       </c>
-      <c r="F79" s="1">
+      <c r="F79" s="43">
         <v>2.16</v>
       </c>
       <c r="G79" s="1">
@@ -4108,11 +4098,11 @@
         <v>3.39</v>
       </c>
       <c r="I79" s="1"/>
-      <c r="J79" s="3">
+      <c r="J79" s="2">
         <f t="shared" si="12"/>
         <v>5.0499999999999989</v>
       </c>
-      <c r="K79" s="3">
+      <c r="K79" s="2">
         <f t="shared" si="14"/>
         <v>202.90000000000003</v>
       </c>
@@ -4121,23 +4111,23 @@
         <v>512-#18801937</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="39">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A80" s="38">
         <v>44651</v>
       </c>
-      <c r="B80" s="9">
+      <c r="B80" s="8">
         <v>14</v>
       </c>
-      <c r="C80" s="9">
+      <c r="C80" s="8">
         <v>10</v>
       </c>
-      <c r="D80" s="42">
+      <c r="D80" s="41">
         <v>18803484</v>
       </c>
       <c r="E80">
         <v>513</v>
       </c>
-      <c r="F80" s="1">
+      <c r="F80" s="43">
         <v>0.79</v>
       </c>
       <c r="G80" s="1">
@@ -4147,11 +4137,11 @@
         <v>3.86</v>
       </c>
       <c r="I80" s="1"/>
-      <c r="J80" s="3">
+      <c r="J80" s="2">
         <f t="shared" si="12"/>
         <v>3.14</v>
       </c>
-      <c r="K80" s="3">
+      <c r="K80" s="2">
         <f t="shared" si="14"/>
         <v>206.04000000000002</v>
       </c>
@@ -4160,23 +4150,23 @@
         <v>513-#18803484</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="39">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A81" s="38">
         <v>44651</v>
       </c>
-      <c r="B81" s="9">
+      <c r="B81" s="8">
         <v>7</v>
       </c>
-      <c r="C81" s="9">
+      <c r="C81" s="8">
         <v>5</v>
       </c>
-      <c r="D81" s="42">
+      <c r="D81" s="41">
         <v>18809765</v>
       </c>
       <c r="E81">
         <v>514</v>
       </c>
-      <c r="F81" s="1">
+      <c r="F81" s="43">
         <v>4.51</v>
       </c>
       <c r="G81" s="1">
@@ -4186,11 +4176,11 @@
         <v>3.39</v>
       </c>
       <c r="I81" s="1"/>
-      <c r="J81" s="3">
+      <c r="J81" s="2">
         <f t="shared" si="12"/>
         <v>7.52</v>
       </c>
-      <c r="K81" s="4">
+      <c r="K81" s="3">
         <f t="shared" si="14"/>
         <v>213.56000000000003</v>
       </c>
@@ -4199,23 +4189,23 @@
         <v>514-#18809765</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="41">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A82" s="40">
         <v>44652</v>
       </c>
-      <c r="B82" s="9">
+      <c r="B82" s="8">
         <v>5</v>
       </c>
-      <c r="C82" s="9">
+      <c r="C82" s="8">
         <v>2</v>
       </c>
-      <c r="D82" s="42">
+      <c r="D82" s="41">
         <v>18817270</v>
       </c>
       <c r="E82">
         <v>515</v>
       </c>
-      <c r="F82" s="1">
+      <c r="F82" s="43">
         <v>0.71</v>
       </c>
       <c r="G82" s="1">
@@ -4225,11 +4215,11 @@
         <v>3.86</v>
       </c>
       <c r="I82" s="1"/>
-      <c r="J82" s="3">
+      <c r="J82" s="2">
         <f>G82-H82</f>
         <v>3.06</v>
       </c>
-      <c r="K82" s="3">
+      <c r="K82" s="2">
         <f>J82</f>
         <v>3.06</v>
       </c>
@@ -4238,23 +4228,23 @@
         <v>515-#18817270</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="41">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A83" s="40">
         <v>44652</v>
       </c>
-      <c r="B83" s="9">
+      <c r="B83" s="8">
         <v>48</v>
       </c>
-      <c r="C83" s="9">
+      <c r="C83" s="8">
         <v>21</v>
       </c>
-      <c r="D83" s="42">
+      <c r="D83" s="41">
         <v>18818049</v>
       </c>
       <c r="E83">
         <v>516</v>
       </c>
-      <c r="F83" s="1">
+      <c r="F83" s="43">
         <v>15.43</v>
       </c>
       <c r="G83" s="1">
@@ -4264,11 +4254,11 @@
         <v>3.81</v>
       </c>
       <c r="I83" s="1"/>
-      <c r="J83" s="3">
+      <c r="J83" s="2">
         <f>G83-H83</f>
         <v>19.350000000000001</v>
       </c>
-      <c r="K83" s="3">
+      <c r="K83" s="2">
         <f>K82+J83</f>
         <v>22.41</v>
       </c>
@@ -4277,23 +4267,23 @@
         <v>516-#18818049</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="41">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A84" s="40">
         <v>44652</v>
       </c>
-      <c r="B84" s="9">
+      <c r="B84" s="8">
         <v>13</v>
       </c>
-      <c r="C84" s="9">
+      <c r="C84" s="8">
         <v>4</v>
       </c>
-      <c r="D84" s="42">
+      <c r="D84" s="41">
         <v>18818346</v>
       </c>
       <c r="E84">
         <v>517</v>
       </c>
-      <c r="F84" s="1">
+      <c r="F84" s="43">
         <v>1.94</v>
       </c>
       <c r="G84" s="1">
@@ -4303,11 +4293,11 @@
         <v>3.37</v>
       </c>
       <c r="I84" s="1"/>
-      <c r="J84" s="3">
+      <c r="J84" s="2">
         <f>G84-H84</f>
         <v>4.8400000000000007</v>
       </c>
-      <c r="K84" s="3">
+      <c r="K84" s="2">
         <f>K83+J84</f>
         <v>27.25</v>
       </c>
@@ -4316,23 +4306,23 @@
         <v>517-#18818346</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="41">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A85" s="40">
         <v>44653</v>
       </c>
-      <c r="B85" s="9">
+      <c r="B85" s="8">
         <v>18</v>
       </c>
-      <c r="C85" s="9">
+      <c r="C85" s="8">
         <v>9</v>
       </c>
-      <c r="D85" s="42">
+      <c r="D85" s="41">
         <v>18824071</v>
       </c>
       <c r="E85">
         <v>518</v>
       </c>
-      <c r="F85" s="1">
+      <c r="F85" s="43">
         <v>19.36</v>
       </c>
       <c r="G85" s="1">
@@ -4342,11 +4332,11 @@
         <v>3.86</v>
       </c>
       <c r="I85" s="1"/>
-      <c r="J85" s="3">
+      <c r="J85" s="2">
         <f>G85-H85</f>
         <v>22.02</v>
       </c>
-      <c r="K85" s="3">
+      <c r="K85" s="2">
         <f>K84+J85</f>
         <v>49.269999999999996</v>
       </c>
@@ -4355,23 +4345,23 @@
         <v>518-#18824071</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="41">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A86" s="40">
         <v>44654</v>
       </c>
-      <c r="B86" s="9">
+      <c r="B86" s="8">
         <v>102</v>
       </c>
-      <c r="C86" s="9">
+      <c r="C86" s="8">
         <v>29</v>
       </c>
-      <c r="D86" s="42">
+      <c r="D86" s="41">
         <v>18831625</v>
       </c>
       <c r="E86">
         <v>519</v>
       </c>
-      <c r="F86" s="1">
+      <c r="F86" s="43">
         <v>21.48</v>
       </c>
       <c r="G86" s="1">
@@ -4383,11 +4373,11 @@
       <c r="I86" s="1">
         <v>-0.63</v>
       </c>
-      <c r="J86" s="3">
+      <c r="J86" s="2">
         <f>G86-H86</f>
         <v>26.14</v>
       </c>
-      <c r="K86" s="3">
+      <c r="K86" s="2">
         <f>K85+J86</f>
         <v>75.41</v>
       </c>
@@ -4396,23 +4386,23 @@
         <v>519-#18831625</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="41">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A87" s="40">
         <v>44655</v>
       </c>
-      <c r="B87" s="9">
+      <c r="B87" s="8">
         <v>27</v>
       </c>
-      <c r="C87" s="9">
+      <c r="C87" s="8">
         <v>21</v>
       </c>
-      <c r="D87" s="42">
+      <c r="D87" s="41">
         <v>18843297</v>
       </c>
       <c r="E87">
         <v>520</v>
       </c>
-      <c r="F87" s="1">
+      <c r="F87" s="43">
         <v>3.71</v>
       </c>
       <c r="G87" s="1">
@@ -4422,11 +4412,11 @@
         <v>3.37</v>
       </c>
       <c r="I87" s="1"/>
-      <c r="J87" s="3">
+      <c r="J87" s="2">
         <f t="shared" ref="J87:J110" si="15">G87-H87</f>
         <v>6.7</v>
       </c>
-      <c r="K87" s="3">
+      <c r="K87" s="2">
         <f>K86+J87</f>
         <v>82.11</v>
       </c>
@@ -4435,23 +4425,23 @@
         <v>520-#18843297</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="41">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A88" s="40">
         <v>44655</v>
       </c>
-      <c r="B88" s="9">
+      <c r="B88" s="8">
         <v>54</v>
       </c>
-      <c r="C88" s="9">
+      <c r="C88" s="8">
         <v>12</v>
       </c>
-      <c r="D88" s="42">
+      <c r="D88" s="41">
         <v>18844657</v>
       </c>
       <c r="E88">
         <v>521</v>
       </c>
-      <c r="F88" s="1">
+      <c r="F88" s="43">
         <v>7.15</v>
       </c>
       <c r="G88" s="1">
@@ -4463,11 +4453,11 @@
       <c r="I88" s="1">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="J88" s="3">
+      <c r="J88" s="2">
         <f t="shared" si="15"/>
         <v>10.309999999999999</v>
       </c>
-      <c r="K88" s="3">
+      <c r="K88" s="2">
         <f>J88+K87</f>
         <v>92.42</v>
       </c>
@@ -4476,23 +4466,23 @@
         <v>521-#18844657</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="41">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A89" s="40">
         <v>44656</v>
       </c>
-      <c r="B89" s="9">
+      <c r="B89" s="8">
         <v>102</v>
       </c>
-      <c r="C89" s="9">
+      <c r="C89" s="8">
         <v>61</v>
       </c>
-      <c r="D89" s="42">
+      <c r="D89" s="41">
         <v>18850343</v>
       </c>
       <c r="E89">
         <v>522</v>
       </c>
-      <c r="F89" s="1">
+      <c r="F89" s="43">
         <v>16.7</v>
       </c>
       <c r="G89" s="1">
@@ -4502,11 +4492,11 @@
         <v>3.76</v>
       </c>
       <c r="I89" s="1"/>
-      <c r="J89" s="3">
+      <c r="J89" s="2">
         <f t="shared" si="15"/>
         <v>20.740000000000002</v>
       </c>
-      <c r="K89" s="3">
+      <c r="K89" s="2">
         <f>K88+J89</f>
         <v>113.16</v>
       </c>
@@ -4515,23 +4505,23 @@
         <v>522-#18850343</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="41">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A90" s="40">
         <v>44658</v>
       </c>
-      <c r="B90" s="9">
+      <c r="B90" s="8">
         <v>7</v>
       </c>
-      <c r="C90" s="9">
+      <c r="C90" s="8">
         <v>3</v>
       </c>
-      <c r="D90" s="42">
+      <c r="D90" s="41">
         <v>18862478</v>
       </c>
       <c r="E90">
         <v>523</v>
       </c>
-      <c r="F90" s="1">
+      <c r="F90" s="43">
         <v>0.56999999999999995</v>
       </c>
       <c r="G90" s="1">
@@ -4541,11 +4531,11 @@
         <v>3.72</v>
       </c>
       <c r="I90" s="1"/>
-      <c r="J90" s="3">
+      <c r="J90" s="2">
         <f t="shared" si="15"/>
         <v>3.0499999999999994</v>
       </c>
-      <c r="K90" s="3">
+      <c r="K90" s="2">
         <f>K89+J90</f>
         <v>116.21</v>
       </c>
@@ -4554,23 +4544,23 @@
         <v>523-#18862478</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="41">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A91" s="40">
         <v>44659</v>
       </c>
-      <c r="B91" s="9">
+      <c r="B91" s="8">
         <v>88</v>
       </c>
-      <c r="C91" s="9">
+      <c r="C91" s="8">
         <v>9</v>
       </c>
-      <c r="D91" s="42">
+      <c r="D91" s="41">
         <v>18868418</v>
       </c>
       <c r="E91">
         <v>524</v>
       </c>
-      <c r="F91" s="1">
+      <c r="F91" s="43">
         <v>7.32</v>
       </c>
       <c r="G91" s="1">
@@ -4582,11 +4572,11 @@
       <c r="I91" s="1">
         <v>-0.08</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91" s="2">
         <f t="shared" si="15"/>
         <v>10</v>
       </c>
-      <c r="K91" s="3">
+      <c r="K91" s="2">
         <f>K90+J91</f>
         <v>126.21</v>
       </c>
@@ -4595,23 +4585,23 @@
         <v>524-#18868418</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="41">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A92" s="40">
         <v>44659</v>
       </c>
-      <c r="B92" s="9">
+      <c r="B92" s="8">
         <v>1</v>
       </c>
-      <c r="C92" s="9">
+      <c r="C92" s="8">
         <v>1</v>
       </c>
-      <c r="D92" s="42">
+      <c r="D92" s="41">
         <v>18870341</v>
       </c>
       <c r="E92">
         <v>525</v>
       </c>
-      <c r="F92" s="1">
+      <c r="F92" s="43">
         <v>1.5</v>
       </c>
       <c r="G92" s="1">
@@ -4621,11 +4611,11 @@
         <v>3.86</v>
       </c>
       <c r="I92" s="1"/>
-      <c r="J92" s="3">
+      <c r="J92" s="2">
         <f t="shared" si="15"/>
         <v>3.89</v>
       </c>
-      <c r="K92" s="3">
+      <c r="K92" s="2">
         <f>K91+J92</f>
         <v>130.1</v>
       </c>
@@ -4634,23 +4624,23 @@
         <v>525-#18870341</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="41">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A93" s="40">
         <v>44659</v>
       </c>
-      <c r="B93" s="9">
+      <c r="B93" s="8">
         <v>9</v>
       </c>
-      <c r="C93" s="9">
+      <c r="C93" s="8">
         <v>3</v>
       </c>
-      <c r="D93" s="42">
+      <c r="D93" s="41">
         <v>18870788</v>
       </c>
       <c r="E93">
         <v>526</v>
       </c>
-      <c r="F93" s="1">
+      <c r="F93" s="43">
         <v>1.3</v>
       </c>
       <c r="G93" s="1">
@@ -4660,11 +4650,11 @@
         <v>3.37</v>
       </c>
       <c r="I93" s="1"/>
-      <c r="J93" s="3">
+      <c r="J93" s="2">
         <f t="shared" si="15"/>
         <v>4.17</v>
       </c>
-      <c r="K93" s="3">
+      <c r="K93" s="2">
         <f>K92+J93</f>
         <v>134.26999999999998</v>
       </c>
@@ -4673,23 +4663,23 @@
         <v>526-#18870788</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="41">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A94" s="40">
         <v>44661</v>
       </c>
-      <c r="B94" s="9">
+      <c r="B94" s="8">
         <v>16</v>
       </c>
-      <c r="C94" s="9">
+      <c r="C94" s="8">
         <v>8</v>
       </c>
-      <c r="D94" s="42">
+      <c r="D94" s="41">
         <v>18886385</v>
       </c>
       <c r="E94">
         <v>527</v>
       </c>
-      <c r="F94" s="1">
+      <c r="F94" s="43">
         <v>0.96</v>
       </c>
       <c r="G94" s="1">
@@ -4699,11 +4689,11 @@
         <v>3.42</v>
       </c>
       <c r="I94" s="1"/>
-      <c r="J94" s="3">
+      <c r="J94" s="2">
         <f t="shared" si="15"/>
         <v>3.76</v>
       </c>
-      <c r="K94" s="3">
+      <c r="K94" s="2">
         <f t="shared" ref="K94:K109" si="16">K93+J94</f>
         <v>138.02999999999997</v>
       </c>
@@ -4712,23 +4702,23 @@
         <v>527-#18886385</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="41">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A95" s="40">
         <v>44661</v>
       </c>
-      <c r="B95" s="9">
+      <c r="B95" s="8">
         <v>133</v>
       </c>
-      <c r="C95" s="9">
+      <c r="C95" s="8">
         <v>86</v>
       </c>
-      <c r="D95" s="42">
+      <c r="D95" s="41">
         <v>18890933</v>
       </c>
       <c r="E95">
         <v>528</v>
       </c>
-      <c r="F95" s="1">
+      <c r="F95" s="43">
         <v>17.510000000000002</v>
       </c>
       <c r="G95" s="1">
@@ -4740,11 +4730,11 @@
       <c r="I95" s="1">
         <v>-0.24</v>
       </c>
-      <c r="J95" s="3">
+      <c r="J95" s="2">
         <f t="shared" si="15"/>
         <v>20.68</v>
       </c>
-      <c r="K95" s="3">
+      <c r="K95" s="2">
         <f t="shared" si="16"/>
         <v>158.70999999999998</v>
       </c>
@@ -4753,23 +4743,23 @@
         <v>528-#18890933</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="41">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A96" s="40">
         <v>44663</v>
       </c>
-      <c r="B96" s="9">
+      <c r="B96" s="8">
         <v>3</v>
       </c>
-      <c r="C96" s="9">
+      <c r="C96" s="8">
         <v>3</v>
       </c>
-      <c r="D96" s="42">
+      <c r="D96" s="41">
         <v>18905634</v>
       </c>
       <c r="E96">
         <v>529</v>
       </c>
-      <c r="F96" s="1">
+      <c r="F96" s="43">
         <v>6.6</v>
       </c>
       <c r="G96" s="1">
@@ -4779,11 +4769,11 @@
         <v>3.48</v>
       </c>
       <c r="I96" s="1"/>
-      <c r="J96" s="3">
+      <c r="J96" s="2">
         <f t="shared" si="15"/>
         <v>9.6199999999999992</v>
       </c>
-      <c r="K96" s="3">
+      <c r="K96" s="2">
         <f t="shared" si="16"/>
         <v>168.32999999999998</v>
       </c>
@@ -4792,23 +4782,23 @@
         <v>529-#18905634</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="41">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A97" s="40">
         <v>44664</v>
       </c>
-      <c r="B97" s="9">
+      <c r="B97" s="8">
         <v>1</v>
       </c>
-      <c r="C97" s="9">
+      <c r="C97" s="8">
         <v>1</v>
       </c>
-      <c r="D97" s="42">
+      <c r="D97" s="41">
         <v>18910230</v>
       </c>
       <c r="E97">
         <v>530</v>
       </c>
-      <c r="F97" s="1">
+      <c r="F97" s="43">
         <v>3.55</v>
       </c>
       <c r="G97" s="1">
@@ -4818,11 +4808,11 @@
         <v>3.48</v>
       </c>
       <c r="I97" s="1"/>
-      <c r="J97" s="3">
+      <c r="J97" s="2">
         <f t="shared" si="15"/>
         <v>6.42</v>
       </c>
-      <c r="K97" s="3">
+      <c r="K97" s="2">
         <f t="shared" si="16"/>
         <v>174.74999999999997</v>
       </c>
@@ -4831,23 +4821,23 @@
         <v>530-#18910230</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="41">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A98" s="40">
         <v>44664</v>
       </c>
-      <c r="B98" s="9">
+      <c r="B98" s="8">
         <v>188</v>
       </c>
-      <c r="C98" s="9">
+      <c r="C98" s="8">
         <v>53</v>
       </c>
-      <c r="D98" s="42">
+      <c r="D98" s="41">
         <v>18913808</v>
       </c>
       <c r="E98">
         <v>531</v>
       </c>
-      <c r="F98" s="1">
+      <c r="F98" s="43">
         <v>30.36</v>
       </c>
       <c r="G98" s="1">
@@ -4857,11 +4847,11 @@
         <v>0</v>
       </c>
       <c r="I98" s="1"/>
-      <c r="J98" s="3">
+      <c r="J98" s="2">
         <f t="shared" si="15"/>
         <v>38.840000000000003</v>
       </c>
-      <c r="K98" s="3">
+      <c r="K98" s="2">
         <f t="shared" si="16"/>
         <v>213.58999999999997</v>
       </c>
@@ -4870,23 +4860,23 @@
         <v>531-#18913808</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="41">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A99" s="40">
         <v>44666</v>
       </c>
-      <c r="B99" s="9">
+      <c r="B99" s="8">
         <v>28</v>
       </c>
-      <c r="C99" s="9">
+      <c r="C99" s="8">
         <v>18</v>
       </c>
-      <c r="D99" s="42">
+      <c r="D99" s="41">
         <v>18927532</v>
       </c>
       <c r="E99">
         <v>532</v>
       </c>
-      <c r="F99" s="1">
+      <c r="F99" s="43">
         <v>3.24</v>
       </c>
       <c r="G99" s="1">
@@ -4896,11 +4886,11 @@
         <v>3.37</v>
       </c>
       <c r="I99" s="1"/>
-      <c r="J99" s="3">
+      <c r="J99" s="2">
         <f t="shared" si="15"/>
         <v>6.2</v>
       </c>
-      <c r="K99" s="3">
+      <c r="K99" s="2">
         <f t="shared" si="16"/>
         <v>219.78999999999996</v>
       </c>
@@ -4909,23 +4899,23 @@
         <v>532-#18927532</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="41">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A100" s="40">
         <v>44667</v>
       </c>
-      <c r="B100" s="9">
+      <c r="B100" s="8">
         <v>92</v>
       </c>
-      <c r="C100" s="9">
+      <c r="C100" s="8">
         <v>30</v>
       </c>
-      <c r="D100" s="42">
+      <c r="D100" s="41">
         <v>18933555</v>
       </c>
       <c r="E100">
         <v>533</v>
       </c>
-      <c r="F100" s="1">
+      <c r="F100" s="43">
         <v>17.989999999999998</v>
       </c>
       <c r="G100" s="1">
@@ -4937,11 +4927,11 @@
       <c r="I100" s="1">
         <v>-0.27</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="2">
         <f t="shared" si="15"/>
         <v>21.2</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100" s="2">
         <f t="shared" si="16"/>
         <v>240.98999999999995</v>
       </c>
@@ -4950,23 +4940,23 @@
         <v>533-#18933555</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="41">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A101" s="40">
         <v>44667</v>
       </c>
-      <c r="B101" s="9">
+      <c r="B101" s="8">
         <v>39</v>
       </c>
-      <c r="C101" s="9">
+      <c r="C101" s="8">
         <v>19</v>
       </c>
-      <c r="D101" s="42">
+      <c r="D101" s="41">
         <v>18934618</v>
       </c>
       <c r="E101">
         <v>534</v>
       </c>
-      <c r="F101" s="1">
+      <c r="F101" s="43">
         <v>8.18</v>
       </c>
       <c r="G101" s="1">
@@ -4976,11 +4966,11 @@
         <v>3.86</v>
       </c>
       <c r="I101" s="1"/>
-      <c r="J101" s="3">
+      <c r="J101" s="2">
         <f t="shared" si="15"/>
         <v>10.9</v>
       </c>
-      <c r="K101" s="3">
+      <c r="K101" s="2">
         <f t="shared" si="16"/>
         <v>251.88999999999996</v>
       </c>
@@ -4989,23 +4979,23 @@
         <v>534-#18934618</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="41">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A102" s="40">
         <v>44671</v>
       </c>
-      <c r="B102" s="9">
+      <c r="B102" s="8">
         <v>3</v>
       </c>
-      <c r="C102" s="9">
+      <c r="C102" s="8">
         <v>3</v>
       </c>
-      <c r="D102" s="42">
+      <c r="D102" s="41">
         <v>18964963</v>
       </c>
       <c r="E102">
         <v>535</v>
       </c>
-      <c r="F102" s="1">
+      <c r="F102" s="43">
         <v>0.56999999999999995</v>
       </c>
       <c r="G102" s="1">
@@ -5015,11 +5005,11 @@
         <v>3.42</v>
       </c>
       <c r="I102" s="1"/>
-      <c r="J102" s="3">
+      <c r="J102" s="2">
         <f t="shared" si="15"/>
         <v>3.3499999999999996</v>
       </c>
-      <c r="K102" s="3">
+      <c r="K102" s="2">
         <f t="shared" si="16"/>
         <v>255.23999999999995</v>
       </c>
@@ -5028,23 +5018,23 @@
         <v>535-#18964963</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="41">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A103" s="40">
         <v>44673</v>
       </c>
-      <c r="B103" s="9">
+      <c r="B103" s="8">
         <v>1</v>
       </c>
-      <c r="C103" s="9">
+      <c r="C103" s="8">
         <v>1</v>
       </c>
-      <c r="D103" s="42">
+      <c r="D103" s="41">
         <v>18980134</v>
       </c>
       <c r="E103">
         <v>536</v>
       </c>
-      <c r="F103" s="1">
+      <c r="F103" s="43">
         <v>1.5</v>
       </c>
       <c r="G103" s="1">
@@ -5054,11 +5044,11 @@
         <v>3.37</v>
       </c>
       <c r="I103" s="1"/>
-      <c r="J103" s="3">
+      <c r="J103" s="2">
         <f t="shared" si="15"/>
         <v>4.38</v>
       </c>
-      <c r="K103" s="3">
+      <c r="K103" s="2">
         <f t="shared" si="16"/>
         <v>259.61999999999995</v>
       </c>
@@ -5067,23 +5057,23 @@
         <v>536-#18980134</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" s="41">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A104" s="40">
         <v>44675</v>
       </c>
-      <c r="B104" s="9">
+      <c r="B104" s="8">
         <v>357</v>
       </c>
-      <c r="C104" s="9">
+      <c r="C104" s="8">
         <v>83</v>
       </c>
-      <c r="D104" s="42">
+      <c r="D104" s="41">
         <v>18998396</v>
       </c>
       <c r="E104">
         <v>537</v>
       </c>
-      <c r="F104" s="1">
+      <c r="F104" s="43">
         <v>34.799999999999997</v>
       </c>
       <c r="G104" s="1">
@@ -5093,11 +5083,11 @@
         <v>4.34</v>
       </c>
       <c r="I104" s="1"/>
-      <c r="J104" s="3">
+      <c r="J104" s="2">
         <f t="shared" si="15"/>
         <v>39.950000000000003</v>
       </c>
-      <c r="K104" s="3">
+      <c r="K104" s="2">
         <f t="shared" si="16"/>
         <v>299.56999999999994</v>
       </c>
@@ -5106,23 +5096,23 @@
         <v>537-#18998396</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" s="41">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A105" s="40">
         <v>44675</v>
       </c>
-      <c r="B105" s="9">
+      <c r="B105" s="8">
         <v>0</v>
       </c>
-      <c r="C105" s="9">
+      <c r="C105" s="8">
         <v>0</v>
       </c>
-      <c r="D105" s="42" t="s">
+      <c r="D105" s="41" t="s">
         <v>22</v>
       </c>
       <c r="E105">
         <v>1</v>
       </c>
-      <c r="F105" s="1">
+      <c r="F105" s="43">
         <v>40</v>
       </c>
       <c r="G105" s="1">
@@ -5132,11 +5122,11 @@
         <v>0</v>
       </c>
       <c r="I105" s="1"/>
-      <c r="J105" s="3">
+      <c r="J105" s="2">
         <f t="shared" si="15"/>
         <v>40</v>
       </c>
-      <c r="K105" s="3">
+      <c r="K105" s="2">
         <f t="shared" si="16"/>
         <v>339.56999999999994</v>
       </c>
@@ -5145,23 +5135,23 @@
         <v>1-#Rondou Batch</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" s="41">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A106" s="40">
         <v>44678</v>
       </c>
-      <c r="B106" s="9">
+      <c r="B106" s="8">
         <v>6</v>
       </c>
-      <c r="C106" s="9">
+      <c r="C106" s="8">
         <v>3</v>
       </c>
-      <c r="D106" s="42">
+      <c r="D106" s="41">
         <v>19019842</v>
       </c>
       <c r="E106">
         <v>538</v>
       </c>
-      <c r="F106" s="1">
+      <c r="F106" s="43">
         <v>1.7</v>
       </c>
       <c r="G106" s="1">
@@ -5171,11 +5161,11 @@
         <v>3.48</v>
       </c>
       <c r="I106" s="1"/>
-      <c r="J106" s="3">
+      <c r="J106" s="2">
         <f t="shared" si="15"/>
         <v>4.4800000000000004</v>
       </c>
-      <c r="K106" s="3">
+      <c r="K106" s="2">
         <f t="shared" si="16"/>
         <v>344.04999999999995</v>
       </c>
@@ -5184,23 +5174,23 @@
         <v>538-#19019842</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="41">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A107" s="40">
         <v>44679</v>
       </c>
-      <c r="B107" s="9">
+      <c r="B107" s="8">
         <v>1</v>
       </c>
-      <c r="C107" s="9">
+      <c r="C107" s="8">
         <v>1</v>
       </c>
-      <c r="D107" s="42">
+      <c r="D107" s="41">
         <v>19026012</v>
       </c>
       <c r="E107">
         <v>539</v>
       </c>
-      <c r="F107" s="1">
+      <c r="F107" s="43">
         <v>2.44</v>
       </c>
       <c r="G107" s="1">
@@ -5210,11 +5200,11 @@
         <v>3.42</v>
       </c>
       <c r="I107" s="1"/>
-      <c r="J107" s="3">
+      <c r="J107" s="2">
         <f t="shared" si="15"/>
         <v>5.3100000000000005</v>
       </c>
-      <c r="K107" s="3">
+      <c r="K107" s="2">
         <f t="shared" si="16"/>
         <v>349.35999999999996</v>
       </c>
@@ -5223,23 +5213,23 @@
         <v>539-#19026012</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="41">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A108" s="40">
         <v>44681</v>
       </c>
-      <c r="B108" s="9">
+      <c r="B108" s="8">
         <v>14</v>
       </c>
-      <c r="C108" s="9">
+      <c r="C108" s="8">
         <v>12</v>
       </c>
-      <c r="D108" s="42">
+      <c r="D108" s="41">
         <v>19037510</v>
       </c>
       <c r="E108">
         <v>540</v>
       </c>
-      <c r="F108" s="1">
+      <c r="F108" s="43">
         <v>16.940000000000001</v>
       </c>
       <c r="G108" s="1">
@@ -5249,11 +5239,11 @@
         <v>3.86</v>
       </c>
       <c r="I108" s="1"/>
-      <c r="J108" s="3">
+      <c r="J108" s="2">
         <f t="shared" si="15"/>
         <v>20.100000000000001</v>
       </c>
-      <c r="K108" s="3">
+      <c r="K108" s="2">
         <f t="shared" si="16"/>
         <v>369.46</v>
       </c>
@@ -5262,23 +5252,23 @@
         <v>540-#19037510</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="41">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A109" s="40">
         <v>44682</v>
       </c>
-      <c r="B109" s="9">
+      <c r="B109" s="8">
         <v>27</v>
       </c>
-      <c r="C109" s="9">
+      <c r="C109" s="8">
         <v>12</v>
       </c>
-      <c r="D109" s="42">
+      <c r="D109" s="41">
         <v>19051879</v>
       </c>
       <c r="E109">
         <v>541</v>
       </c>
-      <c r="F109" s="1">
+      <c r="F109" s="43">
         <v>2.89</v>
       </c>
       <c r="G109" s="1">
@@ -5288,11 +5278,11 @@
         <v>3.48</v>
       </c>
       <c r="I109" s="1"/>
-      <c r="J109" s="3">
+      <c r="J109" s="2">
         <f t="shared" si="15"/>
         <v>5.73</v>
       </c>
-      <c r="K109" s="3">
+      <c r="K109" s="2">
         <f t="shared" si="16"/>
         <v>375.19</v>
       </c>
@@ -5301,23 +5291,23 @@
         <v>541-#19051879</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="41">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A110" s="40">
         <v>44683</v>
       </c>
-      <c r="B110" s="9">
+      <c r="B110" s="8">
         <v>0</v>
       </c>
-      <c r="C110" s="9">
+      <c r="C110" s="8">
         <v>0</v>
       </c>
-      <c r="D110" s="42" t="s">
+      <c r="D110" s="41" t="s">
         <v>22</v>
       </c>
       <c r="E110">
         <v>2</v>
       </c>
-      <c r="F110" s="1">
+      <c r="F110" s="43">
         <v>40</v>
       </c>
       <c r="G110" s="1">
@@ -5327,11 +5317,11 @@
         <v>0</v>
       </c>
       <c r="I110" s="1"/>
-      <c r="J110" s="3">
+      <c r="J110" s="2">
         <f t="shared" si="15"/>
         <v>40</v>
       </c>
-      <c r="K110" s="4">
+      <c r="K110" s="3">
         <f>K109+J110</f>
         <v>415.19</v>
       </c>
@@ -5340,23 +5330,23 @@
         <v>2-#Rondou Batch</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="41">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A111" s="40">
         <v>44683</v>
       </c>
-      <c r="B111" s="9">
+      <c r="B111" s="8">
         <v>0</v>
       </c>
-      <c r="C111" s="9">
+      <c r="C111" s="8">
         <v>0</v>
       </c>
-      <c r="D111" s="42" t="s">
+      <c r="D111" s="41" t="s">
         <v>22</v>
       </c>
       <c r="E111">
         <v>3</v>
       </c>
-      <c r="F111" s="1">
+      <c r="F111" s="43">
         <v>60</v>
       </c>
       <c r="G111" s="1">
@@ -5366,11 +5356,11 @@
         <v>0</v>
       </c>
       <c r="I111" s="1"/>
-      <c r="J111" s="3">
+      <c r="J111" s="2">
         <f t="shared" ref="J111:J121" si="18">G111-H111</f>
         <v>60</v>
       </c>
-      <c r="K111" s="3">
+      <c r="K111" s="2">
         <f>J111</f>
         <v>60</v>
       </c>
@@ -5379,23 +5369,23 @@
         <v>3-#Rondou Batch</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="41">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A112" s="40">
         <v>44688</v>
       </c>
-      <c r="B112" s="9">
+      <c r="B112" s="8">
         <v>208</v>
       </c>
-      <c r="C112" s="9">
+      <c r="C112" s="8">
         <v>27</v>
       </c>
-      <c r="D112" s="42">
+      <c r="D112" s="41">
         <v>19098063</v>
       </c>
       <c r="E112">
         <v>542</v>
       </c>
-      <c r="F112" s="1">
+      <c r="F112" s="43">
         <v>17.47</v>
       </c>
       <c r="G112" s="1">
@@ -5405,11 +5395,11 @@
         <v>3.76</v>
       </c>
       <c r="I112" s="1"/>
-      <c r="J112" s="3">
+      <c r="J112" s="2">
         <f t="shared" si="18"/>
         <v>21.54</v>
       </c>
-      <c r="K112" s="3">
+      <c r="K112" s="2">
         <f>K111+J112</f>
         <v>81.539999999999992</v>
       </c>
@@ -5418,23 +5408,23 @@
         <v>542-#19098063</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="41">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A113" s="40">
         <v>44690</v>
       </c>
-      <c r="B113" s="9">
+      <c r="B113" s="8">
         <v>250</v>
       </c>
-      <c r="C113" s="9">
+      <c r="C113" s="8">
         <v>100</v>
       </c>
-      <c r="D113" s="42">
+      <c r="D113" s="41">
         <v>19112894</v>
       </c>
       <c r="E113">
         <v>543</v>
       </c>
-      <c r="F113" s="1">
+      <c r="F113" s="43">
         <v>23.3</v>
       </c>
       <c r="G113" s="1">
@@ -5444,11 +5434,11 @@
         <v>4.42</v>
       </c>
       <c r="I113" s="1"/>
-      <c r="J113" s="3">
+      <c r="J113" s="2">
         <f t="shared" si="18"/>
         <v>27.009999999999998</v>
       </c>
-      <c r="K113" s="3">
+      <c r="K113" s="2">
         <f>K112+J113</f>
         <v>108.54999999999998</v>
       </c>
@@ -5457,23 +5447,23 @@
         <v>543-#19112894</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="41">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A114" s="40">
         <v>44692</v>
       </c>
-      <c r="B114" s="9">
+      <c r="B114" s="8">
         <v>1</v>
       </c>
-      <c r="C114" s="9">
+      <c r="C114" s="8">
         <v>1</v>
       </c>
-      <c r="D114" s="42">
+      <c r="D114" s="41">
         <v>19124169</v>
       </c>
       <c r="E114">
         <v>544</v>
       </c>
-      <c r="F114" s="1">
+      <c r="F114" s="43">
         <v>0.9</v>
       </c>
       <c r="G114" s="1">
@@ -5483,11 +5473,11 @@
         <v>3.58</v>
       </c>
       <c r="I114" s="1"/>
-      <c r="J114" s="3">
+      <c r="J114" s="2">
         <f t="shared" si="18"/>
         <v>3.54</v>
       </c>
-      <c r="K114" s="3">
+      <c r="K114" s="2">
         <f>K113+J114</f>
         <v>112.08999999999999</v>
       </c>
@@ -5496,23 +5486,23 @@
         <v>544-#19124169</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="41">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A115" s="40">
         <v>44693</v>
       </c>
-      <c r="B115" s="9">
+      <c r="B115" s="8">
         <v>109</v>
       </c>
-      <c r="C115" s="9">
+      <c r="C115" s="8">
         <v>27</v>
       </c>
-      <c r="D115" s="42">
+      <c r="D115" s="41">
         <v>19138687</v>
       </c>
       <c r="E115">
         <v>545</v>
       </c>
-      <c r="F115" s="1">
+      <c r="F115" s="43">
         <v>18.72</v>
       </c>
       <c r="G115" s="1">
@@ -5522,11 +5512,11 @@
         <v>3.48</v>
       </c>
       <c r="I115" s="1"/>
-      <c r="J115" s="3">
+      <c r="J115" s="2">
         <f t="shared" si="18"/>
         <v>22.349999999999998</v>
       </c>
-      <c r="K115" s="3">
+      <c r="K115" s="2">
         <f>K114+J115</f>
         <v>134.44</v>
       </c>
@@ -5535,23 +5525,23 @@
         <v>545-#19138687</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="41">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A116" s="40">
         <v>44694</v>
       </c>
-      <c r="B116" s="9">
+      <c r="B116" s="8">
         <v>15</v>
       </c>
-      <c r="C116" s="9">
+      <c r="C116" s="8">
         <v>4</v>
       </c>
-      <c r="D116" s="42">
+      <c r="D116" s="41">
         <v>19145735</v>
       </c>
       <c r="E116">
         <v>546</v>
       </c>
-      <c r="F116" s="1">
+      <c r="F116" s="43">
         <v>1.69</v>
       </c>
       <c r="G116" s="1">
@@ -5561,11 +5551,11 @@
         <v>3.39</v>
       </c>
       <c r="I116" s="1"/>
-      <c r="J116" s="3">
+      <c r="J116" s="2">
         <f t="shared" si="18"/>
         <v>4.5600000000000005</v>
       </c>
-      <c r="K116" s="3">
+      <c r="K116" s="2">
         <f t="shared" ref="K116:K121" si="19">K115+J116</f>
         <v>139</v>
       </c>
@@ -5574,23 +5564,23 @@
         <v>546-#19145735</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="41">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A117" s="40">
         <v>44695</v>
       </c>
-      <c r="B117" s="9">
+      <c r="B117" s="8">
         <v>2</v>
       </c>
-      <c r="C117" s="9">
+      <c r="C117" s="8">
         <v>2</v>
       </c>
-      <c r="D117" s="42">
+      <c r="D117" s="41">
         <v>19152521</v>
       </c>
       <c r="E117">
         <v>547</v>
       </c>
-      <c r="F117" s="1">
+      <c r="F117" s="43">
         <v>3.57</v>
       </c>
       <c r="G117" s="1">
@@ -5600,11 +5590,11 @@
         <v>3.39</v>
       </c>
       <c r="I117" s="1"/>
-      <c r="J117" s="3">
+      <c r="J117" s="2">
         <f t="shared" si="18"/>
         <v>6.5299999999999994</v>
       </c>
-      <c r="K117" s="3">
+      <c r="K117" s="2">
         <f t="shared" si="19"/>
         <v>145.53</v>
       </c>
@@ -5613,23 +5603,23 @@
         <v>547-#19152521</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="41">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A118" s="40">
         <v>44698</v>
       </c>
-      <c r="B118" s="9">
+      <c r="B118" s="8">
         <v>141</v>
       </c>
-      <c r="C118" s="9">
+      <c r="C118" s="8">
         <v>95</v>
       </c>
-      <c r="D118" s="42">
+      <c r="D118" s="41">
         <v>19172446</v>
       </c>
       <c r="E118">
         <v>548</v>
       </c>
-      <c r="F118" s="1">
+      <c r="F118" s="43">
         <v>46.02</v>
       </c>
       <c r="G118" s="1">
@@ -5639,11 +5629,11 @@
         <v>4.1500000000000004</v>
       </c>
       <c r="I118" s="1"/>
-      <c r="J118" s="3">
+      <c r="J118" s="2">
         <f t="shared" si="18"/>
         <v>51.660000000000004</v>
       </c>
-      <c r="K118" s="3">
+      <c r="K118" s="2">
         <f t="shared" si="19"/>
         <v>197.19</v>
       </c>
@@ -5652,23 +5642,23 @@
         <v>548-#19172446</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="41">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A119" s="40">
         <v>44699</v>
       </c>
-      <c r="B119" s="9">
+      <c r="B119" s="8">
         <v>6</v>
       </c>
-      <c r="C119" s="9">
+      <c r="C119" s="8">
         <v>1</v>
       </c>
-      <c r="D119" s="42">
+      <c r="D119" s="41">
         <v>19177277</v>
       </c>
       <c r="E119">
         <v>549</v>
       </c>
-      <c r="F119" s="1">
+      <c r="F119" s="43">
         <v>1.37</v>
       </c>
       <c r="G119" s="1">
@@ -5678,11 +5668,11 @@
         <v>3.39</v>
       </c>
       <c r="I119" s="1"/>
-      <c r="J119" s="3">
+      <c r="J119" s="2">
         <f t="shared" si="18"/>
         <v>4.2200000000000006</v>
       </c>
-      <c r="K119" s="3">
+      <c r="K119" s="2">
         <f t="shared" si="19"/>
         <v>201.41</v>
       </c>
@@ -5691,23 +5681,23 @@
         <v>549-#19177277</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" s="41">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A120" s="40">
         <v>44699</v>
       </c>
-      <c r="B120" s="9">
+      <c r="B120" s="8">
         <v>10</v>
       </c>
-      <c r="C120" s="9">
+      <c r="C120" s="8">
         <v>10</v>
       </c>
-      <c r="D120" s="42">
+      <c r="D120" s="41">
         <v>19178912</v>
       </c>
       <c r="E120">
         <v>550</v>
       </c>
-      <c r="F120" s="1">
+      <c r="F120" s="43">
         <v>12.16</v>
       </c>
       <c r="G120" s="1">
@@ -5719,11 +5709,11 @@
       <c r="I120" s="1">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="J120" s="3">
+      <c r="J120" s="2">
         <f t="shared" si="18"/>
         <v>15.520000000000001</v>
       </c>
-      <c r="K120" s="3">
+      <c r="K120" s="2">
         <f t="shared" si="19"/>
         <v>216.93</v>
       </c>
@@ -5732,23 +5722,23 @@
         <v>550-#19178912</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A121" s="41">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A121" s="40">
         <v>44700</v>
       </c>
-      <c r="B121" s="9">
+      <c r="B121" s="8">
         <v>8</v>
       </c>
-      <c r="C121" s="9">
+      <c r="C121" s="8">
         <v>4</v>
       </c>
-      <c r="D121" s="42">
+      <c r="D121" s="41">
         <v>19185261</v>
       </c>
       <c r="E121">
         <v>551</v>
       </c>
-      <c r="F121" s="1">
+      <c r="F121" s="43">
         <v>1.02</v>
       </c>
       <c r="G121" s="1">
@@ -5758,11 +5748,11 @@
         <v>3.86</v>
       </c>
       <c r="I121" s="1"/>
-      <c r="J121" s="3">
+      <c r="J121" s="2">
         <f t="shared" si="18"/>
         <v>3.3800000000000003</v>
       </c>
-      <c r="K121" s="3">
+      <c r="K121" s="2">
         <f t="shared" si="19"/>
         <v>220.31</v>
       </c>
@@ -5771,23 +5761,23 @@
         <v>551-#19185261</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" s="41">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A122" s="40">
         <v>44700</v>
       </c>
-      <c r="B122" s="9">
+      <c r="B122" s="8">
         <v>0</v>
       </c>
-      <c r="C122" s="9">
+      <c r="C122" s="8">
         <v>0</v>
       </c>
-      <c r="D122" s="42" t="s">
+      <c r="D122" s="41" t="s">
         <v>21</v>
       </c>
       <c r="E122">
         <v>4</v>
       </c>
-      <c r="F122" s="1">
+      <c r="F122" s="43">
         <v>20</v>
       </c>
       <c r="G122" s="1">
@@ -5797,11 +5787,11 @@
         <v>0</v>
       </c>
       <c r="I122" s="1"/>
-      <c r="J122" s="3">
+      <c r="J122" s="2">
         <f>G122</f>
         <v>20</v>
       </c>
-      <c r="K122" s="3">
+      <c r="K122" s="2">
         <f>J122+K121+I120</f>
         <v>240.24</v>
       </c>
@@ -5810,23 +5800,23 @@
         <v xml:space="preserve">4-#Rondou Batch </v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A123" s="41">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A123" s="40">
         <v>44701</v>
       </c>
-      <c r="B123" s="9">
+      <c r="B123" s="8">
         <v>98</v>
       </c>
-      <c r="C123" s="9">
+      <c r="C123" s="8">
         <v>82</v>
       </c>
-      <c r="D123" s="42">
+      <c r="D123" s="41">
         <v>19195477</v>
       </c>
       <c r="E123">
         <v>552</v>
       </c>
-      <c r="F123" s="1">
+      <c r="F123" s="43">
         <v>22.26</v>
       </c>
       <c r="G123" s="1">
@@ -5838,11 +5828,11 @@
       <c r="I123" s="1">
         <v>-3.08</v>
       </c>
-      <c r="J123" s="3">
+      <c r="J123" s="2">
         <f>G123-H123</f>
         <v>25.97</v>
       </c>
-      <c r="K123" s="3">
+      <c r="K123" s="2">
         <f>K122+Table4[[#This Row],[Total Made]]+Table4[[#This Row],[Column2]]</f>
         <v>263.13000000000005</v>
       </c>
@@ -5851,23 +5841,23 @@
         <v>552-#19195477</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="41">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A124" s="40">
         <v>44702</v>
       </c>
-      <c r="B124" s="9">
+      <c r="B124" s="8">
         <v>23</v>
       </c>
-      <c r="C124" s="9">
+      <c r="C124" s="8">
         <v>14</v>
       </c>
-      <c r="D124" s="42">
+      <c r="D124" s="41">
         <v>19204153</v>
       </c>
       <c r="E124">
         <v>553</v>
       </c>
-      <c r="F124" s="1">
+      <c r="F124" s="43">
         <v>2.74</v>
       </c>
       <c r="G124" s="1">
@@ -5877,11 +5867,11 @@
         <v>4.9800000000000004</v>
       </c>
       <c r="I124" s="1"/>
-      <c r="J124" s="3">
+      <c r="J124" s="2">
         <f t="shared" ref="J124:J126" si="20">G124-H124</f>
         <v>5.6399999999999988</v>
       </c>
-      <c r="K124" s="3">
+      <c r="K124" s="2">
         <f>K123+Table4[[#This Row],[Total Made]]</f>
         <v>268.77000000000004</v>
       </c>
@@ -5890,23 +5880,23 @@
         <v>553-#19204153</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="41">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A125" s="40">
         <v>44704</v>
       </c>
-      <c r="B125" s="9">
+      <c r="B125" s="8">
         <v>1</v>
       </c>
-      <c r="C125" s="9">
+      <c r="C125" s="8">
         <v>1</v>
       </c>
-      <c r="D125" s="42">
+      <c r="D125" s="41">
         <v>19219593</v>
       </c>
       <c r="E125">
         <v>554</v>
       </c>
-      <c r="F125" s="1">
+      <c r="F125" s="43">
         <v>1.19</v>
       </c>
       <c r="G125" s="1">
@@ -5916,11 +5906,11 @@
         <v>3.37</v>
       </c>
       <c r="I125" s="1"/>
-      <c r="J125" s="3">
+      <c r="J125" s="2">
         <f t="shared" si="20"/>
         <v>4.05</v>
       </c>
-      <c r="K125" s="3">
+      <c r="K125" s="2">
         <f>K124+Table4[[#This Row],[Total Made]]</f>
         <v>272.82000000000005</v>
       </c>
@@ -5929,23 +5919,23 @@
         <v>554-#19219593</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="41">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A126" s="40">
         <v>44704</v>
       </c>
-      <c r="B126" s="9">
+      <c r="B126" s="8">
         <v>2</v>
       </c>
-      <c r="C126" s="9">
+      <c r="C126" s="8">
         <v>2</v>
       </c>
-      <c r="D126" s="42">
+      <c r="D126" s="41">
         <v>19220715</v>
       </c>
       <c r="E126">
         <v>555</v>
       </c>
-      <c r="F126" s="1">
+      <c r="F126" s="43">
         <v>3.11</v>
       </c>
       <c r="G126" s="1">
@@ -5955,11 +5945,11 @@
         <v>3.42</v>
       </c>
       <c r="I126" s="1"/>
-      <c r="J126" s="3">
+      <c r="J126" s="2">
         <f t="shared" si="20"/>
         <v>6.02</v>
       </c>
-      <c r="K126" s="4">
+      <c r="K126" s="3">
         <f>K125+Table4[[#This Row],[Total Made]]</f>
         <v>278.84000000000003</v>
       </c>
@@ -5968,23 +5958,23 @@
         <v>555-#19220715</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="41">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A127" s="40">
         <v>44713</v>
       </c>
-      <c r="B127" s="9">
+      <c r="B127" s="8">
         <v>2</v>
       </c>
-      <c r="C127" s="9">
+      <c r="C127" s="8">
         <v>2</v>
       </c>
-      <c r="D127" s="42">
+      <c r="D127" s="41">
         <v>19281382</v>
       </c>
       <c r="E127">
         <v>556</v>
       </c>
-      <c r="F127" s="1">
+      <c r="F127" s="43">
         <v>0.89</v>
       </c>
       <c r="G127" s="1">
@@ -5994,11 +5984,11 @@
         <v>3.72</v>
       </c>
       <c r="I127" s="1"/>
-      <c r="J127" s="3">
+      <c r="J127" s="2">
         <f>Table4[[#This Row],[Final TTL]]-Table4[[#This Row],[Shipping]]</f>
         <v>3.39</v>
       </c>
-      <c r="K127" s="3">
+      <c r="K127" s="2">
         <f>Table4[[#This Row],[Total Made]]</f>
         <v>3.39</v>
       </c>
@@ -6007,23 +5997,23 @@
         <v>556-#19281382</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="41">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A128" s="40">
         <v>44714</v>
       </c>
-      <c r="B128" s="9">
+      <c r="B128" s="8">
         <v>15</v>
       </c>
-      <c r="C128" s="9">
+      <c r="C128" s="8">
         <v>10</v>
       </c>
-      <c r="D128" s="42">
+      <c r="D128" s="41">
         <v>19292091</v>
       </c>
       <c r="E128">
         <v>557</v>
       </c>
-      <c r="F128" s="1">
+      <c r="F128" s="43">
         <v>1.22</v>
       </c>
       <c r="G128" s="1">
@@ -6033,11 +6023,11 @@
         <v>3.37</v>
       </c>
       <c r="I128" s="1"/>
-      <c r="J128" s="3">
+      <c r="J128" s="2">
         <f>Table4[[#This Row],[Final TTL]]-Table4[[#This Row],[Shipping]]</f>
         <v>4.08</v>
       </c>
-      <c r="K128" s="3">
+      <c r="K128" s="2">
         <f>K127+Table4[[#This Row],[Total Made]]</f>
         <v>7.4700000000000006</v>
       </c>
@@ -6046,23 +6036,23 @@
         <v>557-#19292091</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="41">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A129" s="40">
         <v>44715</v>
       </c>
-      <c r="B129" s="9">
+      <c r="B129" s="8">
         <v>1</v>
       </c>
-      <c r="C129" s="9">
+      <c r="C129" s="8">
         <v>1</v>
       </c>
-      <c r="D129" s="42">
+      <c r="D129" s="41">
         <v>19298251</v>
       </c>
       <c r="E129">
         <v>558</v>
       </c>
-      <c r="F129" s="1">
+      <c r="F129" s="43">
         <v>3.17</v>
       </c>
       <c r="G129" s="1">
@@ -6072,11 +6062,11 @@
         <v>3.39</v>
       </c>
       <c r="I129" s="1"/>
-      <c r="J129" s="3">
+      <c r="J129" s="2">
         <f>Table4[[#This Row],[Final TTL]]-Table4[[#This Row],[Shipping]]</f>
         <v>6.1099999999999994</v>
       </c>
-      <c r="K129" s="3">
+      <c r="K129" s="2">
         <f>K128+Table4[[#This Row],[Total Made]]</f>
         <v>13.58</v>
       </c>
@@ -6085,23 +6075,23 @@
         <v>558-#19298251</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A130" s="41">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A130" s="40">
         <v>44715</v>
       </c>
-      <c r="B130" s="9">
+      <c r="B130" s="8">
         <v>78</v>
       </c>
-      <c r="C130" s="9">
+      <c r="C130" s="8">
         <v>27</v>
       </c>
-      <c r="D130" s="42">
+      <c r="D130" s="41">
         <v>19298419</v>
       </c>
       <c r="E130">
         <v>559</v>
       </c>
-      <c r="F130" s="1">
+      <c r="F130" s="43">
         <v>5.43</v>
       </c>
       <c r="G130" s="1">
@@ -6111,11 +6101,11 @@
         <v>3.37</v>
       </c>
       <c r="I130" s="1"/>
-      <c r="J130" s="3">
+      <c r="J130" s="2">
         <f>Table4[[#This Row],[Final TTL]]-Table4[[#This Row],[Shipping]]</f>
         <v>8.5</v>
       </c>
-      <c r="K130" s="3">
+      <c r="K130" s="2">
         <f>K129+Table4[[#This Row],[Total Made]]</f>
         <v>22.08</v>
       </c>
@@ -6124,23 +6114,23 @@
         <v>559-#19298419</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A131" s="41">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A131" s="40">
         <v>44715</v>
       </c>
-      <c r="B131" s="9">
+      <c r="B131" s="8">
         <v>15</v>
       </c>
-      <c r="C131" s="9">
+      <c r="C131" s="8">
         <v>8</v>
       </c>
-      <c r="D131" s="42">
+      <c r="D131" s="41">
         <v>19300958</v>
       </c>
       <c r="E131">
         <v>560</v>
       </c>
-      <c r="F131" s="1">
+      <c r="F131" s="43">
         <v>5.44</v>
       </c>
       <c r="G131" s="1">
@@ -6150,11 +6140,11 @@
         <v>3.58</v>
       </c>
       <c r="I131" s="1"/>
-      <c r="J131" s="3">
+      <c r="J131" s="2">
         <f>Table4[[#This Row],[Final TTL]]-Table4[[#This Row],[Shipping]]</f>
         <v>8.3000000000000007</v>
       </c>
-      <c r="K131" s="3">
+      <c r="K131" s="2">
         <f>K130+Table4[[#This Row],[Total Made]]</f>
         <v>30.38</v>
       </c>
@@ -6163,23 +6153,23 @@
         <v>560-#19300958</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A132" s="41">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A132" s="40">
         <v>44716</v>
       </c>
-      <c r="B132" s="9">
+      <c r="B132" s="8">
         <v>32</v>
       </c>
-      <c r="C132" s="9">
+      <c r="C132" s="8">
         <v>4</v>
       </c>
-      <c r="D132" s="42">
+      <c r="D132" s="41">
         <v>19309485</v>
       </c>
       <c r="E132">
         <v>561</v>
       </c>
-      <c r="F132" s="1">
+      <c r="F132" s="43">
         <v>4.38</v>
       </c>
       <c r="G132" s="1">
@@ -6189,11 +6179,11 @@
         <v>3.37</v>
       </c>
       <c r="I132" s="1"/>
-      <c r="J132" s="3">
+      <c r="J132" s="2">
         <f>Table4[[#This Row],[Final TTL]]-Table4[[#This Row],[Shipping]]</f>
         <v>7.3999999999999995</v>
       </c>
-      <c r="K132" s="3">
+      <c r="K132" s="2">
         <f>K131+Table4[[#This Row],[Total Made]]</f>
         <v>37.78</v>
       </c>
@@ -6202,23 +6192,23 @@
         <v>561-#19309485</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A133" s="41">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A133" s="40">
         <v>44717</v>
       </c>
-      <c r="B133" s="9">
+      <c r="B133" s="8">
         <v>2</v>
       </c>
-      <c r="C133" s="9">
+      <c r="C133" s="8">
         <v>2</v>
       </c>
-      <c r="D133" s="42">
+      <c r="D133" s="41">
         <v>19316145</v>
       </c>
       <c r="E133">
         <v>562</v>
       </c>
-      <c r="F133" s="1">
+      <c r="F133" s="43">
         <v>3.21</v>
       </c>
       <c r="G133" s="1">
@@ -6228,11 +6218,11 @@
         <v>14.11</v>
       </c>
       <c r="I133" s="1"/>
-      <c r="J133" s="3">
+      <c r="J133" s="2">
         <f>Table4[[#This Row],[Final TTL]]-Table4[[#This Row],[Shipping]]</f>
         <v>5.4200000000000017</v>
       </c>
-      <c r="K133" s="3">
+      <c r="K133" s="2">
         <f>K132+Table4[[#This Row],[Total Made]]</f>
         <v>43.2</v>
       </c>
@@ -6241,23 +6231,23 @@
         <v>562-#19316145</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A134" s="41">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A134" s="40">
         <v>44718</v>
       </c>
-      <c r="B134" s="9">
+      <c r="B134" s="8">
         <v>4</v>
       </c>
-      <c r="C134" s="9">
+      <c r="C134" s="8">
         <v>4</v>
       </c>
-      <c r="D134" s="42">
+      <c r="D134" s="41">
         <v>19325817</v>
       </c>
       <c r="E134">
         <v>563</v>
       </c>
-      <c r="F134" s="1">
+      <c r="F134" s="43">
         <v>9.42</v>
       </c>
       <c r="G134" s="1">
@@ -6267,11 +6257,11 @@
         <v>3.72</v>
       </c>
       <c r="I134" s="1"/>
-      <c r="J134" s="3">
+      <c r="J134" s="2">
         <f>Table4[[#This Row],[Final TTL]]-Table4[[#This Row],[Shipping]]</f>
         <v>12.339999999999998</v>
       </c>
-      <c r="K134" s="3">
+      <c r="K134" s="2">
         <f>K133+Table4[[#This Row],[Total Made]]</f>
         <v>55.54</v>
       </c>
@@ -6280,23 +6270,23 @@
         <v>563-#19325817</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" s="41">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A135" s="40">
         <v>44720</v>
       </c>
-      <c r="B135" s="9">
+      <c r="B135" s="8">
         <v>1</v>
       </c>
-      <c r="C135" s="9">
+      <c r="C135" s="8">
         <v>1</v>
       </c>
-      <c r="D135" s="42">
+      <c r="D135" s="41">
         <v>19337322</v>
       </c>
       <c r="E135">
         <v>564</v>
       </c>
-      <c r="F135" s="1">
+      <c r="F135" s="43">
         <v>7.84</v>
       </c>
       <c r="G135" s="1">
@@ -6306,11 +6296,11 @@
         <v>3.48</v>
       </c>
       <c r="I135" s="1"/>
-      <c r="J135" s="3">
+      <c r="J135" s="2">
         <f>Table4[[#This Row],[Final TTL]]-Table4[[#This Row],[Shipping]]</f>
         <v>10.92</v>
       </c>
-      <c r="K135" s="3">
+      <c r="K135" s="2">
         <f>K134+Table4[[#This Row],[Total Made]]</f>
         <v>66.459999999999994</v>
       </c>
@@ -6319,23 +6309,23 @@
         <v>564-#19337322</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A136" s="41">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A136" s="40">
         <v>44722</v>
       </c>
-      <c r="B136" s="9">
+      <c r="B136" s="8">
         <v>21</v>
       </c>
-      <c r="C136" s="9">
+      <c r="C136" s="8">
         <v>9</v>
       </c>
-      <c r="D136" s="42">
+      <c r="D136" s="41">
         <v>19352934</v>
       </c>
       <c r="E136">
         <v>565</v>
       </c>
-      <c r="F136" s="1">
+      <c r="F136" s="43">
         <v>6.28</v>
       </c>
       <c r="G136" s="1">
@@ -6345,11 +6335,11 @@
         <v>3.39</v>
       </c>
       <c r="I136" s="1"/>
-      <c r="J136" s="3">
+      <c r="J136" s="2">
         <f>Table4[[#This Row],[Final TTL]]-Table4[[#This Row],[Shipping]]</f>
         <v>9.379999999999999</v>
       </c>
-      <c r="K136" s="3">
+      <c r="K136" s="2">
         <f>K135+Table4[[#This Row],[Total Made]]</f>
         <v>75.839999999999989</v>
       </c>
@@ -6358,23 +6348,23 @@
         <v>565-#19352934</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A137" s="41">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A137" s="40">
         <v>44723</v>
       </c>
-      <c r="B137" s="9">
+      <c r="B137" s="8">
         <v>88</v>
       </c>
-      <c r="C137" s="9">
+      <c r="C137" s="8">
         <v>24</v>
       </c>
-      <c r="D137" s="42">
+      <c r="D137" s="41">
         <v>19357574</v>
       </c>
       <c r="E137">
         <v>566</v>
       </c>
-      <c r="F137" s="1">
+      <c r="F137" s="43">
         <v>8.4700000000000006</v>
       </c>
       <c r="G137" s="1">
@@ -6384,11 +6374,11 @@
         <v>3.48</v>
       </c>
       <c r="I137" s="1"/>
-      <c r="J137" s="3">
+      <c r="J137" s="2">
         <f>Table4[[#This Row],[Final TTL]]-Table4[[#This Row],[Shipping]]</f>
         <v>11.59</v>
       </c>
-      <c r="K137" s="3">
+      <c r="K137" s="2">
         <f>K136+Table4[[#This Row],[Total Made]]</f>
         <v>87.429999999999993</v>
       </c>
@@ -6397,23 +6387,23 @@
         <v>566-#19357574</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A138" s="41">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A138" s="40">
         <v>44724</v>
       </c>
-      <c r="B138" s="9">
+      <c r="B138" s="8">
         <v>18</v>
       </c>
-      <c r="C138" s="9">
+      <c r="C138" s="8">
         <v>12</v>
       </c>
-      <c r="D138" s="42">
+      <c r="D138" s="41">
         <v>19364827</v>
       </c>
       <c r="E138">
         <v>567</v>
       </c>
-      <c r="F138" s="1">
+      <c r="F138" s="43">
         <v>1.66</v>
       </c>
       <c r="G138" s="1">
@@ -6423,11 +6413,11 @@
         <v>3.86</v>
       </c>
       <c r="I138" s="1"/>
-      <c r="J138" s="3">
+      <c r="J138" s="2">
         <f>Table4[[#This Row],[Final TTL]]-Table4[[#This Row],[Shipping]]</f>
         <v>4.0600000000000005</v>
       </c>
-      <c r="K138" s="3">
+      <c r="K138" s="2">
         <f>K137+Table4[[#This Row],[Total Made]]</f>
         <v>91.49</v>
       </c>
@@ -6436,23 +6426,23 @@
         <v>567-#19364827</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A139" s="41">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A139" s="40">
         <v>44724</v>
       </c>
-      <c r="B139" s="9">
+      <c r="B139" s="8">
         <v>117</v>
       </c>
-      <c r="C139" s="9">
+      <c r="C139" s="8">
         <v>51</v>
       </c>
-      <c r="D139" s="42">
+      <c r="D139" s="41">
         <v>19368187</v>
       </c>
       <c r="E139">
         <v>568</v>
       </c>
-      <c r="F139" s="1">
+      <c r="F139" s="43">
         <v>14.68</v>
       </c>
       <c r="G139" s="1">
@@ -6462,11 +6452,11 @@
         <v>3.39</v>
       </c>
       <c r="I139" s="1"/>
-      <c r="J139" s="3">
+      <c r="J139" s="2">
         <f>Table4[[#This Row],[Final TTL]]-Table4[[#This Row],[Shipping]]</f>
         <v>18.2</v>
       </c>
-      <c r="K139" s="3">
+      <c r="K139" s="2">
         <f>K138+Table4[[#This Row],[Total Made]]</f>
         <v>109.69</v>
       </c>
@@ -6475,23 +6465,23 @@
         <v>568-#19368187</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A140" s="41">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A140" s="40">
         <v>44726</v>
       </c>
-      <c r="B140" s="9">
+      <c r="B140" s="8">
         <v>0</v>
       </c>
-      <c r="C140" s="9">
+      <c r="C140" s="8">
         <v>0</v>
       </c>
-      <c r="D140" s="42" t="s">
+      <c r="D140" s="41" t="s">
         <v>22</v>
       </c>
       <c r="E140">
         <v>5</v>
       </c>
-      <c r="F140" s="1">
+      <c r="F140" s="43">
         <v>50</v>
       </c>
       <c r="G140" s="1">
@@ -6501,11 +6491,11 @@
         <v>0</v>
       </c>
       <c r="I140" s="1"/>
-      <c r="J140" s="3">
+      <c r="J140" s="2">
         <f>Table4[[#This Row],[Final TTL]]-Table4[[#This Row],[Shipping]]</f>
         <v>50</v>
       </c>
-      <c r="K140" s="3">
+      <c r="K140" s="2">
         <f>K139+Table4[[#This Row],[Total Made]]</f>
         <v>159.69</v>
       </c>
@@ -6514,23 +6504,23 @@
         <v>5-#Rondou Batch</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A141" s="41">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A141" s="40">
         <v>44727</v>
       </c>
-      <c r="B141" s="9">
+      <c r="B141" s="8">
         <v>21</v>
       </c>
-      <c r="C141" s="9">
+      <c r="C141" s="8">
         <v>10</v>
       </c>
-      <c r="D141" s="42">
+      <c r="D141" s="41">
         <v>19387911</v>
       </c>
       <c r="E141">
         <v>569</v>
       </c>
-      <c r="F141" s="1">
+      <c r="F141" s="43">
         <v>4.1900000000000004</v>
       </c>
       <c r="G141" s="1">
@@ -6540,11 +6530,11 @@
         <v>3.37</v>
       </c>
       <c r="I141" s="1"/>
-      <c r="J141" s="3">
+      <c r="J141" s="2">
         <f>Table4[[#This Row],[Final TTL]]-Table4[[#This Row],[Shipping]]</f>
         <v>7.2</v>
       </c>
-      <c r="K141" s="3">
+      <c r="K141" s="2">
         <f>K140+Table4[[#This Row],[Total Made]]</f>
         <v>166.89</v>
       </c>
@@ -6553,23 +6543,23 @@
         <v>569-#19387911</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A142" s="41">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A142" s="40">
         <v>44729</v>
       </c>
-      <c r="B142" s="9">
+      <c r="B142" s="8">
         <v>1</v>
       </c>
-      <c r="C142" s="9">
+      <c r="C142" s="8">
         <v>1</v>
       </c>
-      <c r="D142" s="42">
+      <c r="D142" s="41">
         <v>19404126</v>
       </c>
       <c r="E142">
         <v>570</v>
       </c>
-      <c r="F142" s="1">
+      <c r="F142" s="43">
         <v>1.97</v>
       </c>
       <c r="G142" s="1">
@@ -6579,11 +6569,11 @@
         <v>3.42</v>
       </c>
       <c r="I142" s="1"/>
-      <c r="J142" s="3">
+      <c r="J142" s="2">
         <f>Table4[[#This Row],[Final TTL]]-Table4[[#This Row],[Shipping]]</f>
         <v>5.4</v>
       </c>
-      <c r="K142" s="3">
+      <c r="K142" s="2">
         <f>K141+Table4[[#This Row],[Total Made]]</f>
         <v>172.29</v>
       </c>
@@ -6592,23 +6582,23 @@
         <v>570-#19404126</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A143" s="41">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A143" s="40">
         <v>44735</v>
       </c>
-      <c r="B143" s="9">
+      <c r="B143" s="8">
         <v>329</v>
       </c>
-      <c r="C143" s="9">
+      <c r="C143" s="8">
         <v>27</v>
       </c>
-      <c r="D143" s="42">
+      <c r="D143" s="41">
         <v>19446273</v>
       </c>
       <c r="E143">
         <v>571</v>
       </c>
-      <c r="F143" s="1">
+      <c r="F143" s="43">
         <v>62.21</v>
       </c>
       <c r="G143" s="1">
@@ -6618,11 +6608,11 @@
         <v>10.85</v>
       </c>
       <c r="I143" s="1"/>
-      <c r="J143" s="3">
+      <c r="J143" s="2">
         <f>Table4[[#This Row],[Final TTL]]-Table4[[#This Row],[Shipping]]</f>
         <v>69.77000000000001</v>
       </c>
-      <c r="K143" s="3">
+      <c r="K143" s="2">
         <f>K142+Table4[[#This Row],[Total Made]]</f>
         <v>242.06</v>
       </c>
@@ -6631,23 +6621,23 @@
         <v>571-#19446273</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A144" s="41">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A144" s="40">
         <v>44737</v>
       </c>
-      <c r="B144" s="9">
+      <c r="B144" s="8">
         <v>2</v>
       </c>
-      <c r="C144" s="9">
+      <c r="C144" s="8">
         <v>1</v>
       </c>
-      <c r="D144" s="42">
+      <c r="D144" s="41">
         <v>19455539</v>
       </c>
       <c r="E144">
         <v>572</v>
       </c>
-      <c r="F144" s="1">
+      <c r="F144" s="43">
         <v>1.57</v>
       </c>
       <c r="G144" s="1">
@@ -6657,11 +6647,11 @@
         <v>3.86</v>
       </c>
       <c r="I144" s="1"/>
-      <c r="J144" s="3">
+      <c r="J144" s="2">
         <f>Table4[[#This Row],[Final TTL]]-Table4[[#This Row],[Shipping]]</f>
         <v>3.9600000000000004</v>
       </c>
-      <c r="K144" s="3">
+      <c r="K144" s="2">
         <f>K143+Table4[[#This Row],[Total Made]]</f>
         <v>246.02</v>
       </c>
@@ -6670,23 +6660,23 @@
         <v>572-#19455539</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A145" s="41">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A145" s="40">
         <v>44738</v>
       </c>
-      <c r="B145" s="9">
+      <c r="B145" s="8">
         <v>1</v>
       </c>
-      <c r="C145" s="9">
+      <c r="C145" s="8">
         <v>1</v>
       </c>
-      <c r="D145" s="42">
+      <c r="D145" s="41">
         <v>19465804</v>
       </c>
       <c r="E145">
         <v>573</v>
       </c>
-      <c r="F145" s="1">
+      <c r="F145" s="43">
         <v>1.25</v>
       </c>
       <c r="G145" s="1">
@@ -6696,11 +6686,11 @@
         <v>3.86</v>
       </c>
       <c r="I145" s="1"/>
-      <c r="J145" s="3">
+      <c r="J145" s="2">
         <f>Table4[[#This Row],[Final TTL]]-Table4[[#This Row],[Shipping]]</f>
         <v>3.6300000000000003</v>
       </c>
-      <c r="K145" s="3">
+      <c r="K145" s="2">
         <f>K144+Table4[[#This Row],[Total Made]]</f>
         <v>249.65</v>
       </c>
@@ -6709,23 +6699,23 @@
         <v>573-#19465804</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A146" s="41">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A146" s="40">
         <v>44741</v>
       </c>
-      <c r="B146" s="9">
+      <c r="B146" s="8">
         <v>46</v>
       </c>
-      <c r="C146" s="9">
+      <c r="C146" s="8">
         <v>24</v>
       </c>
-      <c r="D146" s="42">
+      <c r="D146" s="41">
         <v>19484225</v>
       </c>
       <c r="E146">
         <v>574</v>
       </c>
-      <c r="F146" s="1">
+      <c r="F146" s="43">
         <v>4.9800000000000004</v>
       </c>
       <c r="G146" s="1">
@@ -6735,11 +6725,11 @@
         <v>3.86</v>
       </c>
       <c r="I146" s="1"/>
-      <c r="J146" s="3">
+      <c r="J146" s="2">
         <f>Table4[[#This Row],[Final TTL]]-Table4[[#This Row],[Shipping]]</f>
         <v>7.5400000000000009</v>
       </c>
-      <c r="K146" s="4">
+      <c r="K146" s="3">
         <f>K145+Table4[[#This Row],[Total Made]]</f>
         <v>257.19</v>
       </c>
@@ -6748,23 +6738,23 @@
         <v>574-#19484225</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A147" s="41">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A147" s="40">
         <v>44743</v>
       </c>
-      <c r="B147" s="9">
+      <c r="B147" s="8">
         <v>10</v>
       </c>
-      <c r="C147" s="9">
+      <c r="C147" s="8">
         <v>1</v>
       </c>
-      <c r="D147" s="42">
+      <c r="D147" s="41">
         <v>19505711</v>
       </c>
       <c r="E147">
         <v>575</v>
       </c>
-      <c r="F147" s="1">
+      <c r="F147" s="43">
         <v>7.88</v>
       </c>
       <c r="G147" s="1">
@@ -6774,7 +6764,7 @@
         <v>3.42</v>
       </c>
       <c r="I147" s="1"/>
-      <c r="J147" s="3">
+      <c r="J147" s="2">
         <f>Table4[[#This Row],[Final TTL]]-Table4[[#This Row],[Shipping]]</f>
         <v>11.03</v>
       </c>
@@ -6786,23 +6776,23 @@
         <v>575-#19505711</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A148" s="41">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A148" s="40">
         <v>44744</v>
       </c>
-      <c r="B148" s="9">
+      <c r="B148" s="8">
         <v>1</v>
       </c>
-      <c r="C148" s="9">
+      <c r="C148" s="8">
         <v>1</v>
       </c>
-      <c r="D148" s="42">
+      <c r="D148" s="41">
         <v>19511173</v>
       </c>
       <c r="E148">
         <v>576</v>
       </c>
-      <c r="F148" s="1">
+      <c r="F148" s="43">
         <v>0.57999999999999996</v>
       </c>
       <c r="G148" s="1">
@@ -6812,7 +6802,7 @@
         <v>3.58</v>
       </c>
       <c r="I148" s="1"/>
-      <c r="J148" s="3">
+      <c r="J148" s="2">
         <f>Table4[[#This Row],[Final TTL]]-Table4[[#This Row],[Shipping]]</f>
         <v>3.2</v>
       </c>
@@ -6825,23 +6815,23 @@
         <v>576-#19511173</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A149" s="41">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A149" s="40">
         <v>44744</v>
       </c>
-      <c r="B149" s="9">
+      <c r="B149" s="8">
         <v>1</v>
       </c>
-      <c r="C149" s="9">
+      <c r="C149" s="8">
         <v>1</v>
       </c>
-      <c r="D149" s="42">
+      <c r="D149" s="41">
         <v>19511427</v>
       </c>
       <c r="E149">
         <v>577</v>
       </c>
-      <c r="F149" s="1">
+      <c r="F149" s="43">
         <v>3.66</v>
       </c>
       <c r="G149" s="1">
@@ -6851,7 +6841,7 @@
         <v>3.86</v>
       </c>
       <c r="I149" s="1"/>
-      <c r="J149" s="3">
+      <c r="J149" s="2">
         <f>Table4[[#This Row],[Final TTL]]-Table4[[#This Row],[Shipping]]</f>
         <v>6.16</v>
       </c>
@@ -6864,23 +6854,23 @@
         <v>577-#19511427</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A150" s="41">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A150" s="40">
         <v>44746</v>
       </c>
-      <c r="B150" s="9">
+      <c r="B150" s="8">
         <v>1</v>
       </c>
-      <c r="C150" s="9">
+      <c r="C150" s="8">
         <v>1</v>
       </c>
-      <c r="D150" s="42">
+      <c r="D150" s="41">
         <v>19522085</v>
       </c>
       <c r="E150">
         <v>578</v>
       </c>
-      <c r="F150" s="1">
+      <c r="F150" s="43">
         <v>3.87</v>
       </c>
       <c r="G150" s="1">
@@ -6890,7 +6880,7 @@
         <v>3.39</v>
       </c>
       <c r="I150" s="1"/>
-      <c r="J150" s="3">
+      <c r="J150" s="2">
         <f>Table4[[#This Row],[Final TTL]]-Table4[[#This Row],[Shipping]]</f>
         <v>6.85</v>
       </c>
@@ -6903,23 +6893,23 @@
         <v>578-#19522085</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A151" s="41">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A151" s="40">
         <v>44748</v>
       </c>
-      <c r="B151" s="9">
+      <c r="B151" s="8">
         <v>8</v>
       </c>
-      <c r="C151" s="9">
+      <c r="C151" s="8">
         <v>5</v>
       </c>
-      <c r="D151" s="42">
+      <c r="D151" s="41">
         <v>19541824</v>
       </c>
       <c r="E151">
         <v>579</v>
       </c>
-      <c r="F151" s="1">
+      <c r="F151" s="43">
         <v>2.96</v>
       </c>
       <c r="G151" s="1">
@@ -6929,7 +6919,7 @@
         <v>3.58</v>
       </c>
       <c r="I151" s="1"/>
-      <c r="J151" s="3">
+      <c r="J151" s="2">
         <f>Table4[[#This Row],[Final TTL]]-Table4[[#This Row],[Shipping]]</f>
         <v>6.4</v>
       </c>
@@ -6942,23 +6932,23 @@
         <v>579-#19541824</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A152" s="41">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A152" s="40">
         <v>44751</v>
       </c>
-      <c r="B152" s="9">
+      <c r="B152" s="8">
         <v>4</v>
       </c>
-      <c r="C152" s="9">
+      <c r="C152" s="8">
         <v>2</v>
       </c>
-      <c r="D152" s="42">
+      <c r="D152" s="41">
         <v>19559754</v>
       </c>
       <c r="E152">
         <v>580</v>
       </c>
-      <c r="F152" s="1">
+      <c r="F152" s="43">
         <v>0.61</v>
       </c>
       <c r="G152" s="1">
@@ -6968,7 +6958,7 @@
         <v>3.39</v>
       </c>
       <c r="I152" s="1"/>
-      <c r="J152" s="3">
+      <c r="J152" s="2">
         <f>Table4[[#This Row],[Final TTL]]-Table4[[#This Row],[Shipping]]</f>
         <v>3.4199999999999995</v>
       </c>
@@ -6981,23 +6971,23 @@
         <v>580-#19559754</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A153" s="41">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A153" s="40">
         <v>44751</v>
       </c>
-      <c r="B153" s="9">
+      <c r="B153" s="8">
         <v>105</v>
       </c>
-      <c r="C153" s="9">
+      <c r="C153" s="8">
         <v>46</v>
       </c>
-      <c r="D153" s="42">
+      <c r="D153" s="41">
         <v>19560749</v>
       </c>
       <c r="E153">
         <v>581</v>
       </c>
-      <c r="F153" s="1">
+      <c r="F153" s="43">
         <v>10.210000000000001</v>
       </c>
       <c r="G153" s="1">
@@ -7007,7 +6997,7 @@
         <v>3.39</v>
       </c>
       <c r="I153" s="1"/>
-      <c r="J153" s="3">
+      <c r="J153" s="2">
         <f>Table4[[#This Row],[Final TTL]]-Table4[[#This Row],[Shipping]]</f>
         <v>13.5</v>
       </c>
@@ -7020,23 +7010,23 @@
         <v>581-#19560749</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A154" s="41">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A154" s="40">
         <v>44754</v>
       </c>
-      <c r="B154" s="9">
+      <c r="B154" s="8">
         <v>2</v>
       </c>
-      <c r="C154" s="9">
+      <c r="C154" s="8">
         <v>2</v>
       </c>
-      <c r="D154" s="42">
+      <c r="D154" s="41">
         <v>19585424</v>
       </c>
       <c r="E154">
         <v>582</v>
       </c>
-      <c r="F154" s="1">
+      <c r="F154" s="43">
         <v>1.46</v>
       </c>
       <c r="G154" s="1">
@@ -7046,7 +7036,7 @@
         <v>3.86</v>
       </c>
       <c r="I154" s="1"/>
-      <c r="J154" s="3">
+      <c r="J154" s="2">
         <f>Table4[[#This Row],[Final TTL]]-Table4[[#This Row],[Shipping]]</f>
         <v>3.85</v>
       </c>
@@ -7059,23 +7049,23 @@
         <v>582-#19585424</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A155" s="41">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A155" s="40">
         <v>44755</v>
       </c>
-      <c r="B155" s="9">
+      <c r="B155" s="8">
         <v>34</v>
       </c>
-      <c r="C155" s="9">
+      <c r="C155" s="8">
         <v>14</v>
       </c>
-      <c r="D155" s="42">
+      <c r="D155" s="41">
         <v>19592533</v>
       </c>
       <c r="E155">
         <v>583</v>
       </c>
-      <c r="F155" s="1">
+      <c r="F155" s="43">
         <v>6.88</v>
       </c>
       <c r="G155" s="1">
@@ -7085,7 +7075,7 @@
         <v>3.48</v>
       </c>
       <c r="I155" s="1"/>
-      <c r="J155" s="3">
+      <c r="J155" s="2">
         <f>Table4[[#This Row],[Final TTL]]-Table4[[#This Row],[Shipping]]</f>
         <v>9.92</v>
       </c>
@@ -7098,23 +7088,23 @@
         <v>583-#19592533</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A156" s="41">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A156" s="40">
         <v>44756</v>
       </c>
-      <c r="B156" s="9">
+      <c r="B156" s="8">
         <v>1</v>
       </c>
-      <c r="C156" s="9">
+      <c r="C156" s="8">
         <v>1</v>
       </c>
-      <c r="D156" s="42">
+      <c r="D156" s="41">
         <v>19597022</v>
       </c>
       <c r="E156">
         <v>584</v>
       </c>
-      <c r="F156" s="1">
+      <c r="F156" s="43">
         <v>2.39</v>
       </c>
       <c r="G156" s="1">
@@ -7124,7 +7114,7 @@
         <v>3.37</v>
       </c>
       <c r="I156" s="1"/>
-      <c r="J156" s="3">
+      <c r="J156" s="2">
         <f>Table4[[#This Row],[Final TTL]]-Table4[[#This Row],[Shipping]]</f>
         <v>5.31</v>
       </c>
@@ -7137,23 +7127,23 @@
         <v>584-#19597022</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A157" s="41">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A157" s="40">
         <v>44757</v>
       </c>
-      <c r="B157" s="9">
+      <c r="B157" s="8">
         <v>28</v>
       </c>
-      <c r="C157" s="9">
+      <c r="C157" s="8">
         <v>12</v>
       </c>
-      <c r="D157" s="42">
+      <c r="D157" s="41">
         <v>19607427</v>
       </c>
       <c r="E157">
         <v>585</v>
       </c>
-      <c r="F157" s="1">
+      <c r="F157" s="43">
         <v>6.43</v>
       </c>
       <c r="G157" s="1">
@@ -7163,7 +7153,7 @@
         <v>3.48</v>
       </c>
       <c r="I157" s="1"/>
-      <c r="J157" s="3">
+      <c r="J157" s="2">
         <f>Table4[[#This Row],[Final TTL]]-Table4[[#This Row],[Shipping]]</f>
         <v>9.44</v>
       </c>
@@ -7176,23 +7166,23 @@
         <v>585-#19607427</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A158" s="41">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A158" s="40">
         <v>44757</v>
       </c>
-      <c r="B158" s="9">
+      <c r="B158" s="8">
         <v>1</v>
       </c>
-      <c r="C158" s="9">
+      <c r="C158" s="8">
         <v>1</v>
       </c>
-      <c r="D158" s="42">
+      <c r="D158" s="41">
         <v>19607552</v>
       </c>
       <c r="E158">
         <v>586</v>
       </c>
-      <c r="F158" s="1">
+      <c r="F158" s="43">
         <v>1.1000000000000001</v>
       </c>
       <c r="G158" s="1">
@@ -7202,7 +7192,7 @@
         <v>3.39</v>
       </c>
       <c r="I158" s="1"/>
-      <c r="J158" s="3">
+      <c r="J158" s="2">
         <f>Table4[[#This Row],[Final TTL]]-Table4[[#This Row],[Shipping]]</f>
         <v>3.94</v>
       </c>
@@ -7215,23 +7205,23 @@
         <v>586-#19607552</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A159" s="41">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A159" s="40">
         <v>44758</v>
       </c>
-      <c r="B159" s="9">
+      <c r="B159" s="8">
         <v>216</v>
       </c>
-      <c r="C159" s="9">
+      <c r="C159" s="8">
         <v>103</v>
       </c>
-      <c r="D159" s="42">
+      <c r="D159" s="41">
         <v>19614688</v>
       </c>
       <c r="E159">
         <v>587</v>
       </c>
-      <c r="F159" s="1">
+      <c r="F159" s="43">
         <v>20.18</v>
       </c>
       <c r="G159" s="1">
@@ -7241,7 +7231,7 @@
         <v>3.99</v>
       </c>
       <c r="I159" s="1"/>
-      <c r="J159" s="3">
+      <c r="J159" s="2">
         <f>Table4[[#This Row],[Final TTL]]-Table4[[#This Row],[Shipping]]</f>
         <v>24.159999999999997</v>
       </c>
@@ -7254,23 +7244,23 @@
         <v>587-#19614688</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A160" s="41">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A160" s="40">
         <v>44759</v>
       </c>
-      <c r="B160" s="9">
+      <c r="B160" s="8">
         <v>7</v>
       </c>
-      <c r="C160" s="9">
+      <c r="C160" s="8">
         <v>4</v>
       </c>
-      <c r="D160" s="42">
+      <c r="D160" s="41">
         <v>19623309</v>
       </c>
       <c r="E160">
         <v>588</v>
       </c>
-      <c r="F160" s="1">
+      <c r="F160" s="43">
         <v>10.44</v>
       </c>
       <c r="G160" s="1">
@@ -7280,7 +7270,7 @@
         <v>3.86</v>
       </c>
       <c r="I160" s="1"/>
-      <c r="J160" s="3">
+      <c r="J160" s="2">
         <f>Table4[[#This Row],[Final TTL]]-Table4[[#This Row],[Shipping]]</f>
         <v>13.27</v>
       </c>
@@ -7293,23 +7283,23 @@
         <v>588-#19623309</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A161" s="41">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A161" s="40">
         <v>44761</v>
       </c>
-      <c r="B161" s="9">
+      <c r="B161" s="8">
         <v>219</v>
       </c>
-      <c r="C161" s="9">
+      <c r="C161" s="8">
         <v>69</v>
       </c>
-      <c r="D161" s="42">
+      <c r="D161" s="41">
         <v>19632493</v>
       </c>
       <c r="E161">
         <v>589</v>
       </c>
-      <c r="F161" s="1">
+      <c r="F161" s="43">
         <v>14.34</v>
       </c>
       <c r="G161" s="1">
@@ -7319,7 +7309,7 @@
         <v>3.81</v>
       </c>
       <c r="I161" s="1"/>
-      <c r="J161" s="3">
+      <c r="J161" s="2">
         <f>Table4[[#This Row],[Final TTL]]-Table4[[#This Row],[Shipping]]</f>
         <v>18.21</v>
       </c>
@@ -7332,23 +7322,23 @@
         <v>589-#19632493</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A162" s="41">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A162" s="40">
         <v>44762</v>
       </c>
-      <c r="B162" s="9">
+      <c r="B162" s="8">
         <v>1</v>
       </c>
-      <c r="C162" s="9">
+      <c r="C162" s="8">
         <v>1</v>
       </c>
-      <c r="D162" s="42">
+      <c r="D162" s="41">
         <v>19644858</v>
       </c>
       <c r="E162">
         <v>590</v>
       </c>
-      <c r="F162" s="1">
+      <c r="F162" s="43">
         <v>2.2200000000000002</v>
       </c>
       <c r="G162" s="1">
@@ -7358,7 +7348,7 @@
         <v>3.72</v>
       </c>
       <c r="I162" s="1"/>
-      <c r="J162" s="3">
+      <c r="J162" s="2">
         <f>Table4[[#This Row],[Final TTL]]-Table4[[#This Row],[Shipping]]</f>
         <v>4.9799999999999986</v>
       </c>
@@ -7367,27 +7357,27 @@
         <v>143.63999999999999</v>
       </c>
       <c r="L162" t="str">
-        <f t="shared" ref="L162:L175" si="22">_xlfn.CONCAT(E162,$N$2,D162)</f>
+        <f t="shared" ref="L162:L173" si="22">_xlfn.CONCAT(E162,$N$2,D162)</f>
         <v>590-#19644858</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A163" s="41">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A163" s="40">
         <v>44763</v>
       </c>
-      <c r="B163" s="9">
+      <c r="B163" s="8">
         <v>3</v>
       </c>
-      <c r="C163" s="9">
+      <c r="C163" s="8">
         <v>3</v>
       </c>
-      <c r="D163" s="42">
+      <c r="D163" s="41">
         <v>19648906</v>
       </c>
       <c r="E163">
         <v>591</v>
       </c>
-      <c r="F163" s="1">
+      <c r="F163" s="43">
         <v>1.39</v>
       </c>
       <c r="G163" s="1">
@@ -7397,7 +7387,7 @@
         <v>3.58</v>
       </c>
       <c r="I163" s="1"/>
-      <c r="J163" s="3">
+      <c r="J163" s="2">
         <f>Table4[[#This Row],[Final TTL]]-Table4[[#This Row],[Shipping]]</f>
         <v>4.68</v>
       </c>
@@ -7410,23 +7400,23 @@
         <v>591-#19648906</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A164" s="41">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A164" s="40">
         <v>44764</v>
       </c>
-      <c r="B164" s="9">
+      <c r="B164" s="8">
         <v>12</v>
       </c>
-      <c r="C164" s="9">
+      <c r="C164" s="8">
         <v>9</v>
       </c>
-      <c r="D164" s="42">
+      <c r="D164" s="41">
         <v>19657428</v>
       </c>
       <c r="E164">
         <v>592</v>
       </c>
-      <c r="F164" s="1">
+      <c r="F164" s="43">
         <v>7.87</v>
       </c>
       <c r="G164" s="1">
@@ -7436,7 +7426,7 @@
         <v>3.58</v>
       </c>
       <c r="I164" s="1"/>
-      <c r="J164" s="3">
+      <c r="J164" s="2">
         <f>Table4[[#This Row],[Final TTL]]-Table4[[#This Row],[Shipping]]</f>
         <v>10.86</v>
       </c>
@@ -7449,23 +7439,23 @@
         <v>592-#19657428</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A165" s="41">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A165" s="40">
         <v>44764</v>
       </c>
-      <c r="B165" s="9">
+      <c r="B165" s="8">
         <v>1</v>
       </c>
-      <c r="C165" s="9">
+      <c r="C165" s="8">
         <v>1</v>
       </c>
-      <c r="D165" s="42">
+      <c r="D165" s="41">
         <v>19658511</v>
       </c>
       <c r="E165">
         <v>593</v>
       </c>
-      <c r="F165" s="1">
+      <c r="F165" s="43">
         <v>4.6900000000000004</v>
       </c>
       <c r="G165" s="1">
@@ -7475,7 +7465,7 @@
         <v>3.72</v>
       </c>
       <c r="I165" s="1"/>
-      <c r="J165" s="3">
+      <c r="J165" s="2">
         <f>Table4[[#This Row],[Final TTL]]-Table4[[#This Row],[Shipping]]</f>
         <v>7.379999999999999</v>
       </c>
@@ -7488,23 +7478,23 @@
         <v>593-#19658511</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A166" s="41">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A166" s="40">
         <v>44758</v>
       </c>
-      <c r="B166" s="9">
+      <c r="B166" s="8">
         <v>10</v>
       </c>
-      <c r="C166" s="9">
+      <c r="C166" s="8">
         <v>2</v>
       </c>
-      <c r="D166" s="42">
+      <c r="D166" s="41">
         <v>19609550</v>
       </c>
       <c r="E166" t="s">
         <v>0</v>
       </c>
-      <c r="F166" s="1">
+      <c r="F166" s="43">
         <v>3.24</v>
       </c>
       <c r="G166" s="1">
@@ -7514,7 +7504,7 @@
         <v>16.96</v>
       </c>
       <c r="I166" s="1"/>
-      <c r="J166" s="3">
+      <c r="J166" s="2">
         <f>Table4[[#This Row],[Final TTL]]-Table4[[#This Row],[Shipping]]</f>
         <v>5.5399999999999991</v>
       </c>
@@ -7527,23 +7517,23 @@
         <v xml:space="preserve"> -#19609550</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A167" s="41">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A167" s="40">
         <v>44766</v>
       </c>
-      <c r="B167" s="9">
+      <c r="B167" s="8">
         <v>66</v>
       </c>
-      <c r="C167" s="9">
+      <c r="C167" s="8">
         <v>23</v>
       </c>
-      <c r="D167" s="42">
+      <c r="D167" s="41">
         <v>19673371</v>
       </c>
       <c r="E167">
         <v>594</v>
       </c>
-      <c r="F167" s="1">
+      <c r="F167" s="43">
         <f>8.95+0.51</f>
         <v>9.4599999999999991</v>
       </c>
@@ -7554,7 +7544,7 @@
         <v>3.86</v>
       </c>
       <c r="I167" s="1"/>
-      <c r="J167" s="3">
+      <c r="J167" s="2">
         <f>Table4[[#This Row],[Final TTL]]-Table4[[#This Row],[Shipping]]</f>
         <v>11.71</v>
       </c>
@@ -7567,23 +7557,23 @@
         <v>594-#19673371</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A168" s="41">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A168" s="40">
         <v>44770</v>
       </c>
-      <c r="B168" s="9">
+      <c r="B168" s="8">
         <v>6</v>
       </c>
-      <c r="C168" s="9">
+      <c r="C168" s="8">
         <v>4</v>
       </c>
-      <c r="D168" s="42">
+      <c r="D168" s="41">
         <v>19701426</v>
       </c>
       <c r="E168">
         <v>595</v>
       </c>
-      <c r="F168" s="1">
+      <c r="F168" s="43">
         <v>0.93</v>
       </c>
       <c r="G168" s="1">
@@ -7593,7 +7583,7 @@
         <v>3.42</v>
       </c>
       <c r="I168" s="1"/>
-      <c r="J168" s="3">
+      <c r="J168" s="2">
         <f>Table4[[#This Row],[Final TTL]]-Table4[[#This Row],[Shipping]]</f>
         <v>3.76</v>
       </c>
@@ -7606,23 +7596,23 @@
         <v>595-#19701426</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A169" s="41">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A169" s="40">
         <v>44771</v>
       </c>
-      <c r="B169" s="9">
+      <c r="B169" s="8">
         <v>73</v>
       </c>
-      <c r="C169" s="9">
+      <c r="C169" s="8">
         <v>30</v>
       </c>
-      <c r="D169" s="42">
+      <c r="D169" s="41">
         <v>19711847</v>
       </c>
       <c r="E169">
         <v>596</v>
       </c>
-      <c r="F169" s="1">
+      <c r="F169" s="43">
         <v>7.92</v>
       </c>
       <c r="G169" s="1">
@@ -7632,7 +7622,7 @@
         <v>3.39</v>
       </c>
       <c r="I169" s="1"/>
-      <c r="J169" s="3">
+      <c r="J169" s="2">
         <f>Table4[[#This Row],[Final TTL]]-Table4[[#This Row],[Shipping]]</f>
         <v>11.1</v>
       </c>
@@ -7645,23 +7635,23 @@
         <v>596-#19711847</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A170" s="41">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A170" s="40">
         <v>44772</v>
       </c>
-      <c r="B170" s="9">
+      <c r="B170" s="8">
         <v>143</v>
       </c>
-      <c r="C170" s="9">
+      <c r="C170" s="8">
         <v>33</v>
       </c>
-      <c r="D170" s="42">
+      <c r="D170" s="41">
         <v>19717692</v>
       </c>
       <c r="E170">
         <v>597</v>
       </c>
-      <c r="F170" s="1">
+      <c r="F170" s="43">
         <v>6.62</v>
       </c>
       <c r="G170" s="1">
@@ -7671,7 +7661,7 @@
         <v>3.37</v>
       </c>
       <c r="I170" s="1"/>
-      <c r="J170" s="3">
+      <c r="J170" s="2">
         <f>Table4[[#This Row],[Final TTL]]-Table4[[#This Row],[Shipping]]</f>
         <v>9.75</v>
       </c>
@@ -7684,23 +7674,23 @@
         <v>597-#19717692</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A171" s="41">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A171" s="40">
         <v>44772</v>
       </c>
-      <c r="B171" s="9">
+      <c r="B171" s="8">
         <v>168</v>
       </c>
-      <c r="C171" s="9">
+      <c r="C171" s="8">
         <v>57</v>
       </c>
-      <c r="D171" s="42">
+      <c r="D171" s="41">
         <v>19717918</v>
       </c>
       <c r="E171">
         <v>598</v>
       </c>
-      <c r="F171" s="1">
+      <c r="F171" s="43">
         <v>13.08</v>
       </c>
       <c r="G171" s="1">
@@ -7710,7 +7700,7 @@
         <v>3.86</v>
       </c>
       <c r="I171" s="1"/>
-      <c r="J171" s="3">
+      <c r="J171" s="2">
         <f>Table4[[#This Row],[Final TTL]]-Table4[[#This Row],[Shipping]]</f>
         <v>16.05</v>
       </c>
@@ -7723,23 +7713,23 @@
         <v>598-#19717918</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A172" s="41">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A172" s="40">
         <v>44773</v>
       </c>
-      <c r="B172" s="9">
+      <c r="B172" s="8">
         <v>1</v>
       </c>
-      <c r="C172" s="9">
+      <c r="C172" s="8">
         <v>1</v>
       </c>
-      <c r="D172" s="42">
+      <c r="D172" s="41">
         <v>19723775</v>
       </c>
       <c r="E172">
         <v>599</v>
       </c>
-      <c r="F172" s="1">
+      <c r="F172" s="43">
         <v>2.83</v>
       </c>
       <c r="G172" s="1">
@@ -7749,7 +7739,7 @@
         <v>3.86</v>
       </c>
       <c r="I172" s="1"/>
-      <c r="J172" s="3">
+      <c r="J172" s="2">
         <f>Table4[[#This Row],[Final TTL]]-Table4[[#This Row],[Shipping]]</f>
         <v>5.2800000000000011</v>
       </c>
@@ -7762,23 +7752,23 @@
         <v>599-#19723775</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A173" s="41">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A173" s="40">
         <v>44774</v>
       </c>
-      <c r="B173" s="9">
+      <c r="B173" s="8">
         <v>3</v>
       </c>
-      <c r="C173" s="9">
+      <c r="C173" s="8">
         <v>3</v>
       </c>
-      <c r="D173" s="42">
+      <c r="D173" s="41">
         <v>19730116</v>
       </c>
       <c r="E173">
         <v>600</v>
       </c>
-      <c r="F173" s="1">
+      <c r="F173" s="43">
         <v>3.55</v>
       </c>
       <c r="G173" s="1">
@@ -7788,7 +7778,7 @@
         <v>3.42</v>
       </c>
       <c r="I173" s="1"/>
-      <c r="J173" s="3">
+      <c r="J173" s="2">
         <f>Table4[[#This Row],[Final TTL]]-Table4[[#This Row],[Shipping]]</f>
         <v>6.48</v>
       </c>
@@ -7801,71 +7791,32 @@
         <v>600-#19730116</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A174" s="41">
-        <v>44776</v>
-      </c>
-      <c r="B174" s="9">
-        <v>3</v>
-      </c>
-      <c r="C174" s="9">
-        <v>2</v>
-      </c>
-      <c r="D174" s="42">
-        <v>19744626</v>
-      </c>
-      <c r="E174">
-        <v>601</v>
-      </c>
-      <c r="F174" s="1">
-        <v>2.42</v>
-      </c>
-      <c r="G174" s="1">
-        <v>8.7100000000000009</v>
-      </c>
-      <c r="H174" s="1">
-        <v>3.42</v>
-      </c>
-      <c r="I174" s="1"/>
-      <c r="J174" s="3">
-        <f>Table4[[#This Row],[Final TTL]]-Table4[[#This Row],[Shipping]]</f>
-        <v>5.2900000000000009</v>
-      </c>
-      <c r="K174" s="1">
-        <f>K173+Table4[[#This Row],[Total Made]]</f>
-        <v>11.770000000000001</v>
-      </c>
-      <c r="L174" t="str">
-        <f t="shared" si="22"/>
-        <v>601-#19744626</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="B175" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C175" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D175" t="n">
-        <v>23462.0</v>
-      </c>
-      <c r="E175" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F175" t="s">
-        <v>85</v>
-      </c>
-      <c r="G175" t="s">
-        <v>85</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J175" t="n">
+    <row r="174">
+      <c r="B174" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C174" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D174" t="n">
+        <v>458.0</v>
+      </c>
+      <c r="E174" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G174" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H174" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J174" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -7889,29 +7840,29 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.5703125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="30.85546875"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="11.7109375"/>
-    <col min="5" max="5" customWidth="true" width="27.28515625"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.5546875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="30.88671875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="11.6640625"/>
+    <col min="5" max="5" customWidth="true" width="27.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -7921,12 +7872,12 @@
       <c r="C2" s="1">
         <v>15</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="13">
         <f>'Set Selling'!C1</f>
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -7936,12 +7887,12 @@
       <c r="C3" s="1">
         <v>150</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="13">
         <f>'Set Selling'!D1</f>
         <v>-77.250000000000014</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -7951,12 +7902,12 @@
       <c r="C4" s="1">
         <v>5</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <f>'Set Selling'!E1</f>
         <v>-4.8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -7966,12 +7917,12 @@
       <c r="C5" s="1">
         <v>49</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <f>'Set Selling'!F1</f>
         <v>-48.84</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -7981,12 +7932,12 @@
       <c r="C6" s="1">
         <v>-45</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <f>'Set Selling'!G1</f>
         <v>-11.5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -7996,12 +7947,12 @@
       <c r="C7" s="1">
         <v>-20</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="13">
         <f>'Set Selling'!H1</f>
         <v>-10.639999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -8011,12 +7962,12 @@
       <c r="C8" s="1">
         <v>-40</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="13">
         <f>'Set Selling'!I1</f>
         <v>-37.909999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -8026,12 +7977,12 @@
       <c r="C9" s="1">
         <v>-103</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <f>'Set Selling'!J1</f>
         <v>-101.56</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>59</v>
       </c>
@@ -8041,12 +7992,12 @@
       <c r="C10" s="1">
         <v>-35</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="13">
         <f>'Set Selling'!K1</f>
         <v>-34.64</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -8056,12 +8007,12 @@
       <c r="C11" s="1">
         <v>-4</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <f>'Set Selling'!L1</f>
         <v>3.9400000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>68</v>
       </c>
@@ -8071,7 +8022,7 @@
       <c r="C12" s="1">
         <v>-30</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="13">
         <f>'Set Selling'!M1</f>
         <v>-30</v>
       </c>
@@ -8079,7 +8030,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>70</v>
       </c>
@@ -8089,7 +8040,7 @@
       <c r="C13" s="1">
         <v>-75</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="13">
         <f>'Set Selling'!N1</f>
         <v>-75</v>
       </c>
@@ -8097,7 +8048,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>72</v>
       </c>
@@ -8107,7 +8058,7 @@
       <c r="C14" s="1">
         <v>-30</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="13">
         <f>'Set Selling'!O1</f>
         <v>-30</v>
       </c>
@@ -8131,250 +8082,250 @@
       <selection pane="topRight" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="6" width="12.7109375"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="28" width="9.5703125"/>
-    <col min="3" max="3" customWidth="true" style="7" width="11.28515625"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="9.5703125"/>
-    <col min="7" max="9" style="1" width="8.85546875"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="9.5703125"/>
+    <col min="1" max="1" customWidth="true" style="5" width="12.6640625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="9.5546875"/>
+    <col min="3" max="3" customWidth="true" style="6" width="11.33203125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="9.5546875"/>
+    <col min="7" max="9" style="1" width="8.88671875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="9.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:19" s="17" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="37">
+      <c r="B1" s="36">
         <f>B2+B3</f>
         <v>-453.2</v>
       </c>
-      <c r="C1" s="29">
+      <c r="C1" s="28">
         <f>C2+C3</f>
         <v>5</v>
       </c>
-      <c r="D1" s="25">
+      <c r="D1" s="24">
         <f>D2+D3</f>
         <v>-77.250000000000014</v>
       </c>
-      <c r="E1" s="19">
+      <c r="E1" s="18">
         <f t="shared" ref="E1:F1" si="0">E2+E3</f>
         <v>-4.8</v>
       </c>
-      <c r="F1" s="19">
+      <c r="F1" s="18">
         <f t="shared" si="0"/>
         <v>-48.84</v>
       </c>
-      <c r="G1" s="25">
+      <c r="G1" s="24">
         <f>G2+G3</f>
         <v>-11.5</v>
       </c>
-      <c r="H1" s="25">
+      <c r="H1" s="24">
         <f>H2+H3</f>
         <v>-10.639999999999999</v>
       </c>
-      <c r="I1" s="19">
+      <c r="I1" s="18">
         <f t="shared" ref="I1:N1" si="1">I2+I3</f>
         <v>-37.909999999999997</v>
       </c>
-      <c r="J1" s="19">
+      <c r="J1" s="18">
         <f t="shared" si="1"/>
         <v>-101.56</v>
       </c>
-      <c r="K1" s="25">
+      <c r="K1" s="24">
         <f>K2+K3</f>
         <v>-34.64</v>
       </c>
-      <c r="L1" s="19">
+      <c r="L1" s="18">
         <f t="shared" si="1"/>
         <v>3.9400000000000004</v>
       </c>
-      <c r="M1" s="19">
+      <c r="M1" s="18">
         <f t="shared" si="1"/>
         <v>-30</v>
       </c>
-      <c r="N1" s="19">
+      <c r="N1" s="18">
         <f t="shared" si="1"/>
         <v>-75</v>
       </c>
-      <c r="O1" s="25">
+      <c r="O1" s="24">
         <f>O2+O3</f>
         <v>-30</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="27" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:19" s="26" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="33">
+      <c r="B2" s="32">
         <f>SUM(C2:O2)</f>
         <v>-601</v>
       </c>
-      <c r="C2" s="30">
+      <c r="C2" s="29">
         <v>-15</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="24">
         <v>-150</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="25">
         <v>-5</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="25">
         <v>-49</v>
       </c>
-      <c r="G2" s="25">
+      <c r="G2" s="24">
         <f>'Set Bought'!C6</f>
         <v>-45</v>
       </c>
-      <c r="H2" s="25">
+      <c r="H2" s="24">
         <f>'Set Bought'!C7</f>
         <v>-20</v>
       </c>
-      <c r="I2" s="25">
+      <c r="I2" s="24">
         <f>'Set Bought'!C8</f>
         <v>-40</v>
       </c>
-      <c r="J2" s="33">
+      <c r="J2" s="32">
         <f>'Set Bought'!C9</f>
         <v>-103</v>
       </c>
-      <c r="K2" s="33">
+      <c r="K2" s="32">
         <f>'Set Bought'!C10</f>
         <v>-35</v>
       </c>
-      <c r="L2" s="33">
+      <c r="L2" s="32">
         <f>'Set Bought'!C11</f>
         <v>-4</v>
       </c>
-      <c r="M2" s="33">
+      <c r="M2" s="32">
         <f>'Set Bought'!C12</f>
         <v>-30</v>
       </c>
-      <c r="N2" s="33">
+      <c r="N2" s="32">
         <f>'Set Bought'!C13</f>
         <v>-75</v>
       </c>
-      <c r="O2" s="33">
+      <c r="O2" s="32">
         <f>'Set Bought'!C14</f>
         <v>-30</v>
       </c>
-      <c r="R2" s="27" t="s">
+      <c r="R2" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="S2" s="27">
+      <c r="S2" s="26">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:19" s="21" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="20">
         <f>SUM(C3:O3)</f>
         <v>147.80000000000001</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="30">
         <f t="shared" ref="C3:O3" si="2">SUMIF(C5:C250,"&lt;&gt;",C5:C250)</f>
         <v>20</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="22">
         <f t="shared" si="2"/>
         <v>72.749999999999986</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="19">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="F3" s="35">
+      <c r="F3" s="34">
         <f t="shared" si="2"/>
         <v>0.16</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="22">
         <f t="shared" si="2"/>
         <v>33.5</v>
       </c>
-      <c r="H3" s="23">
+      <c r="H3" s="22">
         <f t="shared" si="2"/>
         <v>9.3600000000000012</v>
       </c>
-      <c r="I3" s="20">
+      <c r="I3" s="19">
         <f t="shared" si="2"/>
         <v>2.09</v>
       </c>
-      <c r="J3" s="21">
+      <c r="J3" s="20">
         <f>SUMIF(J5:J250,"&lt;&gt;",J5:J250)</f>
         <v>1.44</v>
       </c>
-      <c r="K3" s="23">
+      <c r="K3" s="22">
         <f t="shared" si="2"/>
         <v>0.36</v>
       </c>
-      <c r="L3" s="34">
+      <c r="L3" s="33">
         <f t="shared" si="2"/>
         <v>7.94</v>
       </c>
-      <c r="M3" s="20">
+      <c r="M3" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N3" s="20">
+      <c r="N3" s="19">
         <f>SUMIF(N5:N250,"&lt;&gt;",N5:N250)</f>
         <v>0</v>
       </c>
-      <c r="O3" s="36">
+      <c r="O3" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="28" t="s">
+    <row r="4" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="31">
         <f>SUMIF(C5:AA5,"&lt;&gt;",C5:AA5)</f>
         <v>20</v>
       </c>
@@ -8382,50 +8333,50 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="31">
         <f>SUMIF(C6:AA6,"&lt;&gt;",C6:AA6)</f>
         <v>1.66</v>
       </c>
-      <c r="C6" s="24"/>
+      <c r="C6" s="23"/>
       <c r="D6" s="1">
         <v>1.66</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="31">
         <f t="shared" ref="B7:B34" si="3">SUMIF(C7:AA7,"&lt;&gt;",C7:AA7)</f>
         <v>4.3099999999999996</v>
       </c>
-      <c r="C7" s="24"/>
+      <c r="C7" s="23"/>
       <c r="D7" s="1">
         <v>4.3099999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="32">
+      <c r="B8" s="31">
         <f t="shared" si="3"/>
         <v>0.89</v>
       </c>
-      <c r="C8" s="24"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="1">
         <v>0.89</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B9" s="31">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
@@ -8433,37 +8384,37 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="32">
+      <c r="B10" s="31">
         <f t="shared" si="3"/>
         <v>1.1200000000000001</v>
       </c>
-      <c r="C10" s="24"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="1">
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="32">
+      <c r="B11" s="31">
         <f t="shared" si="3"/>
         <v>0.85</v>
       </c>
-      <c r="C11" s="24"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="1">
         <v>0.85</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="32">
+      <c r="B12" s="31">
         <f t="shared" si="3"/>
         <v>1.62</v>
       </c>
@@ -8474,11 +8425,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="31">
         <f t="shared" si="3"/>
         <v>34.69</v>
       </c>
@@ -8486,11 +8437,11 @@
         <v>34.69</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="28">
+      <c r="B14" s="27">
         <f t="shared" si="3"/>
         <v>0.3</v>
       </c>
@@ -8498,11 +8449,11 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A15" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="28">
+      <c r="B15" s="27">
         <f t="shared" si="3"/>
         <v>5.37</v>
       </c>
@@ -8513,11 +8464,11 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A16" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="32">
+      <c r="B16" s="31">
         <f t="shared" si="3"/>
         <v>0.39</v>
       </c>
@@ -8525,11 +8476,11 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A17" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="28">
+      <c r="B17" s="27">
         <f t="shared" si="3"/>
         <v>3.29</v>
       </c>
@@ -8540,11 +8491,11 @@
         <v>2.91</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A18" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="28">
+      <c r="B18" s="27">
         <f t="shared" si="3"/>
         <v>3.66</v>
       </c>
@@ -8552,11 +8503,11 @@
         <v>3.66</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A19" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="28">
+      <c r="B19" s="27">
         <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
@@ -8564,11 +8515,11 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A20" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="28">
+      <c r="B20" s="27">
         <f t="shared" si="3"/>
         <v>3.27</v>
       </c>
@@ -8576,11 +8527,11 @@
         <v>3.27</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A21" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="28">
+      <c r="B21" s="27">
         <f t="shared" si="3"/>
         <v>1.4</v>
       </c>
@@ -8588,11 +8539,11 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A22" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="32">
+      <c r="B22" s="31">
         <f>SUMIF(C22:AA22,"&lt;&gt;",C22:AA22)</f>
         <v>5.36</v>
       </c>
@@ -8606,11 +8557,11 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A23" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="32">
+      <c r="B23" s="31">
         <f t="shared" si="3"/>
         <v>1.1000000000000001</v>
       </c>
@@ -8618,11 +8569,11 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A24" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="32">
+      <c r="B24" s="31">
         <f t="shared" si="3"/>
         <v>10.439999999999998</v>
       </c>
@@ -8645,11 +8596,11 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A25" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="32">
+      <c r="B25" s="31">
         <f t="shared" si="3"/>
         <v>4.6900000000000004</v>
       </c>
@@ -8657,11 +8608,11 @@
         <v>4.6900000000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A26" s="8" t="s">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A26" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="32">
+      <c r="B26" s="31">
         <f t="shared" si="3"/>
         <v>0.45999999999999996</v>
       </c>
@@ -8672,11 +8623,11 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A27" s="6" t="s">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A27" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="32">
+      <c r="B27" s="31">
         <f t="shared" si="3"/>
         <v>4.6899999999999995</v>
       </c>
@@ -8690,11 +8641,11 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A28" s="6" t="s">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A28" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="32">
+      <c r="B28" s="31">
         <f t="shared" si="3"/>
         <v>2.91</v>
       </c>
@@ -8714,11 +8665,11 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A29" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="32">
+      <c r="B29" s="31">
         <f t="shared" si="3"/>
         <v>0.72</v>
       </c>
@@ -8729,11 +8680,11 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A30" s="6" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A30" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="28">
+      <c r="B30" s="27">
         <f t="shared" si="3"/>
         <v>5.86</v>
       </c>
@@ -8750,11 +8701,11 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A31" s="6" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A31" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B31" s="28">
+      <c r="B31" s="27">
         <f t="shared" si="3"/>
         <v>2.83</v>
       </c>
@@ -8762,11 +8713,11 @@
         <v>2.83</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A32" s="6" t="s">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A32" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="32">
+      <c r="B32" s="31">
         <f t="shared" si="3"/>
         <v>3.55</v>
       </c>
@@ -8774,11 +8725,11 @@
         <v>3.55</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A33" s="6" t="s">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A33" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B33" s="28">
+      <c r="B33" s="27">
         <f t="shared" si="3"/>
         <v>0.96</v>
       </c>
@@ -8786,11 +8737,11 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A34" s="6" t="s">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A34" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B34" s="28">
+      <c r="B34" s="27">
         <f t="shared" si="3"/>
         <v>1.1599999999999999</v>
       </c>
